--- a/src/OLAP/DataSources/UTB_UFSA.Profit.xlsx
+++ b/src/OLAP/DataSources/UTB_UFSA.Profit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\OLAP\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B317517-E459-455D-8318-E0DABDB46D6C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E10CFCB-C24C-4ABD-9D35-EC88C3BCCAE4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -686,7 +686,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="44438.429235069445" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF1C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="44489.40533090278" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF1C000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Доход]" caption="Доход" numFmtId="0" hierarchy="120" level="32767"/>
@@ -1515,7 +1515,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,19 +1527,19 @@
     <col min="5" max="11" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="28" max="29" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="31" max="33" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -1638,28 +1638,28 @@
         <v>1583.26</v>
       </c>
       <c r="E3" s="3">
-        <v>1182260.3299999957</v>
+        <v>1182260.3299999968</v>
       </c>
       <c r="F3" s="3">
-        <v>808904.52999999968</v>
+        <v>808904.52999999921</v>
       </c>
       <c r="G3" s="3">
-        <v>1216548.9099999992</v>
+        <v>1216548.9099999995</v>
       </c>
       <c r="H3" s="3">
-        <v>1042838.3000000005</v>
+        <v>1042838.3000000002</v>
       </c>
       <c r="I3" s="3">
         <v>1082934.0899999996</v>
       </c>
       <c r="J3" s="3">
-        <v>1445081.3299999989</v>
+        <v>1445081.3299999991</v>
       </c>
       <c r="K3" s="3">
-        <v>1572214.21</v>
+        <v>1572214.2099999995</v>
       </c>
       <c r="L3" s="3">
-        <v>1138305.2200000002</v>
+        <v>1138305.2200000004</v>
       </c>
       <c r="M3" s="3">
         <v>291949.25000000012</v>
@@ -1678,34 +1678,34 @@
         <v>2877.62</v>
       </c>
       <c r="E4" s="3">
-        <v>1254921.679999995</v>
+        <v>1254921.679999996</v>
       </c>
       <c r="F4" s="3">
-        <v>952718.16999999946</v>
+        <v>952718.16999999993</v>
       </c>
       <c r="G4" s="3">
-        <v>1833124.8300000031</v>
+        <v>1833124.8300000029</v>
       </c>
       <c r="H4" s="3">
-        <v>1298489.860000002</v>
+        <v>1298489.8600000022</v>
       </c>
       <c r="I4" s="3">
-        <v>1166777.17</v>
+        <v>1166777.169999999</v>
       </c>
       <c r="J4" s="3">
-        <v>1451125.3700000003</v>
+        <v>1451125.37</v>
       </c>
       <c r="K4" s="3">
-        <v>1517697.1099999996</v>
+        <v>1517697.1099999999</v>
       </c>
       <c r="L4" s="3">
-        <v>1394357.2199999988</v>
+        <v>1394357.2199999993</v>
       </c>
       <c r="M4" s="3">
-        <v>574713.78000000014</v>
+        <v>574713.78000000026</v>
       </c>
       <c r="N4" s="3">
-        <v>11446802.809999995</v>
+        <v>11446802.809999997</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1718,7 +1718,7 @@
         <v>8283.61</v>
       </c>
       <c r="E5" s="3">
-        <v>1387802.8599999973</v>
+        <v>1387802.8599999999</v>
       </c>
       <c r="F5" s="3">
         <v>1235344.0300000012</v>
@@ -1727,25 +1727,25 @@
         <v>2357260.8799999985</v>
       </c>
       <c r="H5" s="3">
-        <v>1666236.3999999955</v>
+        <v>1666236.3999999985</v>
       </c>
       <c r="I5" s="3">
-        <v>1416818.9100000006</v>
+        <v>1416818.9099999992</v>
       </c>
       <c r="J5" s="3">
-        <v>1621082.5400000007</v>
+        <v>1621082.5400000012</v>
       </c>
       <c r="K5" s="3">
-        <v>1764376.810000001</v>
+        <v>1764376.8100000015</v>
       </c>
       <c r="L5" s="3">
-        <v>673017.8800000007</v>
+        <v>673017.88000000082</v>
       </c>
       <c r="M5" s="3">
-        <v>388378.02000000008</v>
+        <v>388207.02000000008</v>
       </c>
       <c r="N5" s="3">
-        <v>12518601.939999994</v>
+        <v>12518430.939999999</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1762,34 +1762,34 @@
         <v>7057.1399999999994</v>
       </c>
       <c r="E6" s="3">
-        <v>1463393.4499999983</v>
+        <v>1463393.4499999958</v>
       </c>
       <c r="F6" s="3">
-        <v>1608671.330000001</v>
+        <v>1608671.3299999998</v>
       </c>
       <c r="G6" s="3">
-        <v>2468918.9099999992</v>
+        <v>2468918.9099999988</v>
       </c>
       <c r="H6" s="3">
-        <v>1397073.089999998</v>
+        <v>1397073.0900000008</v>
       </c>
       <c r="I6" s="3">
-        <v>1447668.3700000003</v>
+        <v>1447668.3700000015</v>
       </c>
       <c r="J6" s="3">
-        <v>1708027.3399999996</v>
+        <v>1708027.3399999994</v>
       </c>
       <c r="K6" s="3">
-        <v>1417309.6799999997</v>
+        <v>1417309.6800000002</v>
       </c>
       <c r="L6" s="3">
-        <v>212748.90000000002</v>
+        <v>212748.90000000008</v>
       </c>
       <c r="M6" s="3">
-        <v>663303.67000000039</v>
+        <v>663302.67000000039</v>
       </c>
       <c r="N6" s="3">
-        <v>12398648.629999999</v>
+        <v>12398647.629999997</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1802,22 +1802,22 @@
         <v>6894.9600000000009</v>
       </c>
       <c r="E7" s="3">
-        <v>1144927.7800000003</v>
+        <v>1144927.780000001</v>
       </c>
       <c r="F7" s="3">
-        <v>1504290.4199999995</v>
+        <v>1504290.4200000016</v>
       </c>
       <c r="G7" s="3">
-        <v>1538289.4999999979</v>
+        <v>1538289.4999999965</v>
       </c>
       <c r="H7" s="3">
-        <v>1381284.1400000011</v>
+        <v>1381284.1400000008</v>
       </c>
       <c r="I7" s="3">
         <v>1701134.8499999982</v>
       </c>
       <c r="J7" s="3">
-        <v>1746004.4499999993</v>
+        <v>1746004.4499999997</v>
       </c>
       <c r="K7" s="3">
         <v>1680489.4900000016</v>
@@ -1826,10 +1826,10 @@
         <v>53156.14</v>
       </c>
       <c r="M7" s="3">
-        <v>612824.41999999853</v>
+        <v>614260.98999999859</v>
       </c>
       <c r="N7" s="3">
-        <v>11369296.149999999</v>
+        <v>11370732.719999999</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1842,10 +1842,10 @@
         <v>2138.9700000000003</v>
       </c>
       <c r="E8" s="3">
-        <v>1184562.3200000017</v>
+        <v>1184562.32</v>
       </c>
       <c r="F8" s="3">
-        <v>1831448.7400000002</v>
+        <v>1831448.7400000042</v>
       </c>
       <c r="G8" s="3">
         <v>1530341.0100000009</v>
@@ -1854,22 +1854,22 @@
         <v>1361791.9399999969</v>
       </c>
       <c r="I8" s="3">
-        <v>1805774.6000000034</v>
+        <v>1805774.6000000043</v>
       </c>
       <c r="J8" s="3">
-        <v>1814590.7200000002</v>
+        <v>1814590.7200000004</v>
       </c>
       <c r="K8" s="3">
-        <v>1472068.6900000039</v>
+        <v>1472068.6900000037</v>
       </c>
       <c r="L8" s="3">
         <v>74087.340000000011</v>
       </c>
       <c r="M8" s="3">
-        <v>982900.96000000066</v>
+        <v>982900.96000000078</v>
       </c>
       <c r="N8" s="3">
-        <v>12059705.29000001</v>
+        <v>12059705.290000012</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1882,34 +1882,34 @@
         <v>11924.080000000004</v>
       </c>
       <c r="E9" s="3">
-        <v>1380616.3899999987</v>
+        <v>1380616.3900000022</v>
       </c>
       <c r="F9" s="3">
-        <v>1530162.2599999986</v>
+        <v>1530162.2599999981</v>
       </c>
       <c r="G9" s="3">
         <v>1534772.7800000007</v>
       </c>
       <c r="H9" s="3">
-        <v>1412050.1100000041</v>
+        <v>1412050.1100000043</v>
       </c>
       <c r="I9" s="3">
-        <v>1801156.98</v>
+        <v>1801156.9800000002</v>
       </c>
       <c r="J9" s="3">
-        <v>1728532.8499999987</v>
+        <v>1728532.8499999985</v>
       </c>
       <c r="K9" s="3">
-        <v>1574641.5199999986</v>
+        <v>1574641.5199999982</v>
       </c>
       <c r="L9" s="3">
-        <v>314639.2699999999</v>
+        <v>314639.27</v>
       </c>
       <c r="M9" s="3">
-        <v>873482.32000000076</v>
+        <v>865897.17000000074</v>
       </c>
       <c r="N9" s="3">
-        <v>12161978.560000001</v>
+        <v>12154393.410000002</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1922,34 +1922,34 @@
         <v>6837.5800000000017</v>
       </c>
       <c r="E10" s="3">
-        <v>1435011.8799999985</v>
+        <v>1435011.8799999994</v>
       </c>
       <c r="F10" s="3">
-        <v>1325711.2400000012</v>
+        <v>1325711.2399999998</v>
       </c>
       <c r="G10" s="3">
-        <v>1449278.1400000004</v>
+        <v>1449278.1400000011</v>
       </c>
       <c r="H10" s="3">
         <v>1210629.7500000033</v>
       </c>
       <c r="I10" s="3">
-        <v>2152343.9000000008</v>
+        <v>2152343.9000000004</v>
       </c>
       <c r="J10" s="3">
         <v>1890820.0800000008</v>
       </c>
       <c r="K10" s="3">
-        <v>1554264.26</v>
+        <v>1554264.2600000002</v>
       </c>
       <c r="L10" s="3">
         <v>316619.55</v>
       </c>
       <c r="M10" s="3">
-        <v>1104443.8300000005</v>
+        <v>1299790.6100000008</v>
       </c>
       <c r="N10" s="3">
-        <v>12445960.210000006</v>
+        <v>12641306.990000008</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1962,32 +1962,34 @@
         <v>5242.5199999999995</v>
       </c>
       <c r="E11" s="3">
-        <v>1300718.0199999991</v>
+        <v>1300718.0199999965</v>
       </c>
       <c r="F11" s="3">
         <v>1677367.4900000014</v>
       </c>
       <c r="G11" s="3">
-        <v>1577365.9499999962</v>
+        <v>1577365.9499999976</v>
       </c>
       <c r="H11" s="3">
         <v>1215468.4000000015</v>
       </c>
       <c r="I11" s="3">
-        <v>1626600.9099999962</v>
+        <v>1626600.9099999967</v>
       </c>
       <c r="J11" s="3">
-        <v>1599634.8099999987</v>
+        <v>1599634.81</v>
       </c>
       <c r="K11" s="3">
-        <v>1397886.0899999971</v>
+        <v>1397886.0899999975</v>
       </c>
       <c r="L11" s="3">
-        <v>275574.74</v>
-      </c>
-      <c r="M11" s="3"/>
+        <v>275574.74000000005</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1206726.4199999985</v>
+      </c>
       <c r="N11" s="3">
-        <v>10675858.92999999</v>
+        <v>11882585.349999988</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1999,35 +2001,37 @@
         <v>2080.54</v>
       </c>
       <c r="D12" s="3">
-        <v>12537.169999999998</v>
+        <v>12537.169999999996</v>
       </c>
       <c r="E12" s="3">
-        <v>1270938.6699999939</v>
+        <v>1270938.6699999957</v>
       </c>
       <c r="F12" s="3">
-        <v>1350522.9200000027</v>
+        <v>1350522.9200000023</v>
       </c>
       <c r="G12" s="3">
-        <v>1397403.7200000002</v>
+        <v>1397403.7200000007</v>
       </c>
       <c r="H12" s="3">
-        <v>1228070.3599999989</v>
+        <v>1228070.3599999992</v>
       </c>
       <c r="I12" s="3">
-        <v>1822764.9300000004</v>
+        <v>1822764.9299999997</v>
       </c>
       <c r="J12" s="3">
-        <v>1838977.0899999987</v>
+        <v>1838977.0899999994</v>
       </c>
       <c r="K12" s="3">
         <v>1430627.0099999984</v>
       </c>
       <c r="L12" s="3">
-        <v>325145.6700000001</v>
-      </c>
-      <c r="M12" s="3"/>
+        <v>325145.67000000016</v>
+      </c>
+      <c r="M12" s="3">
+        <v>693490.97000000044</v>
+      </c>
       <c r="N12" s="3">
-        <v>10679068.079999991</v>
+        <v>11372559.049999995</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -2039,35 +2043,35 @@
         <v>165.96000000000004</v>
       </c>
       <c r="D13" s="3">
-        <v>26665.450000000008</v>
+        <v>26665.450000000004</v>
       </c>
       <c r="E13" s="3">
-        <v>1148799.4799999995</v>
+        <v>1148799.4799999986</v>
       </c>
       <c r="F13" s="3">
-        <v>1307259.300000001</v>
+        <v>1307259.2999999989</v>
       </c>
       <c r="G13" s="3">
-        <v>1388836.7200000007</v>
+        <v>1388836.7200000002</v>
       </c>
       <c r="H13" s="3">
-        <v>1122793.1100000015</v>
+        <v>1122793.1100000017</v>
       </c>
       <c r="I13" s="3">
-        <v>1729851.0400000003</v>
+        <v>1729851.0400000005</v>
       </c>
       <c r="J13" s="3">
-        <v>1448316.3500000006</v>
+        <v>1448316.35</v>
       </c>
       <c r="K13" s="3">
-        <v>1146024.1500000008</v>
+        <v>1146024.1500000006</v>
       </c>
       <c r="L13" s="3">
-        <v>390104.56999999989</v>
+        <v>390104.56999999983</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3">
-        <v>9708816.1300000045</v>
+        <v>9708816.1300000008</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -2077,35 +2081,35 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3">
-        <v>49429.81</v>
+        <v>49429.810000000019</v>
       </c>
       <c r="E14" s="3">
-        <v>910679.65</v>
+        <v>910679.65000000212</v>
       </c>
       <c r="F14" s="3">
-        <v>1364272.56</v>
+        <v>1364272.5600000026</v>
       </c>
       <c r="G14" s="3">
         <v>1224427.8699999996</v>
       </c>
       <c r="H14" s="3">
-        <v>1333901.1100000008</v>
+        <v>1333901.1100000013</v>
       </c>
       <c r="I14" s="3">
         <v>992715.60999999952</v>
       </c>
       <c r="J14" s="3">
-        <v>1589238.5399999996</v>
+        <v>1589238.5399999986</v>
       </c>
       <c r="K14" s="3">
-        <v>947957.93000000087</v>
+        <v>947577.93000000087</v>
       </c>
       <c r="L14" s="3">
         <v>407078.84000000026</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3">
-        <v>8819701.9199999999</v>
+        <v>8819321.9200000055</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -2119,37 +2123,37 @@
         <v>6423.25</v>
       </c>
       <c r="D15" s="3">
-        <v>141472.17000000001</v>
+        <v>141472.17000000004</v>
       </c>
       <c r="E15" s="3">
-        <v>15064632.509999977</v>
+        <v>15064632.509999983</v>
       </c>
       <c r="F15" s="3">
-        <v>16496672.990000006</v>
+        <v>16496672.99000001</v>
       </c>
       <c r="G15" s="3">
-        <v>19516569.219999999</v>
+        <v>19516569.219999995</v>
       </c>
       <c r="H15" s="3">
-        <v>15670626.570000006</v>
+        <v>15670626.570000011</v>
       </c>
       <c r="I15" s="3">
         <v>18746541.359999999</v>
       </c>
       <c r="J15" s="3">
-        <v>19881431.469999995</v>
+        <v>19881431.469999999</v>
       </c>
       <c r="K15" s="3">
-        <v>17475556.949999999</v>
+        <v>17475176.950000003</v>
       </c>
       <c r="L15" s="3">
         <v>5574835.3399999999</v>
       </c>
       <c r="M15" s="3">
-        <v>5491996.25</v>
+        <v>7581239.8399999999</v>
       </c>
       <c r="N15" s="3">
-        <v>134067058.08000001</v>
+        <v>136155921.66999996</v>
       </c>
     </row>
   </sheetData>

--- a/src/OLAP/DataSources/UTB_UFSA.Profit.xlsx
+++ b/src/OLAP/DataSources/UTB_UFSA.Profit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\OLAP\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E10CFCB-C24C-4ABD-9D35-EC88C3BCCAE4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF730DFE-5B12-4E20-81CB-3D2B1A17C86C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -686,7 +686,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="44489.40533090278" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF1C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="44501.480595717592" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF1C000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Доход]" caption="Доход" numFmtId="0" hierarchy="120" level="32767"/>
@@ -1527,19 +1527,19 @@
     <col min="5" max="11" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="28" max="29" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="31" max="33" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -1638,10 +1638,10 @@
         <v>1583.26</v>
       </c>
       <c r="E3" s="3">
-        <v>1182260.3299999968</v>
+        <v>1182260.3299999943</v>
       </c>
       <c r="F3" s="3">
-        <v>808904.52999999921</v>
+        <v>808904.52999999956</v>
       </c>
       <c r="G3" s="3">
         <v>1216548.9099999995</v>
@@ -1650,22 +1650,22 @@
         <v>1042838.3000000002</v>
       </c>
       <c r="I3" s="3">
-        <v>1082934.0899999996</v>
+        <v>1082934.0900000001</v>
       </c>
       <c r="J3" s="3">
         <v>1445081.3299999991</v>
       </c>
       <c r="K3" s="3">
-        <v>1572214.2099999995</v>
+        <v>1572214.2099999997</v>
       </c>
       <c r="L3" s="3">
         <v>1138305.2200000004</v>
       </c>
       <c r="M3" s="3">
-        <v>291949.25000000012</v>
+        <v>291949.25000000006</v>
       </c>
       <c r="N3" s="3">
-        <v>9782619.4299999941</v>
+        <v>9782619.4299999923</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1675,37 +1675,37 @@
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3">
-        <v>2877.62</v>
+        <v>2877.6200000000003</v>
       </c>
       <c r="E4" s="3">
-        <v>1254921.679999996</v>
+        <v>1254921.6799999934</v>
       </c>
       <c r="F4" s="3">
-        <v>952718.16999999993</v>
+        <v>952718.16999999923</v>
       </c>
       <c r="G4" s="3">
-        <v>1833124.8300000029</v>
+        <v>1833124.8300000026</v>
       </c>
       <c r="H4" s="3">
-        <v>1298489.8600000022</v>
+        <v>1298489.860000002</v>
       </c>
       <c r="I4" s="3">
         <v>1166777.169999999</v>
       </c>
       <c r="J4" s="3">
-        <v>1451125.37</v>
+        <v>1451125.3700000003</v>
       </c>
       <c r="K4" s="3">
         <v>1517697.1099999999</v>
       </c>
       <c r="L4" s="3">
-        <v>1394357.2199999993</v>
+        <v>1394357.2199999995</v>
       </c>
       <c r="M4" s="3">
-        <v>574713.78000000026</v>
+        <v>574713.78000000014</v>
       </c>
       <c r="N4" s="3">
-        <v>11446802.809999997</v>
+        <v>11446802.809999995</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1715,28 +1715,28 @@
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3">
-        <v>8283.61</v>
+        <v>8283.6099999999988</v>
       </c>
       <c r="E5" s="3">
-        <v>1387802.8599999999</v>
+        <v>1387802.8599999992</v>
       </c>
       <c r="F5" s="3">
-        <v>1235344.0300000012</v>
+        <v>1235344.0300000007</v>
       </c>
       <c r="G5" s="3">
-        <v>2357260.8799999985</v>
+        <v>2357260.879999999</v>
       </c>
       <c r="H5" s="3">
-        <v>1666236.3999999985</v>
+        <v>1666236.3999999987</v>
       </c>
       <c r="I5" s="3">
-        <v>1416818.9099999992</v>
+        <v>1416818.9099999988</v>
       </c>
       <c r="J5" s="3">
-        <v>1621082.5400000012</v>
+        <v>1621082.5400000005</v>
       </c>
       <c r="K5" s="3">
-        <v>1764376.8100000015</v>
+        <v>1764376.8100000017</v>
       </c>
       <c r="L5" s="3">
         <v>673017.88000000082</v>
@@ -1759,37 +1759,37 @@
         <v>4176.75</v>
       </c>
       <c r="D6" s="3">
-        <v>7057.1399999999994</v>
+        <v>7057.14</v>
       </c>
       <c r="E6" s="3">
-        <v>1463393.4499999958</v>
+        <v>1463393.4499999944</v>
       </c>
       <c r="F6" s="3">
-        <v>1608671.3299999998</v>
+        <v>1608671.3299999994</v>
       </c>
       <c r="G6" s="3">
-        <v>2468918.9099999988</v>
+        <v>2468918.9100000011</v>
       </c>
       <c r="H6" s="3">
-        <v>1397073.0900000008</v>
+        <v>1397073.0900000012</v>
       </c>
       <c r="I6" s="3">
-        <v>1447668.3700000015</v>
+        <v>1447668.3700000013</v>
       </c>
       <c r="J6" s="3">
-        <v>1708027.3399999994</v>
+        <v>1708027.3399999996</v>
       </c>
       <c r="K6" s="3">
         <v>1417309.6800000002</v>
       </c>
       <c r="L6" s="3">
-        <v>212748.90000000008</v>
+        <v>212748.90000000002</v>
       </c>
       <c r="M6" s="3">
-        <v>663302.67000000039</v>
+        <v>663844.45000000042</v>
       </c>
       <c r="N6" s="3">
-        <v>12398647.629999997</v>
+        <v>12399189.41</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1802,7 +1802,7 @@
         <v>6894.9600000000009</v>
       </c>
       <c r="E7" s="3">
-        <v>1144927.780000001</v>
+        <v>1144927.7800000014</v>
       </c>
       <c r="F7" s="3">
         <v>1504290.4200000016</v>
@@ -1811,7 +1811,7 @@
         <v>1538289.4999999965</v>
       </c>
       <c r="H7" s="3">
-        <v>1381284.1400000008</v>
+        <v>1381284.1400000004</v>
       </c>
       <c r="I7" s="3">
         <v>1701134.8499999982</v>
@@ -1820,7 +1820,7 @@
         <v>1746004.4499999997</v>
       </c>
       <c r="K7" s="3">
-        <v>1680489.4900000016</v>
+        <v>1680489.4900000014</v>
       </c>
       <c r="L7" s="3">
         <v>53156.14</v>
@@ -1842,34 +1842,34 @@
         <v>2138.9700000000003</v>
       </c>
       <c r="E8" s="3">
-        <v>1184562.32</v>
+        <v>1184562.3199999989</v>
       </c>
       <c r="F8" s="3">
         <v>1831448.7400000042</v>
       </c>
       <c r="G8" s="3">
-        <v>1530341.0100000009</v>
+        <v>1530341.0100000007</v>
       </c>
       <c r="H8" s="3">
         <v>1361791.9399999969</v>
       </c>
       <c r="I8" s="3">
-        <v>1805774.6000000043</v>
+        <v>1805774.6000000034</v>
       </c>
       <c r="J8" s="3">
         <v>1814590.7200000004</v>
       </c>
       <c r="K8" s="3">
-        <v>1472068.6900000037</v>
+        <v>1472068.6900000041</v>
       </c>
       <c r="L8" s="3">
         <v>74087.340000000011</v>
       </c>
       <c r="M8" s="3">
-        <v>982900.96000000078</v>
+        <v>982963.33000000077</v>
       </c>
       <c r="N8" s="3">
-        <v>12059705.290000012</v>
+        <v>12059767.660000009</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1879,16 +1879,16 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3">
-        <v>11924.080000000004</v>
+        <v>11924.08</v>
       </c>
       <c r="E9" s="3">
-        <v>1380616.3900000022</v>
+        <v>1380616.389999998</v>
       </c>
       <c r="F9" s="3">
-        <v>1530162.2599999981</v>
+        <v>1530162.2599999986</v>
       </c>
       <c r="G9" s="3">
-        <v>1534772.7800000007</v>
+        <v>1534772.7800000003</v>
       </c>
       <c r="H9" s="3">
         <v>1412050.1100000043</v>
@@ -1897,7 +1897,7 @@
         <v>1801156.9800000002</v>
       </c>
       <c r="J9" s="3">
-        <v>1728532.8499999985</v>
+        <v>1728532.8499999987</v>
       </c>
       <c r="K9" s="3">
         <v>1574641.5199999982</v>
@@ -1906,10 +1906,10 @@
         <v>314639.27</v>
       </c>
       <c r="M9" s="3">
-        <v>865897.17000000074</v>
+        <v>865634.80000000075</v>
       </c>
       <c r="N9" s="3">
-        <v>12154393.410000002</v>
+        <v>12154131.039999999</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1919,16 +1919,16 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
-        <v>6837.5800000000017</v>
+        <v>6837.58</v>
       </c>
       <c r="E10" s="3">
-        <v>1435011.8799999994</v>
+        <v>1435011.8800000001</v>
       </c>
       <c r="F10" s="3">
-        <v>1325711.2399999998</v>
+        <v>1325711.2399999995</v>
       </c>
       <c r="G10" s="3">
-        <v>1449278.1400000011</v>
+        <v>1449278.1400000008</v>
       </c>
       <c r="H10" s="3">
         <v>1210629.7500000033</v>
@@ -1937,19 +1937,19 @@
         <v>2152343.9000000004</v>
       </c>
       <c r="J10" s="3">
-        <v>1890820.0800000008</v>
+        <v>1890820.08</v>
       </c>
       <c r="K10" s="3">
         <v>1554264.2600000002</v>
       </c>
       <c r="L10" s="3">
-        <v>316619.55</v>
+        <v>316619.54999999993</v>
       </c>
       <c r="M10" s="3">
-        <v>1299790.6100000008</v>
+        <v>1300141.3500000008</v>
       </c>
       <c r="N10" s="3">
-        <v>12641306.990000008</v>
+        <v>12641657.730000008</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1962,22 +1962,22 @@
         <v>5242.5199999999995</v>
       </c>
       <c r="E11" s="3">
-        <v>1300718.0199999965</v>
+        <v>1300718.0199999928</v>
       </c>
       <c r="F11" s="3">
-        <v>1677367.4900000014</v>
+        <v>1677367.4900000009</v>
       </c>
       <c r="G11" s="3">
-        <v>1577365.9499999976</v>
+        <v>1577365.9499999967</v>
       </c>
       <c r="H11" s="3">
-        <v>1215468.4000000015</v>
+        <v>1215468.4000000013</v>
       </c>
       <c r="I11" s="3">
         <v>1626600.9099999967</v>
       </c>
       <c r="J11" s="3">
-        <v>1599634.81</v>
+        <v>1599634.8099999998</v>
       </c>
       <c r="K11" s="3">
         <v>1397886.0899999975</v>
@@ -1986,10 +1986,10 @@
         <v>275574.74000000005</v>
       </c>
       <c r="M11" s="3">
-        <v>1206726.4199999985</v>
+        <v>1218231.8699999989</v>
       </c>
       <c r="N11" s="3">
-        <v>11882585.349999988</v>
+        <v>11894090.799999984</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -2001,37 +2001,37 @@
         <v>2080.54</v>
       </c>
       <c r="D12" s="3">
-        <v>12537.169999999996</v>
+        <v>12537.169999999998</v>
       </c>
       <c r="E12" s="3">
-        <v>1270938.6699999957</v>
+        <v>1270938.6699999976</v>
       </c>
       <c r="F12" s="3">
         <v>1350522.9200000023</v>
       </c>
       <c r="G12" s="3">
-        <v>1397403.7200000007</v>
+        <v>1397403.7200000004</v>
       </c>
       <c r="H12" s="3">
         <v>1228070.3599999992</v>
       </c>
       <c r="I12" s="3">
-        <v>1822764.9299999997</v>
+        <v>1822764.93</v>
       </c>
       <c r="J12" s="3">
         <v>1838977.0899999994</v>
       </c>
       <c r="K12" s="3">
-        <v>1430627.0099999984</v>
+        <v>1430627.0099999986</v>
       </c>
       <c r="L12" s="3">
-        <v>325145.67000000016</v>
+        <v>325144.67000000016</v>
       </c>
       <c r="M12" s="3">
-        <v>693490.97000000044</v>
+        <v>1272446.4300000013</v>
       </c>
       <c r="N12" s="3">
-        <v>11372559.049999995</v>
+        <v>11951513.51</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -2040,38 +2040,38 @@
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3">
-        <v>165.96000000000004</v>
+        <v>165.96000000000018</v>
       </c>
       <c r="D13" s="3">
-        <v>26665.450000000004</v>
+        <v>26665.449999999997</v>
       </c>
       <c r="E13" s="3">
-        <v>1148799.4799999986</v>
+        <v>1148799.4800000011</v>
       </c>
       <c r="F13" s="3">
-        <v>1307259.2999999989</v>
+        <v>1307259.3</v>
       </c>
       <c r="G13" s="3">
-        <v>1388836.7200000002</v>
+        <v>1388836.7200000009</v>
       </c>
       <c r="H13" s="3">
-        <v>1122793.1100000017</v>
+        <v>1122793.1100000001</v>
       </c>
       <c r="I13" s="3">
         <v>1729851.0400000005</v>
       </c>
       <c r="J13" s="3">
-        <v>1448316.35</v>
+        <v>1448316.3500000003</v>
       </c>
       <c r="K13" s="3">
-        <v>1146024.1500000006</v>
+        <v>1146024.1499999999</v>
       </c>
       <c r="L13" s="3">
         <v>390104.56999999983</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3">
-        <v>9708816.1300000008</v>
+        <v>9708816.1300000027</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -2081,22 +2081,22 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3">
-        <v>49429.810000000019</v>
+        <v>49429.810000000034</v>
       </c>
       <c r="E14" s="3">
-        <v>910679.65000000212</v>
+        <v>910679.64999999839</v>
       </c>
       <c r="F14" s="3">
-        <v>1364272.5600000026</v>
+        <v>1364272.56</v>
       </c>
       <c r="G14" s="3">
         <v>1224427.8699999996</v>
       </c>
       <c r="H14" s="3">
-        <v>1333901.1100000013</v>
+        <v>1333901.110000001</v>
       </c>
       <c r="I14" s="3">
-        <v>992715.60999999952</v>
+        <v>992715.60999999964</v>
       </c>
       <c r="J14" s="3">
         <v>1589238.5399999986</v>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3">
-        <v>8819321.9200000055</v>
+        <v>8819321.9199999999</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -2123,22 +2123,22 @@
         <v>6423.25</v>
       </c>
       <c r="D15" s="3">
-        <v>141472.17000000004</v>
+        <v>141472.17000000001</v>
       </c>
       <c r="E15" s="3">
-        <v>15064632.509999983</v>
+        <v>15064632.509999968</v>
       </c>
       <c r="F15" s="3">
         <v>16496672.99000001</v>
       </c>
       <c r="G15" s="3">
-        <v>19516569.219999995</v>
+        <v>19516569.219999999</v>
       </c>
       <c r="H15" s="3">
-        <v>15670626.570000011</v>
+        <v>15670626.570000006</v>
       </c>
       <c r="I15" s="3">
-        <v>18746541.359999999</v>
+        <v>18746541.359999996</v>
       </c>
       <c r="J15" s="3">
         <v>19881431.469999999</v>
@@ -2147,13 +2147,13 @@
         <v>17475176.950000003</v>
       </c>
       <c r="L15" s="3">
-        <v>5574835.3399999999</v>
+        <v>5574834.3400000008</v>
       </c>
       <c r="M15" s="3">
-        <v>7581239.8399999999</v>
+        <v>8172393.2700000014</v>
       </c>
       <c r="N15" s="3">
-        <v>136155921.66999996</v>
+        <v>136747074.09999999</v>
       </c>
     </row>
   </sheetData>

--- a/src/OLAP/DataSources/UTB_UFSA.Profit.xlsx
+++ b/src/OLAP/DataSources/UTB_UFSA.Profit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\OLAP\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF730DFE-5B12-4E20-81CB-3D2B1A17C86C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5D033C-14D4-4E53-9135-04BD1E81C2DF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -686,7 +686,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="44501.480595717592" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF1C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="44531.392053587966" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF1C000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Доход]" caption="Доход" numFmtId="0" hierarchy="120" level="32767"/>
@@ -1515,7 +1515,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1638,34 +1638,34 @@
         <v>1583.26</v>
       </c>
       <c r="E3" s="3">
-        <v>1182260.3299999943</v>
+        <v>1182260.3299999977</v>
       </c>
       <c r="F3" s="3">
-        <v>808904.52999999956</v>
+        <v>808904.52999999933</v>
       </c>
       <c r="G3" s="3">
-        <v>1216548.9099999995</v>
+        <v>1216548.9100000004</v>
       </c>
       <c r="H3" s="3">
-        <v>1042838.3000000002</v>
+        <v>1042838.3000000003</v>
       </c>
       <c r="I3" s="3">
-        <v>1082934.0900000001</v>
+        <v>1082934.0899999987</v>
       </c>
       <c r="J3" s="3">
-        <v>1445081.3299999991</v>
+        <v>1445081.3299999989</v>
       </c>
       <c r="K3" s="3">
-        <v>1572214.2099999997</v>
+        <v>1572214.2099999995</v>
       </c>
       <c r="L3" s="3">
-        <v>1138305.2200000004</v>
+        <v>1138305.2200000002</v>
       </c>
       <c r="M3" s="3">
         <v>291949.25000000006</v>
       </c>
       <c r="N3" s="3">
-        <v>9782619.4299999923</v>
+        <v>9782619.429999996</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1675,37 +1675,37 @@
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3">
-        <v>2877.6200000000003</v>
+        <v>2877.62</v>
       </c>
       <c r="E4" s="3">
-        <v>1254921.6799999934</v>
+        <v>1254921.6799999985</v>
       </c>
       <c r="F4" s="3">
-        <v>952718.16999999923</v>
+        <v>952718.16999999993</v>
       </c>
       <c r="G4" s="3">
-        <v>1833124.8300000026</v>
+        <v>1833124.8300000015</v>
       </c>
       <c r="H4" s="3">
         <v>1298489.860000002</v>
       </c>
       <c r="I4" s="3">
-        <v>1166777.169999999</v>
+        <v>1166777.1699999992</v>
       </c>
       <c r="J4" s="3">
-        <v>1451125.3700000003</v>
+        <v>1451125.3699999996</v>
       </c>
       <c r="K4" s="3">
-        <v>1517697.1099999999</v>
+        <v>1517697.1100000003</v>
       </c>
       <c r="L4" s="3">
-        <v>1394357.2199999995</v>
+        <v>1394357.219999999</v>
       </c>
       <c r="M4" s="3">
-        <v>574713.78000000014</v>
+        <v>574713.78000000026</v>
       </c>
       <c r="N4" s="3">
-        <v>11446802.809999995</v>
+        <v>11446802.810000001</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1715,22 +1715,22 @@
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3">
-        <v>8283.6099999999988</v>
+        <v>8283.61</v>
       </c>
       <c r="E5" s="3">
-        <v>1387802.8599999992</v>
+        <v>1387802.8599999994</v>
       </c>
       <c r="F5" s="3">
-        <v>1235344.0300000007</v>
+        <v>1235344.0300000014</v>
       </c>
       <c r="G5" s="3">
-        <v>2357260.879999999</v>
+        <v>2357260.8799999994</v>
       </c>
       <c r="H5" s="3">
-        <v>1666236.3999999987</v>
+        <v>1666236.399999998</v>
       </c>
       <c r="I5" s="3">
-        <v>1416818.9099999988</v>
+        <v>1416818.9099999995</v>
       </c>
       <c r="J5" s="3">
         <v>1621082.5400000005</v>
@@ -1739,13 +1739,13 @@
         <v>1764376.8100000017</v>
       </c>
       <c r="L5" s="3">
-        <v>673017.88000000082</v>
+        <v>673017.88000000035</v>
       </c>
       <c r="M5" s="3">
-        <v>388207.02000000008</v>
+        <v>388358.62000000011</v>
       </c>
       <c r="N5" s="3">
-        <v>12518430.939999999</v>
+        <v>12518582.539999999</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1759,37 +1759,37 @@
         <v>4176.75</v>
       </c>
       <c r="D6" s="3">
-        <v>7057.14</v>
+        <v>7057.1399999999994</v>
       </c>
       <c r="E6" s="3">
-        <v>1463393.4499999944</v>
+        <v>1463393.4499999997</v>
       </c>
       <c r="F6" s="3">
-        <v>1608671.3299999994</v>
+        <v>1608671.3299999991</v>
       </c>
       <c r="G6" s="3">
-        <v>2468918.9100000011</v>
+        <v>2468918.9099999992</v>
       </c>
       <c r="H6" s="3">
-        <v>1397073.0900000012</v>
+        <v>1397073.0899999971</v>
       </c>
       <c r="I6" s="3">
-        <v>1447668.3700000013</v>
+        <v>1447668.370000001</v>
       </c>
       <c r="J6" s="3">
-        <v>1708027.3399999996</v>
+        <v>1708027.3399999999</v>
       </c>
       <c r="K6" s="3">
         <v>1417309.6800000002</v>
       </c>
       <c r="L6" s="3">
-        <v>212748.90000000002</v>
+        <v>212748.90000000011</v>
       </c>
       <c r="M6" s="3">
-        <v>663844.45000000042</v>
+        <v>663844.30000000051</v>
       </c>
       <c r="N6" s="3">
-        <v>12399189.41</v>
+        <v>12399189.259999998</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1802,34 +1802,34 @@
         <v>6894.9600000000009</v>
       </c>
       <c r="E7" s="3">
-        <v>1144927.7800000014</v>
+        <v>1144927.7800000003</v>
       </c>
       <c r="F7" s="3">
-        <v>1504290.4200000016</v>
+        <v>1504290.4200000018</v>
       </c>
       <c r="G7" s="3">
-        <v>1538289.4999999965</v>
+        <v>1538289.4999999967</v>
       </c>
       <c r="H7" s="3">
-        <v>1381284.1400000004</v>
+        <v>1381284.1400000008</v>
       </c>
       <c r="I7" s="3">
-        <v>1701134.8499999982</v>
+        <v>1701134.8499999985</v>
       </c>
       <c r="J7" s="3">
-        <v>1746004.4499999997</v>
+        <v>1746004.4499999995</v>
       </c>
       <c r="K7" s="3">
         <v>1680489.4900000014</v>
       </c>
       <c r="L7" s="3">
-        <v>53156.14</v>
+        <v>53156.139999999992</v>
       </c>
       <c r="M7" s="3">
-        <v>614260.98999999859</v>
+        <v>610821.66999999853</v>
       </c>
       <c r="N7" s="3">
-        <v>11370732.719999999</v>
+        <v>11367293.399999999</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1842,25 +1842,25 @@
         <v>2138.9700000000003</v>
       </c>
       <c r="E8" s="3">
-        <v>1184562.3199999989</v>
+        <v>1184562.3199999998</v>
       </c>
       <c r="F8" s="3">
-        <v>1831448.7400000042</v>
+        <v>1831448.7400000046</v>
       </c>
       <c r="G8" s="3">
-        <v>1530341.0100000007</v>
+        <v>1530341.0100000002</v>
       </c>
       <c r="H8" s="3">
         <v>1361791.9399999969</v>
       </c>
       <c r="I8" s="3">
-        <v>1805774.6000000034</v>
+        <v>1805774.6000000038</v>
       </c>
       <c r="J8" s="3">
-        <v>1814590.7200000004</v>
+        <v>1814590.7200000002</v>
       </c>
       <c r="K8" s="3">
-        <v>1472068.6900000041</v>
+        <v>1472068.6900000037</v>
       </c>
       <c r="L8" s="3">
         <v>74087.340000000011</v>
@@ -1869,7 +1869,7 @@
         <v>982963.33000000077</v>
       </c>
       <c r="N8" s="3">
-        <v>12059767.660000009</v>
+        <v>12059767.660000011</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1879,37 +1879,37 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3">
-        <v>11924.08</v>
+        <v>11924.080000000004</v>
       </c>
       <c r="E9" s="3">
-        <v>1380616.389999998</v>
+        <v>1380616.3900000032</v>
       </c>
       <c r="F9" s="3">
         <v>1530162.2599999986</v>
       </c>
       <c r="G9" s="3">
-        <v>1534772.7800000003</v>
+        <v>1534772.780000001</v>
       </c>
       <c r="H9" s="3">
-        <v>1412050.1100000043</v>
+        <v>1412050.1100000038</v>
       </c>
       <c r="I9" s="3">
-        <v>1801156.9800000002</v>
+        <v>1801156.98</v>
       </c>
       <c r="J9" s="3">
         <v>1728532.8499999987</v>
       </c>
       <c r="K9" s="3">
-        <v>1574641.5199999982</v>
+        <v>1574641.5199999979</v>
       </c>
       <c r="L9" s="3">
-        <v>314639.27</v>
+        <v>314639.2699999999</v>
       </c>
       <c r="M9" s="3">
         <v>865634.80000000075</v>
       </c>
       <c r="N9" s="3">
-        <v>12154131.039999999</v>
+        <v>12154131.040000003</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1919,37 +1919,37 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
-        <v>6837.58</v>
+        <v>6837.5800000000017</v>
       </c>
       <c r="E10" s="3">
-        <v>1435011.8800000001</v>
+        <v>1435011.8799999997</v>
       </c>
       <c r="F10" s="3">
-        <v>1325711.2399999995</v>
+        <v>1325711.2399999998</v>
       </c>
       <c r="G10" s="3">
-        <v>1449278.1400000008</v>
+        <v>1449278.139999999</v>
       </c>
       <c r="H10" s="3">
-        <v>1210629.7500000033</v>
+        <v>1210629.7500000028</v>
       </c>
       <c r="I10" s="3">
-        <v>2152343.9000000004</v>
+        <v>2152343.9000000008</v>
       </c>
       <c r="J10" s="3">
-        <v>1890820.08</v>
+        <v>1890820.0800000008</v>
       </c>
       <c r="K10" s="3">
-        <v>1554264.2600000002</v>
+        <v>1554264.26</v>
       </c>
       <c r="L10" s="3">
-        <v>316619.54999999993</v>
+        <v>316619.55</v>
       </c>
       <c r="M10" s="3">
-        <v>1300141.3500000008</v>
+        <v>1303369.4700000011</v>
       </c>
       <c r="N10" s="3">
-        <v>12641657.730000008</v>
+        <v>12644885.850000003</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1959,37 +1959,37 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3">
-        <v>5242.5199999999995</v>
+        <v>5242.5200000000004</v>
       </c>
       <c r="E11" s="3">
-        <v>1300718.0199999928</v>
+        <v>1300718.019999997</v>
       </c>
       <c r="F11" s="3">
-        <v>1677367.4900000009</v>
+        <v>1677367.4900000016</v>
       </c>
       <c r="G11" s="3">
-        <v>1577365.9499999967</v>
+        <v>1577365.9499999993</v>
       </c>
       <c r="H11" s="3">
-        <v>1215468.4000000013</v>
+        <v>1215468.4000000015</v>
       </c>
       <c r="I11" s="3">
-        <v>1626600.9099999967</v>
+        <v>1626600.9099999976</v>
       </c>
       <c r="J11" s="3">
-        <v>1599634.8099999998</v>
+        <v>1599634.8099999987</v>
       </c>
       <c r="K11" s="3">
         <v>1397886.0899999975</v>
       </c>
       <c r="L11" s="3">
-        <v>275574.74000000005</v>
+        <v>275574.74000000011</v>
       </c>
       <c r="M11" s="3">
-        <v>1218231.8699999989</v>
+        <v>1218369.2399999988</v>
       </c>
       <c r="N11" s="3">
-        <v>11894090.799999984</v>
+        <v>11894228.169999991</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -2004,34 +2004,34 @@
         <v>12537.169999999998</v>
       </c>
       <c r="E12" s="3">
-        <v>1270938.6699999976</v>
+        <v>1270938.669999996</v>
       </c>
       <c r="F12" s="3">
         <v>1350522.9200000023</v>
       </c>
       <c r="G12" s="3">
-        <v>1397403.7200000004</v>
+        <v>1397403.7200000011</v>
       </c>
       <c r="H12" s="3">
-        <v>1228070.3599999992</v>
+        <v>1228070.3600000003</v>
       </c>
       <c r="I12" s="3">
-        <v>1822764.93</v>
+        <v>1822764.9299999988</v>
       </c>
       <c r="J12" s="3">
         <v>1838977.0899999994</v>
       </c>
       <c r="K12" s="3">
-        <v>1430627.0099999986</v>
+        <v>1430627.0099999984</v>
       </c>
       <c r="L12" s="3">
-        <v>325144.67000000016</v>
+        <v>325144.67000000027</v>
       </c>
       <c r="M12" s="3">
-        <v>1272446.4300000013</v>
+        <v>1319759.600000001</v>
       </c>
       <c r="N12" s="3">
-        <v>11951513.51</v>
+        <v>11998826.679999996</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -2040,38 +2040,40 @@
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3">
-        <v>165.96000000000018</v>
+        <v>165.96000000000004</v>
       </c>
       <c r="D13" s="3">
-        <v>26665.449999999997</v>
+        <v>26665.450000000004</v>
       </c>
       <c r="E13" s="3">
-        <v>1148799.4800000011</v>
+        <v>1148799.4799999979</v>
       </c>
       <c r="F13" s="3">
-        <v>1307259.3</v>
+        <v>1307259.3000000003</v>
       </c>
       <c r="G13" s="3">
-        <v>1388836.7200000009</v>
+        <v>1388836.7200000007</v>
       </c>
       <c r="H13" s="3">
         <v>1122793.1100000001</v>
       </c>
       <c r="I13" s="3">
-        <v>1729851.0400000005</v>
+        <v>1729851.04</v>
       </c>
       <c r="J13" s="3">
-        <v>1448316.3500000003</v>
+        <v>1448316.35</v>
       </c>
       <c r="K13" s="3">
-        <v>1146024.1499999999</v>
+        <v>1146024.1500000006</v>
       </c>
       <c r="L13" s="3">
         <v>390104.56999999983</v>
       </c>
-      <c r="M13" s="3"/>
+      <c r="M13" s="3">
+        <v>1130070.1599999999</v>
+      </c>
       <c r="N13" s="3">
-        <v>9708816.1300000027</v>
+        <v>10838886.290000001</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -2081,25 +2083,25 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3">
-        <v>49429.810000000034</v>
+        <v>49429.810000000019</v>
       </c>
       <c r="E14" s="3">
-        <v>910679.64999999839</v>
+        <v>910679.65000000037</v>
       </c>
       <c r="F14" s="3">
-        <v>1364272.56</v>
+        <v>1364272.5600000015</v>
       </c>
       <c r="G14" s="3">
         <v>1224427.8699999996</v>
       </c>
       <c r="H14" s="3">
-        <v>1333901.110000001</v>
+        <v>1333901.1099999999</v>
       </c>
       <c r="I14" s="3">
-        <v>992715.60999999964</v>
+        <v>992715.60999999987</v>
       </c>
       <c r="J14" s="3">
-        <v>1589238.5399999986</v>
+        <v>1589238.54</v>
       </c>
       <c r="K14" s="3">
         <v>947577.93000000087</v>
@@ -2123,10 +2125,10 @@
         <v>6423.25</v>
       </c>
       <c r="D15" s="3">
-        <v>141472.17000000001</v>
+        <v>141472.17000000004</v>
       </c>
       <c r="E15" s="3">
-        <v>15064632.509999968</v>
+        <v>15064632.509999989</v>
       </c>
       <c r="F15" s="3">
         <v>16496672.99000001</v>
@@ -2135,25 +2137,25 @@
         <v>19516569.219999999</v>
       </c>
       <c r="H15" s="3">
-        <v>15670626.570000006</v>
+        <v>15670626.570000004</v>
       </c>
       <c r="I15" s="3">
-        <v>18746541.359999996</v>
+        <v>18746541.359999999</v>
       </c>
       <c r="J15" s="3">
-        <v>19881431.469999999</v>
+        <v>19881431.469999995</v>
       </c>
       <c r="K15" s="3">
-        <v>17475176.950000003</v>
+        <v>17475176.949999999</v>
       </c>
       <c r="L15" s="3">
-        <v>5574834.3400000008</v>
+        <v>5574834.3399999989</v>
       </c>
       <c r="M15" s="3">
-        <v>8172393.2700000014</v>
+        <v>9349854.2200000007</v>
       </c>
       <c r="N15" s="3">
-        <v>136747074.09999999</v>
+        <v>137924535.05000007</v>
       </c>
     </row>
   </sheetData>

--- a/src/OLAP/DataSources/UTB_UFSA.Profit.xlsx
+++ b/src/OLAP/DataSources/UTB_UFSA.Profit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\OLAP\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5D033C-14D4-4E53-9135-04BD1E81C2DF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C07BC9-0583-424C-8AC7-AD9F28F085BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UTB_UFSA OLAP" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="D:\data\git\Luxena.Travel\src\OLAP\DataSources\UTB_UFSA OLAP.odc" keepAlive="1" name="UTB + UFSA Travel Документы" type="5" refreshedVersion="6" background="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="D:\data\git\Luxena.Travel\src\OLAP\DataSources\UTB_UFSA OLAP.odc" keepAlive="1" name="UTB + UFSA Travel Документы" type="5" refreshedVersion="7" background="1">
     <dbPr connection="Provider=MSOLAP.8;Persist Security Info=True;User ID=SRV01\utb_ufsa;Initial Catalog=UTB_UFSA Travel;Data Source=analysis.travel.smartikum.com;Location=analysis.travel.smartikum.com;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" command="Документы" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
   </connection>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Доход</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>Названия столбцов</t>
+  </si>
+  <si>
+    <t>2022</t>
   </si>
 </sst>
 </file>
@@ -686,12 +689,12 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="44531.392053587966" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF1C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="44569.957551851854" backgroundQuery="1" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF1C000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Доход]" caption="Доход" numFmtId="0" hierarchy="120" level="32767"/>
     <cacheField name="[Дата].[Год].[Год]" caption="Год" numFmtId="0" hierarchy="16" level="1">
-      <sharedItems count="12">
+      <sharedItems count="13">
         <s v="[Дата].[Год].&amp;[2010]" c="2010"/>
         <s v="[Дата].[Год].&amp;[2011]" c="2011"/>
         <s v="[Дата].[Год].&amp;[2012]" c="2012"/>
@@ -704,6 +707,7 @@
         <s v="[Дата].[Год].&amp;[2019]" c="2019"/>
         <s v="[Дата].[Год].&amp;[2020]" c="2020"/>
         <s v="[Дата].[Год].&amp;[2021]" c="2021"/>
+        <s v="[Дата].[Год].&amp;[2022]" c="2022"/>
       </sharedItems>
     </cacheField>
     <cacheField name="[Дата].[Месяц].[Месяц]" caption="Месяц" numFmtId="0" hierarchy="20" level="1">
@@ -935,12 +939,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:N15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:O15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="12">
+      <items count="13">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -953,6 +957,7 @@
         <item x="9"/>
         <item x="10"/>
         <item x="11"/>
+        <item x="12"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -1019,7 +1024,7 @@
   <colFields count="1">
     <field x="1"/>
   </colFields>
-  <colItems count="13">
+  <colItems count="14">
     <i>
       <x/>
     </i>
@@ -1055,6 +1060,9 @@
     </i>
     <i>
       <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
     </i>
     <i t="grand">
       <x/>
@@ -1512,10 +1520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1525,22 +1533,24 @@
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="31" max="33" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="34" max="40" width="13.140625" bestFit="1" customWidth="1"/>
@@ -1576,7 +1586,7 @@
     <col min="116" max="116" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1584,7 +1594,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1625,10 +1635,13 @@
         <v>13</v>
       </c>
       <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1638,37 +1651,40 @@
         <v>1583.26</v>
       </c>
       <c r="E3" s="3">
-        <v>1182260.3299999977</v>
+        <v>1182260.3299999963</v>
       </c>
       <c r="F3" s="3">
-        <v>808904.52999999933</v>
+        <v>808904.52999999945</v>
       </c>
       <c r="G3" s="3">
-        <v>1216548.9100000004</v>
+        <v>1216548.9099999992</v>
       </c>
       <c r="H3" s="3">
         <v>1042838.3000000003</v>
       </c>
       <c r="I3" s="3">
-        <v>1082934.0899999987</v>
+        <v>1082934.0899999989</v>
       </c>
       <c r="J3" s="3">
-        <v>1445081.3299999989</v>
+        <v>1445081.3299999991</v>
       </c>
       <c r="K3" s="3">
-        <v>1572214.2099999995</v>
+        <v>1572214.2099999997</v>
       </c>
       <c r="L3" s="3">
-        <v>1138305.2200000002</v>
+        <v>1138305.2200000007</v>
       </c>
       <c r="M3" s="3">
-        <v>291949.25000000006</v>
+        <v>291949.25000000012</v>
       </c>
       <c r="N3" s="3">
-        <v>9782619.429999996</v>
+        <v>75576.34</v>
+      </c>
+      <c r="O3" s="3">
+        <v>9858195.769999994</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1678,22 +1694,22 @@
         <v>2877.62</v>
       </c>
       <c r="E4" s="3">
-        <v>1254921.6799999985</v>
+        <v>1254921.6799999971</v>
       </c>
       <c r="F4" s="3">
-        <v>952718.16999999993</v>
+        <v>952718.16999999981</v>
       </c>
       <c r="G4" s="3">
-        <v>1833124.8300000015</v>
+        <v>1833124.8300000031</v>
       </c>
       <c r="H4" s="3">
-        <v>1298489.860000002</v>
+        <v>1298489.8600000006</v>
       </c>
       <c r="I4" s="3">
         <v>1166777.1699999992</v>
       </c>
       <c r="J4" s="3">
-        <v>1451125.3699999996</v>
+        <v>1451125.37</v>
       </c>
       <c r="K4" s="3">
         <v>1517697.1100000003</v>
@@ -1704,11 +1720,12 @@
       <c r="M4" s="3">
         <v>574713.78000000026</v>
       </c>
-      <c r="N4" s="3">
-        <v>11446802.810000001</v>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3">
+        <v>11446802.809999997</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1718,37 +1735,38 @@
         <v>8283.61</v>
       </c>
       <c r="E5" s="3">
-        <v>1387802.8599999994</v>
+        <v>1387802.8600000006</v>
       </c>
       <c r="F5" s="3">
-        <v>1235344.0300000014</v>
+        <v>1235344.030000001</v>
       </c>
       <c r="G5" s="3">
-        <v>2357260.8799999994</v>
+        <v>2357260.8800000013</v>
       </c>
       <c r="H5" s="3">
-        <v>1666236.399999998</v>
+        <v>1666236.3999999962</v>
       </c>
       <c r="I5" s="3">
-        <v>1416818.9099999995</v>
+        <v>1416818.9100000004</v>
       </c>
       <c r="J5" s="3">
-        <v>1621082.5400000005</v>
+        <v>1621082.54</v>
       </c>
       <c r="K5" s="3">
-        <v>1764376.8100000017</v>
+        <v>1764376.8100000019</v>
       </c>
       <c r="L5" s="3">
-        <v>673017.88000000035</v>
+        <v>673017.88000000082</v>
       </c>
       <c r="M5" s="3">
         <v>388358.62000000011</v>
       </c>
-      <c r="N5" s="3">
-        <v>12518582.539999999</v>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3">
+        <v>12518582.540000003</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1762,37 +1780,38 @@
         <v>7057.1399999999994</v>
       </c>
       <c r="E6" s="3">
-        <v>1463393.4499999997</v>
+        <v>1463393.4499999979</v>
       </c>
       <c r="F6" s="3">
-        <v>1608671.3299999991</v>
+        <v>1608671.3299999994</v>
       </c>
       <c r="G6" s="3">
-        <v>2468918.9099999992</v>
+        <v>2468918.9099999997</v>
       </c>
       <c r="H6" s="3">
-        <v>1397073.0899999971</v>
+        <v>1397073.089999998</v>
       </c>
       <c r="I6" s="3">
-        <v>1447668.370000001</v>
+        <v>1447668.3700000015</v>
       </c>
       <c r="J6" s="3">
-        <v>1708027.3399999999</v>
+        <v>1708027.3399999994</v>
       </c>
       <c r="K6" s="3">
         <v>1417309.6800000002</v>
       </c>
       <c r="L6" s="3">
-        <v>212748.90000000011</v>
+        <v>212748.90000000008</v>
       </c>
       <c r="M6" s="3">
         <v>663844.30000000051</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="3"/>
+      <c r="O6" s="3">
         <v>12399189.259999998</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1802,25 +1821,25 @@
         <v>6894.9600000000009</v>
       </c>
       <c r="E7" s="3">
-        <v>1144927.7800000003</v>
+        <v>1144927.7799999979</v>
       </c>
       <c r="F7" s="3">
-        <v>1504290.4200000018</v>
+        <v>1504290.4200000023</v>
       </c>
       <c r="G7" s="3">
         <v>1538289.4999999967</v>
       </c>
       <c r="H7" s="3">
-        <v>1381284.1400000008</v>
+        <v>1381284.1400000004</v>
       </c>
       <c r="I7" s="3">
-        <v>1701134.8499999985</v>
+        <v>1701134.8499999987</v>
       </c>
       <c r="J7" s="3">
-        <v>1746004.4499999995</v>
+        <v>1746004.449999999</v>
       </c>
       <c r="K7" s="3">
-        <v>1680489.4900000014</v>
+        <v>1680489.4900000016</v>
       </c>
       <c r="L7" s="3">
         <v>53156.139999999992</v>
@@ -1828,11 +1847,12 @@
       <c r="M7" s="3">
         <v>610821.66999999853</v>
       </c>
-      <c r="N7" s="3">
-        <v>11367293.399999999</v>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3">
+        <v>11367293.399999997</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -1842,19 +1862,19 @@
         <v>2138.9700000000003</v>
       </c>
       <c r="E8" s="3">
-        <v>1184562.3199999998</v>
+        <v>1184562.3200000005</v>
       </c>
       <c r="F8" s="3">
         <v>1831448.7400000046</v>
       </c>
       <c r="G8" s="3">
-        <v>1530341.0100000002</v>
+        <v>1530341.0100000007</v>
       </c>
       <c r="H8" s="3">
         <v>1361791.9399999969</v>
       </c>
       <c r="I8" s="3">
-        <v>1805774.6000000038</v>
+        <v>1805774.6000000036</v>
       </c>
       <c r="J8" s="3">
         <v>1814590.7200000002</v>
@@ -1868,11 +1888,12 @@
       <c r="M8" s="3">
         <v>982963.33000000077</v>
       </c>
-      <c r="N8" s="3">
-        <v>12059767.660000011</v>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3">
+        <v>12059767.660000013</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1882,19 +1903,19 @@
         <v>11924.080000000004</v>
       </c>
       <c r="E9" s="3">
-        <v>1380616.3900000032</v>
+        <v>1380616.3900000018</v>
       </c>
       <c r="F9" s="3">
-        <v>1530162.2599999986</v>
+        <v>1530162.2599999988</v>
       </c>
       <c r="G9" s="3">
-        <v>1534772.780000001</v>
+        <v>1534772.7800000014</v>
       </c>
       <c r="H9" s="3">
-        <v>1412050.1100000038</v>
+        <v>1412050.1100000027</v>
       </c>
       <c r="I9" s="3">
-        <v>1801156.98</v>
+        <v>1801156.9799999995</v>
       </c>
       <c r="J9" s="3">
         <v>1728532.8499999987</v>
@@ -1903,16 +1924,17 @@
         <v>1574641.5199999979</v>
       </c>
       <c r="L9" s="3">
-        <v>314639.2699999999</v>
+        <v>314639.26999999984</v>
       </c>
       <c r="M9" s="3">
-        <v>865634.80000000075</v>
-      </c>
-      <c r="N9" s="3">
-        <v>12154131.040000003</v>
+        <v>866004.80000000075</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3">
+        <v>12154501.040000001</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -1922,37 +1944,38 @@
         <v>6837.5800000000017</v>
       </c>
       <c r="E10" s="3">
-        <v>1435011.8799999997</v>
+        <v>1435011.88</v>
       </c>
       <c r="F10" s="3">
-        <v>1325711.2399999998</v>
+        <v>1325711.2399999993</v>
       </c>
       <c r="G10" s="3">
         <v>1449278.139999999</v>
       </c>
       <c r="H10" s="3">
-        <v>1210629.7500000028</v>
+        <v>1210629.7500000023</v>
       </c>
       <c r="I10" s="3">
-        <v>2152343.9000000008</v>
+        <v>2152343.9000000004</v>
       </c>
       <c r="J10" s="3">
-        <v>1890820.0800000008</v>
+        <v>1890820.0800000005</v>
       </c>
       <c r="K10" s="3">
         <v>1554264.26</v>
       </c>
       <c r="L10" s="3">
-        <v>316619.55</v>
+        <v>316619.55000000005</v>
       </c>
       <c r="M10" s="3">
-        <v>1303369.4700000011</v>
-      </c>
-      <c r="N10" s="3">
-        <v>12644885.850000003</v>
+        <v>1309685.7100000014</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3">
+        <v>12651202.090000004</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -1962,37 +1985,38 @@
         <v>5242.5200000000004</v>
       </c>
       <c r="E11" s="3">
-        <v>1300718.019999997</v>
+        <v>1300718.0199999972</v>
       </c>
       <c r="F11" s="3">
-        <v>1677367.4900000016</v>
+        <v>1677367.4900000014</v>
       </c>
       <c r="G11" s="3">
-        <v>1577365.9499999993</v>
+        <v>1577365.9499999969</v>
       </c>
       <c r="H11" s="3">
-        <v>1215468.4000000015</v>
+        <v>1215468.4000000001</v>
       </c>
       <c r="I11" s="3">
-        <v>1626600.9099999976</v>
+        <v>1626600.909999999</v>
       </c>
       <c r="J11" s="3">
-        <v>1599634.8099999987</v>
+        <v>1599634.8099999982</v>
       </c>
       <c r="K11" s="3">
         <v>1397886.0899999975</v>
       </c>
       <c r="L11" s="3">
-        <v>275574.74000000011</v>
+        <v>275574.74000000005</v>
       </c>
       <c r="M11" s="3">
-        <v>1218369.2399999988</v>
-      </c>
-      <c r="N11" s="3">
-        <v>11894228.169999991</v>
+        <v>1211454.369999998</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3">
+        <v>11887313.299999988</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -2001,22 +2025,22 @@
         <v>2080.54</v>
       </c>
       <c r="D12" s="3">
-        <v>12537.169999999998</v>
+        <v>12537.169999999996</v>
       </c>
       <c r="E12" s="3">
-        <v>1270938.669999996</v>
+        <v>1270938.6699999957</v>
       </c>
       <c r="F12" s="3">
-        <v>1350522.9200000023</v>
+        <v>1350522.9200000004</v>
       </c>
       <c r="G12" s="3">
-        <v>1397403.7200000011</v>
+        <v>1397403.7200000014</v>
       </c>
       <c r="H12" s="3">
-        <v>1228070.3600000003</v>
+        <v>1228070.3599999989</v>
       </c>
       <c r="I12" s="3">
-        <v>1822764.9299999988</v>
+        <v>1822764.9299999992</v>
       </c>
       <c r="J12" s="3">
         <v>1838977.0899999994</v>
@@ -2025,16 +2049,17 @@
         <v>1430627.0099999984</v>
       </c>
       <c r="L12" s="3">
-        <v>325144.67000000027</v>
+        <v>325144.67000000022</v>
       </c>
       <c r="M12" s="3">
-        <v>1319759.600000001</v>
-      </c>
-      <c r="N12" s="3">
-        <v>11998826.679999996</v>
+        <v>1317639.340000001</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3">
+        <v>11996706.419999992</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -2046,56 +2071,57 @@
         <v>26665.450000000004</v>
       </c>
       <c r="E13" s="3">
-        <v>1148799.4799999979</v>
+        <v>1148799.4799999995</v>
       </c>
       <c r="F13" s="3">
-        <v>1307259.3000000003</v>
+        <v>1307259.2999999975</v>
       </c>
       <c r="G13" s="3">
-        <v>1388836.7200000007</v>
+        <v>1388836.7200000011</v>
       </c>
       <c r="H13" s="3">
-        <v>1122793.1100000001</v>
+        <v>1122793.1099999994</v>
       </c>
       <c r="I13" s="3">
-        <v>1729851.04</v>
+        <v>1729851.0399999998</v>
       </c>
       <c r="J13" s="3">
-        <v>1448316.35</v>
+        <v>1448316.3500000003</v>
       </c>
       <c r="K13" s="3">
-        <v>1146024.1500000006</v>
+        <v>1146024.1500000008</v>
       </c>
       <c r="L13" s="3">
         <v>390104.56999999983</v>
       </c>
       <c r="M13" s="3">
-        <v>1130070.1599999999</v>
-      </c>
-      <c r="N13" s="3">
-        <v>10838886.290000001</v>
+        <v>1151557.1700000009</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3">
+        <v>10860373.299999999</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3">
-        <v>49429.810000000019</v>
+        <v>49429.810000000027</v>
       </c>
       <c r="E14" s="3">
-        <v>910679.65000000037</v>
+        <v>910679.65000000165</v>
       </c>
       <c r="F14" s="3">
-        <v>1364272.5600000015</v>
+        <v>1364272.5600000012</v>
       </c>
       <c r="G14" s="3">
         <v>1224427.8699999996</v>
       </c>
       <c r="H14" s="3">
-        <v>1333901.1099999999</v>
+        <v>1333901.1099999992</v>
       </c>
       <c r="I14" s="3">
         <v>992715.60999999987</v>
@@ -2104,17 +2130,20 @@
         <v>1589238.54</v>
       </c>
       <c r="K14" s="3">
-        <v>947577.93000000087</v>
+        <v>947577.9300000004</v>
       </c>
       <c r="L14" s="3">
         <v>407078.84000000026</v>
       </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3">
-        <v>8819321.9199999999</v>
+      <c r="M14" s="3">
+        <v>692692.32000000053</v>
+      </c>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3">
+        <v>9512014.2400000021</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2128,34 +2157,37 @@
         <v>141472.17000000004</v>
       </c>
       <c r="E15" s="3">
-        <v>15064632.509999989</v>
+        <v>15064632.509999987</v>
       </c>
       <c r="F15" s="3">
-        <v>16496672.99000001</v>
+        <v>16496672.990000002</v>
       </c>
       <c r="G15" s="3">
-        <v>19516569.219999999</v>
+        <v>19516569.220000003</v>
       </c>
       <c r="H15" s="3">
-        <v>15670626.570000004</v>
+        <v>15670626.569999997</v>
       </c>
       <c r="I15" s="3">
-        <v>18746541.359999999</v>
+        <v>18746541.360000003</v>
       </c>
       <c r="J15" s="3">
-        <v>19881431.469999995</v>
+        <v>19881431.469999991</v>
       </c>
       <c r="K15" s="3">
         <v>17475176.949999999</v>
       </c>
       <c r="L15" s="3">
-        <v>5574834.3399999989</v>
+        <v>5574834.3399999999</v>
       </c>
       <c r="M15" s="3">
-        <v>9349854.2200000007</v>
+        <v>10061684.660000004</v>
       </c>
       <c r="N15" s="3">
-        <v>137924535.05000007</v>
+        <v>75576.34</v>
+      </c>
+      <c r="O15" s="3">
+        <v>138711941.83000007</v>
       </c>
     </row>
   </sheetData>

--- a/src/OLAP/DataSources/UTB_UFSA.Profit.xlsx
+++ b/src/OLAP/DataSources/UTB_UFSA.Profit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\OLAP\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C07BC9-0583-424C-8AC7-AD9F28F085BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03727DF1-2DBA-4AF8-9715-D6D3D02909DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -689,7 +689,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="44569.957551851854" backgroundQuery="1" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF1C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="44585.55640833333" backgroundQuery="1" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF1C000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Доход]" caption="Доход" numFmtId="0" hierarchy="120" level="32767"/>
@@ -1523,7 +1523,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1535,22 +1535,22 @@
     <col min="5" max="11" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="31" max="33" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="34" max="40" width="13.140625" bestFit="1" customWidth="1"/>
@@ -1651,37 +1651,37 @@
         <v>1583.26</v>
       </c>
       <c r="E3" s="3">
-        <v>1182260.3299999963</v>
+        <v>1182260.3299999959</v>
       </c>
       <c r="F3" s="3">
-        <v>808904.52999999945</v>
+        <v>808904.52999999921</v>
       </c>
       <c r="G3" s="3">
-        <v>1216548.9099999992</v>
+        <v>1216548.9099999995</v>
       </c>
       <c r="H3" s="3">
-        <v>1042838.3000000003</v>
+        <v>1042838.3000000004</v>
       </c>
       <c r="I3" s="3">
-        <v>1082934.0899999989</v>
+        <v>1082934.0899999994</v>
       </c>
       <c r="J3" s="3">
-        <v>1445081.3299999991</v>
+        <v>1445081.3299999994</v>
       </c>
       <c r="K3" s="3">
-        <v>1572214.2099999997</v>
+        <v>1572214.21</v>
       </c>
       <c r="L3" s="3">
-        <v>1138305.2200000007</v>
+        <v>1138305.2200000002</v>
       </c>
       <c r="M3" s="3">
-        <v>291949.25000000012</v>
+        <v>291949.25000000006</v>
       </c>
       <c r="N3" s="3">
-        <v>75576.34</v>
+        <v>493410.94999999949</v>
       </c>
       <c r="O3" s="3">
-        <v>9858195.769999994</v>
+        <v>10276030.379999993</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1694,35 +1694,35 @@
         <v>2877.62</v>
       </c>
       <c r="E4" s="3">
-        <v>1254921.6799999971</v>
+        <v>1254921.6799999953</v>
       </c>
       <c r="F4" s="3">
         <v>952718.16999999981</v>
       </c>
       <c r="G4" s="3">
-        <v>1833124.8300000031</v>
+        <v>1833124.8300000043</v>
       </c>
       <c r="H4" s="3">
-        <v>1298489.8600000006</v>
+        <v>1298489.8600000013</v>
       </c>
       <c r="I4" s="3">
         <v>1166777.1699999992</v>
       </c>
       <c r="J4" s="3">
-        <v>1451125.37</v>
+        <v>1451125.3700000003</v>
       </c>
       <c r="K4" s="3">
-        <v>1517697.1100000003</v>
+        <v>1517697.1100000006</v>
       </c>
       <c r="L4" s="3">
-        <v>1394357.219999999</v>
+        <v>1394357.2199999993</v>
       </c>
       <c r="M4" s="3">
-        <v>574713.78000000026</v>
+        <v>574713.78000000014</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3">
-        <v>11446802.809999997</v>
+        <v>11446802.809999999</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1732,22 +1732,22 @@
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3">
-        <v>8283.61</v>
+        <v>8283.6099999999988</v>
       </c>
       <c r="E5" s="3">
-        <v>1387802.8600000006</v>
+        <v>1387802.8599999985</v>
       </c>
       <c r="F5" s="3">
-        <v>1235344.030000001</v>
+        <v>1235344.0300000003</v>
       </c>
       <c r="G5" s="3">
-        <v>2357260.8800000013</v>
+        <v>2357260.879999999</v>
       </c>
       <c r="H5" s="3">
-        <v>1666236.3999999962</v>
+        <v>1666236.399999998</v>
       </c>
       <c r="I5" s="3">
-        <v>1416818.9100000004</v>
+        <v>1416818.9099999995</v>
       </c>
       <c r="J5" s="3">
         <v>1621082.54</v>
@@ -1756,14 +1756,14 @@
         <v>1764376.8100000019</v>
       </c>
       <c r="L5" s="3">
-        <v>673017.88000000082</v>
+        <v>673017.8800000007</v>
       </c>
       <c r="M5" s="3">
         <v>388358.62000000011</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3">
-        <v>12518582.540000003</v>
+        <v>12518582.539999999</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1780,13 +1780,13 @@
         <v>7057.1399999999994</v>
       </c>
       <c r="E6" s="3">
-        <v>1463393.4499999979</v>
+        <v>1463393.4499999965</v>
       </c>
       <c r="F6" s="3">
-        <v>1608671.3299999994</v>
+        <v>1608671.3299999991</v>
       </c>
       <c r="G6" s="3">
-        <v>2468918.9099999997</v>
+        <v>2468918.9100000011</v>
       </c>
       <c r="H6" s="3">
         <v>1397073.089999998</v>
@@ -1804,7 +1804,7 @@
         <v>212748.90000000008</v>
       </c>
       <c r="M6" s="3">
-        <v>663844.30000000051</v>
+        <v>663844.30000000016</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3">
@@ -1821,35 +1821,35 @@
         <v>6894.9600000000009</v>
       </c>
       <c r="E7" s="3">
-        <v>1144927.7799999979</v>
+        <v>1144927.780000001</v>
       </c>
       <c r="F7" s="3">
-        <v>1504290.4200000023</v>
+        <v>1504290.4200000032</v>
       </c>
       <c r="G7" s="3">
         <v>1538289.4999999967</v>
       </c>
       <c r="H7" s="3">
-        <v>1381284.1400000004</v>
+        <v>1381284.1400000008</v>
       </c>
       <c r="I7" s="3">
-        <v>1701134.8499999987</v>
+        <v>1701134.8499999989</v>
       </c>
       <c r="J7" s="3">
-        <v>1746004.449999999</v>
+        <v>1746004.4499999988</v>
       </c>
       <c r="K7" s="3">
         <v>1680489.4900000016</v>
       </c>
       <c r="L7" s="3">
-        <v>53156.139999999992</v>
+        <v>53156.14</v>
       </c>
       <c r="M7" s="3">
         <v>610821.66999999853</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3">
-        <v>11367293.399999997</v>
+        <v>11367293.4</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1862,10 +1862,10 @@
         <v>2138.9700000000003</v>
       </c>
       <c r="E8" s="3">
-        <v>1184562.3200000005</v>
+        <v>1184562.3199999982</v>
       </c>
       <c r="F8" s="3">
-        <v>1831448.7400000046</v>
+        <v>1831448.7400000053</v>
       </c>
       <c r="G8" s="3">
         <v>1530341.0100000007</v>
@@ -1874,23 +1874,23 @@
         <v>1361791.9399999969</v>
       </c>
       <c r="I8" s="3">
-        <v>1805774.6000000036</v>
+        <v>1805774.6000000029</v>
       </c>
       <c r="J8" s="3">
-        <v>1814590.7200000002</v>
+        <v>1814590.7200000004</v>
       </c>
       <c r="K8" s="3">
         <v>1472068.6900000037</v>
       </c>
       <c r="L8" s="3">
-        <v>74087.340000000011</v>
+        <v>74087.340000000026</v>
       </c>
       <c r="M8" s="3">
-        <v>982963.33000000077</v>
+        <v>982963.33000000136</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3">
-        <v>12059767.660000013</v>
+        <v>12059767.660000011</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1903,35 +1903,35 @@
         <v>11924.080000000004</v>
       </c>
       <c r="E9" s="3">
-        <v>1380616.3900000018</v>
+        <v>1380616.3900000008</v>
       </c>
       <c r="F9" s="3">
-        <v>1530162.2599999988</v>
+        <v>1530162.2599999972</v>
       </c>
       <c r="G9" s="3">
-        <v>1534772.7800000014</v>
+        <v>1534772.7800000003</v>
       </c>
       <c r="H9" s="3">
-        <v>1412050.1100000027</v>
+        <v>1412050.1100000043</v>
       </c>
       <c r="I9" s="3">
-        <v>1801156.9799999995</v>
+        <v>1801156.9799999997</v>
       </c>
       <c r="J9" s="3">
-        <v>1728532.8499999987</v>
+        <v>1728532.8499999985</v>
       </c>
       <c r="K9" s="3">
-        <v>1574641.5199999979</v>
+        <v>1574641.5199999977</v>
       </c>
       <c r="L9" s="3">
-        <v>314639.26999999984</v>
+        <v>314639.27</v>
       </c>
       <c r="M9" s="3">
-        <v>866004.80000000075</v>
+        <v>865787.34000000067</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3">
-        <v>12154501.040000001</v>
+        <v>12154283.579999998</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1944,16 +1944,16 @@
         <v>6837.5800000000017</v>
       </c>
       <c r="E10" s="3">
-        <v>1435011.88</v>
+        <v>1435011.8799999987</v>
       </c>
       <c r="F10" s="3">
-        <v>1325711.2399999993</v>
+        <v>1325711.2399999984</v>
       </c>
       <c r="G10" s="3">
-        <v>1449278.139999999</v>
+        <v>1449278.1400000013</v>
       </c>
       <c r="H10" s="3">
-        <v>1210629.7500000023</v>
+        <v>1210629.7500000035</v>
       </c>
       <c r="I10" s="3">
         <v>2152343.9000000004</v>
@@ -1965,14 +1965,14 @@
         <v>1554264.26</v>
       </c>
       <c r="L10" s="3">
-        <v>316619.55000000005</v>
+        <v>316619.54999999993</v>
       </c>
       <c r="M10" s="3">
-        <v>1309685.7100000014</v>
+        <v>1310555.7100000009</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3">
-        <v>12651202.090000004</v>
+        <v>12652072.090000004</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1982,28 +1982,28 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3">
-        <v>5242.5200000000004</v>
+        <v>5242.5199999999995</v>
       </c>
       <c r="E11" s="3">
-        <v>1300718.0199999972</v>
+        <v>1300718.0199999949</v>
       </c>
       <c r="F11" s="3">
-        <v>1677367.4900000014</v>
+        <v>1677367.4900000046</v>
       </c>
       <c r="G11" s="3">
-        <v>1577365.9499999969</v>
+        <v>1577365.9500000095</v>
       </c>
       <c r="H11" s="3">
-        <v>1215468.4000000001</v>
+        <v>1215468.4000000015</v>
       </c>
       <c r="I11" s="3">
-        <v>1626600.909999999</v>
+        <v>1626600.9099999983</v>
       </c>
       <c r="J11" s="3">
-        <v>1599634.8099999982</v>
+        <v>1599634.8099999984</v>
       </c>
       <c r="K11" s="3">
-        <v>1397886.0899999975</v>
+        <v>1397886.0899999973</v>
       </c>
       <c r="L11" s="3">
         <v>275574.74000000005</v>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3">
-        <v>11887313.299999988</v>
+        <v>11887313.300000004</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -2025,22 +2025,22 @@
         <v>2080.54</v>
       </c>
       <c r="D12" s="3">
-        <v>12537.169999999996</v>
+        <v>12537.169999999998</v>
       </c>
       <c r="E12" s="3">
-        <v>1270938.6699999957</v>
+        <v>1270938.6699999967</v>
       </c>
       <c r="F12" s="3">
-        <v>1350522.9200000004</v>
+        <v>1350522.9200000018</v>
       </c>
       <c r="G12" s="3">
-        <v>1397403.7200000014</v>
+        <v>1397403.7200000016</v>
       </c>
       <c r="H12" s="3">
-        <v>1228070.3599999989</v>
+        <v>1228070.359999998</v>
       </c>
       <c r="I12" s="3">
-        <v>1822764.9299999992</v>
+        <v>1822764.9299999988</v>
       </c>
       <c r="J12" s="3">
         <v>1838977.0899999994</v>
@@ -2049,14 +2049,14 @@
         <v>1430627.0099999984</v>
       </c>
       <c r="L12" s="3">
-        <v>325144.67000000022</v>
+        <v>325144.6700000001</v>
       </c>
       <c r="M12" s="3">
-        <v>1317639.340000001</v>
+        <v>1317573.9000000008</v>
       </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3">
-        <v>11996706.419999992</v>
+        <v>11996640.979999993</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -2071,35 +2071,35 @@
         <v>26665.450000000004</v>
       </c>
       <c r="E13" s="3">
-        <v>1148799.4799999995</v>
+        <v>1148799.4799999953</v>
       </c>
       <c r="F13" s="3">
-        <v>1307259.2999999975</v>
+        <v>1307259.3</v>
       </c>
       <c r="G13" s="3">
-        <v>1388836.7200000011</v>
+        <v>1388836.7200000007</v>
       </c>
       <c r="H13" s="3">
-        <v>1122793.1099999994</v>
+        <v>1122793.1099999999</v>
       </c>
       <c r="I13" s="3">
         <v>1729851.0399999998</v>
       </c>
       <c r="J13" s="3">
-        <v>1448316.3500000003</v>
+        <v>1448316.35</v>
       </c>
       <c r="K13" s="3">
-        <v>1146024.1500000008</v>
+        <v>1146024.1500000006</v>
       </c>
       <c r="L13" s="3">
-        <v>390104.56999999983</v>
+        <v>390104.56999999989</v>
       </c>
       <c r="M13" s="3">
-        <v>1151557.1700000009</v>
+        <v>1159423.17</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3">
-        <v>10860373.299999999</v>
+        <v>10868239.299999997</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -2112,35 +2112,35 @@
         <v>49429.810000000027</v>
       </c>
       <c r="E14" s="3">
-        <v>910679.65000000165</v>
+        <v>910679.649999997</v>
       </c>
       <c r="F14" s="3">
-        <v>1364272.5600000012</v>
+        <v>1364272.5599999996</v>
       </c>
       <c r="G14" s="3">
         <v>1224427.8699999996</v>
       </c>
       <c r="H14" s="3">
-        <v>1333901.1099999992</v>
+        <v>1333901.1099999994</v>
       </c>
       <c r="I14" s="3">
-        <v>992715.60999999987</v>
+        <v>992715.61</v>
       </c>
       <c r="J14" s="3">
         <v>1589238.54</v>
       </c>
       <c r="K14" s="3">
-        <v>947577.9300000004</v>
+        <v>947577.93000000087</v>
       </c>
       <c r="L14" s="3">
         <v>407078.84000000026</v>
       </c>
       <c r="M14" s="3">
-        <v>692692.32000000053</v>
+        <v>692877.2700000006</v>
       </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3">
-        <v>9512014.2400000021</v>
+        <v>9512199.1899999995</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -2157,22 +2157,22 @@
         <v>141472.17000000004</v>
       </c>
       <c r="E15" s="3">
-        <v>15064632.509999987</v>
+        <v>15064632.50999997</v>
       </c>
       <c r="F15" s="3">
-        <v>16496672.990000002</v>
+        <v>16496672.99000001</v>
       </c>
       <c r="G15" s="3">
-        <v>19516569.220000003</v>
+        <v>19516569.220000014</v>
       </c>
       <c r="H15" s="3">
-        <v>15670626.569999997</v>
+        <v>15670626.570000004</v>
       </c>
       <c r="I15" s="3">
-        <v>18746541.360000003</v>
+        <v>18746541.359999999</v>
       </c>
       <c r="J15" s="3">
-        <v>19881431.469999991</v>
+        <v>19881431.469999995</v>
       </c>
       <c r="K15" s="3">
         <v>17475176.949999999</v>
@@ -2181,13 +2181,13 @@
         <v>5574834.3399999999</v>
       </c>
       <c r="M15" s="3">
-        <v>10061684.660000004</v>
+        <v>10070322.710000001</v>
       </c>
       <c r="N15" s="3">
-        <v>75576.34</v>
+        <v>493410.94999999949</v>
       </c>
       <c r="O15" s="3">
-        <v>138711941.83000007</v>
+        <v>139138414.48999995</v>
       </c>
     </row>
   </sheetData>

--- a/src/OLAP/DataSources/UTB_UFSA.Profit.xlsx
+++ b/src/OLAP/DataSources/UTB_UFSA.Profit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\OLAP\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03727DF1-2DBA-4AF8-9715-D6D3D02909DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57C8E22-1479-41F4-946C-FB3A4390DA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -689,7 +689,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="44585.55640833333" backgroundQuery="1" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF1C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="44593.486073611108" backgroundQuery="1" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF1C000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Доход]" caption="Доход" numFmtId="0" hierarchy="120" level="32767"/>
@@ -1651,37 +1651,37 @@
         <v>1583.26</v>
       </c>
       <c r="E3" s="3">
-        <v>1182260.3299999959</v>
+        <v>1182260.3299999973</v>
       </c>
       <c r="F3" s="3">
-        <v>808904.52999999921</v>
+        <v>808904.52999999956</v>
       </c>
       <c r="G3" s="3">
         <v>1216548.9099999995</v>
       </c>
       <c r="H3" s="3">
-        <v>1042838.3000000004</v>
+        <v>1042838.3000000003</v>
       </c>
       <c r="I3" s="3">
         <v>1082934.0899999994</v>
       </c>
       <c r="J3" s="3">
-        <v>1445081.3299999994</v>
+        <v>1445081.3299999991</v>
       </c>
       <c r="K3" s="3">
-        <v>1572214.21</v>
+        <v>1572214.2099999995</v>
       </c>
       <c r="L3" s="3">
         <v>1138305.2200000002</v>
       </c>
       <c r="M3" s="3">
-        <v>291949.25000000006</v>
+        <v>291949.25000000012</v>
       </c>
       <c r="N3" s="3">
-        <v>493410.94999999949</v>
+        <v>639428.59999999974</v>
       </c>
       <c r="O3" s="3">
-        <v>10276030.379999993</v>
+        <v>10422048.029999994</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1694,35 +1694,35 @@
         <v>2877.62</v>
       </c>
       <c r="E4" s="3">
-        <v>1254921.6799999953</v>
+        <v>1254921.679999995</v>
       </c>
       <c r="F4" s="3">
-        <v>952718.16999999981</v>
+        <v>952718.16999999993</v>
       </c>
       <c r="G4" s="3">
-        <v>1833124.8300000043</v>
+        <v>1833124.8300000029</v>
       </c>
       <c r="H4" s="3">
-        <v>1298489.8600000013</v>
+        <v>1298489.860000002</v>
       </c>
       <c r="I4" s="3">
         <v>1166777.1699999992</v>
       </c>
       <c r="J4" s="3">
-        <v>1451125.3700000003</v>
+        <v>1451125.3700000006</v>
       </c>
       <c r="K4" s="3">
-        <v>1517697.1100000006</v>
+        <v>1517697.1100000003</v>
       </c>
       <c r="L4" s="3">
-        <v>1394357.2199999993</v>
+        <v>1394357.2199999988</v>
       </c>
       <c r="M4" s="3">
-        <v>574713.78000000014</v>
+        <v>574713.78000000026</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3">
-        <v>11446802.809999999</v>
+        <v>11446802.809999997</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1735,19 +1735,19 @@
         <v>8283.6099999999988</v>
       </c>
       <c r="E5" s="3">
-        <v>1387802.8599999985</v>
+        <v>1387802.8599999999</v>
       </c>
       <c r="F5" s="3">
-        <v>1235344.0300000003</v>
+        <v>1235344.0299999998</v>
       </c>
       <c r="G5" s="3">
-        <v>2357260.879999999</v>
+        <v>2357260.8799999994</v>
       </c>
       <c r="H5" s="3">
-        <v>1666236.399999998</v>
+        <v>1666236.3999999987</v>
       </c>
       <c r="I5" s="3">
-        <v>1416818.9099999995</v>
+        <v>1416818.9099999997</v>
       </c>
       <c r="J5" s="3">
         <v>1621082.54</v>
@@ -1756,7 +1756,7 @@
         <v>1764376.8100000019</v>
       </c>
       <c r="L5" s="3">
-        <v>673017.8800000007</v>
+        <v>673017.88000000082</v>
       </c>
       <c r="M5" s="3">
         <v>388358.62000000011</v>
@@ -1780,22 +1780,22 @@
         <v>7057.1399999999994</v>
       </c>
       <c r="E6" s="3">
-        <v>1463393.4499999965</v>
+        <v>1463393.4499999948</v>
       </c>
       <c r="F6" s="3">
-        <v>1608671.3299999991</v>
+        <v>1608671.3299999998</v>
       </c>
       <c r="G6" s="3">
-        <v>2468918.9100000011</v>
+        <v>2468918.9099999988</v>
       </c>
       <c r="H6" s="3">
-        <v>1397073.089999998</v>
+        <v>1397073.0899999973</v>
       </c>
       <c r="I6" s="3">
         <v>1447668.3700000015</v>
       </c>
       <c r="J6" s="3">
-        <v>1708027.3399999994</v>
+        <v>1708027.3399999999</v>
       </c>
       <c r="K6" s="3">
         <v>1417309.6800000002</v>
@@ -1804,11 +1804,11 @@
         <v>212748.90000000008</v>
       </c>
       <c r="M6" s="3">
-        <v>663844.30000000016</v>
+        <v>663844.30000000028</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3">
-        <v>12399189.259999998</v>
+        <v>12399189.259999994</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1821,35 +1821,35 @@
         <v>6894.9600000000009</v>
       </c>
       <c r="E7" s="3">
-        <v>1144927.780000001</v>
+        <v>1144927.7800000019</v>
       </c>
       <c r="F7" s="3">
-        <v>1504290.4200000032</v>
+        <v>1504290.420000002</v>
       </c>
       <c r="G7" s="3">
-        <v>1538289.4999999967</v>
+        <v>1538289.499999997</v>
       </c>
       <c r="H7" s="3">
-        <v>1381284.1400000008</v>
+        <v>1381284.1400000006</v>
       </c>
       <c r="I7" s="3">
         <v>1701134.8499999989</v>
       </c>
       <c r="J7" s="3">
-        <v>1746004.4499999988</v>
+        <v>1746004.449999999</v>
       </c>
       <c r="K7" s="3">
-        <v>1680489.4900000016</v>
+        <v>1680489.4900000014</v>
       </c>
       <c r="L7" s="3">
-        <v>53156.14</v>
+        <v>53156.139999999992</v>
       </c>
       <c r="M7" s="3">
-        <v>610821.66999999853</v>
+        <v>611541.75999999908</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3">
-        <v>11367293.4</v>
+        <v>11368013.49</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1862,19 +1862,19 @@
         <v>2138.9700000000003</v>
       </c>
       <c r="E8" s="3">
-        <v>1184562.3199999982</v>
+        <v>1184562.3199999959</v>
       </c>
       <c r="F8" s="3">
-        <v>1831448.7400000053</v>
+        <v>1831448.7400000044</v>
       </c>
       <c r="G8" s="3">
-        <v>1530341.0100000007</v>
+        <v>1530341.0100000014</v>
       </c>
       <c r="H8" s="3">
         <v>1361791.9399999969</v>
       </c>
       <c r="I8" s="3">
-        <v>1805774.6000000029</v>
+        <v>1805774.6000000034</v>
       </c>
       <c r="J8" s="3">
         <v>1814590.7200000004</v>
@@ -1883,14 +1883,14 @@
         <v>1472068.6900000037</v>
       </c>
       <c r="L8" s="3">
-        <v>74087.340000000026</v>
+        <v>74087.340000000011</v>
       </c>
       <c r="M8" s="3">
-        <v>982963.33000000136</v>
+        <v>982963.33000000077</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3">
-        <v>12059767.660000011</v>
+        <v>12059767.660000009</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1900,38 +1900,38 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3">
-        <v>11924.080000000004</v>
+        <v>11924.080000000002</v>
       </c>
       <c r="E9" s="3">
-        <v>1380616.3900000008</v>
+        <v>1380616.3900000015</v>
       </c>
       <c r="F9" s="3">
-        <v>1530162.2599999972</v>
+        <v>1530162.2599999991</v>
       </c>
       <c r="G9" s="3">
-        <v>1534772.7800000003</v>
+        <v>1534772.7800000017</v>
       </c>
       <c r="H9" s="3">
-        <v>1412050.1100000043</v>
+        <v>1412050.1100000045</v>
       </c>
       <c r="I9" s="3">
-        <v>1801156.9799999997</v>
+        <v>1801156.9800000002</v>
       </c>
       <c r="J9" s="3">
-        <v>1728532.8499999985</v>
+        <v>1728532.8499999987</v>
       </c>
       <c r="K9" s="3">
-        <v>1574641.5199999977</v>
+        <v>1574641.5199999982</v>
       </c>
       <c r="L9" s="3">
-        <v>314639.27</v>
+        <v>314639.26999999984</v>
       </c>
       <c r="M9" s="3">
         <v>865787.34000000067</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3">
-        <v>12154283.579999998</v>
+        <v>12154283.580000002</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1941,22 +1941,22 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
-        <v>6837.5800000000017</v>
+        <v>6837.5800000000008</v>
       </c>
       <c r="E10" s="3">
-        <v>1435011.8799999987</v>
+        <v>1435011.8799999973</v>
       </c>
       <c r="F10" s="3">
-        <v>1325711.2399999984</v>
+        <v>1325711.2399999995</v>
       </c>
       <c r="G10" s="3">
-        <v>1449278.1400000013</v>
+        <v>1449278.1400000004</v>
       </c>
       <c r="H10" s="3">
-        <v>1210629.7500000035</v>
+        <v>1210629.7500000033</v>
       </c>
       <c r="I10" s="3">
-        <v>2152343.9000000004</v>
+        <v>2152343.9000000008</v>
       </c>
       <c r="J10" s="3">
         <v>1890820.0800000005</v>
@@ -1965,7 +1965,7 @@
         <v>1554264.26</v>
       </c>
       <c r="L10" s="3">
-        <v>316619.54999999993</v>
+        <v>316619.55</v>
       </c>
       <c r="M10" s="3">
         <v>1310555.7100000009</v>
@@ -1985,35 +1985,35 @@
         <v>5242.5199999999995</v>
       </c>
       <c r="E11" s="3">
-        <v>1300718.0199999949</v>
+        <v>1300718.0199999935</v>
       </c>
       <c r="F11" s="3">
-        <v>1677367.4900000046</v>
+        <v>1677367.4900000012</v>
       </c>
       <c r="G11" s="3">
-        <v>1577365.9500000095</v>
+        <v>1577365.9499999965</v>
       </c>
       <c r="H11" s="3">
         <v>1215468.4000000015</v>
       </c>
       <c r="I11" s="3">
-        <v>1626600.9099999983</v>
+        <v>1626600.9099999969</v>
       </c>
       <c r="J11" s="3">
-        <v>1599634.8099999984</v>
+        <v>1599634.8099999982</v>
       </c>
       <c r="K11" s="3">
-        <v>1397886.0899999973</v>
+        <v>1397886.0899999975</v>
       </c>
       <c r="L11" s="3">
-        <v>275574.74000000005</v>
+        <v>275574.74000000011</v>
       </c>
       <c r="M11" s="3">
-        <v>1211454.369999998</v>
+        <v>1211454.3699999976</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3">
-        <v>11887313.300000004</v>
+        <v>11887313.299999984</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -2025,22 +2025,22 @@
         <v>2080.54</v>
       </c>
       <c r="D12" s="3">
-        <v>12537.169999999998</v>
+        <v>12537.169999999996</v>
       </c>
       <c r="E12" s="3">
-        <v>1270938.6699999967</v>
+        <v>1270938.6699999974</v>
       </c>
       <c r="F12" s="3">
         <v>1350522.9200000018</v>
       </c>
       <c r="G12" s="3">
-        <v>1397403.7200000016</v>
+        <v>1397403.7200000014</v>
       </c>
       <c r="H12" s="3">
-        <v>1228070.359999998</v>
+        <v>1228070.3599999989</v>
       </c>
       <c r="I12" s="3">
-        <v>1822764.9299999988</v>
+        <v>1822764.929999999</v>
       </c>
       <c r="J12" s="3">
         <v>1838977.0899999994</v>
@@ -2049,14 +2049,14 @@
         <v>1430627.0099999984</v>
       </c>
       <c r="L12" s="3">
-        <v>325144.6700000001</v>
+        <v>325144.67000000016</v>
       </c>
       <c r="M12" s="3">
         <v>1317573.9000000008</v>
       </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3">
-        <v>11996640.979999993</v>
+        <v>11996640.979999997</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -2068,16 +2068,16 @@
         <v>165.96000000000004</v>
       </c>
       <c r="D13" s="3">
-        <v>26665.450000000004</v>
+        <v>26665.449999999997</v>
       </c>
       <c r="E13" s="3">
-        <v>1148799.4799999953</v>
+        <v>1148799.4799999942</v>
       </c>
       <c r="F13" s="3">
-        <v>1307259.3</v>
+        <v>1307259.2999999998</v>
       </c>
       <c r="G13" s="3">
-        <v>1388836.7200000007</v>
+        <v>1388836.7200000009</v>
       </c>
       <c r="H13" s="3">
         <v>1122793.1099999999</v>
@@ -2086,20 +2086,20 @@
         <v>1729851.0399999998</v>
       </c>
       <c r="J13" s="3">
-        <v>1448316.35</v>
+        <v>1448316.3499999999</v>
       </c>
       <c r="K13" s="3">
-        <v>1146024.1500000006</v>
+        <v>1146024.1500000011</v>
       </c>
       <c r="L13" s="3">
         <v>390104.56999999989</v>
       </c>
       <c r="M13" s="3">
-        <v>1159423.17</v>
+        <v>1159423.1700000002</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3">
-        <v>10868239.299999997</v>
+        <v>10868239.299999995</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -2112,16 +2112,16 @@
         <v>49429.810000000027</v>
       </c>
       <c r="E14" s="3">
-        <v>910679.649999997</v>
+        <v>910679.64999999653</v>
       </c>
       <c r="F14" s="3">
-        <v>1364272.5599999996</v>
+        <v>1364272.5599999998</v>
       </c>
       <c r="G14" s="3">
         <v>1224427.8699999996</v>
       </c>
       <c r="H14" s="3">
-        <v>1333901.1099999994</v>
+        <v>1333901.1099999992</v>
       </c>
       <c r="I14" s="3">
         <v>992715.61</v>
@@ -2136,11 +2136,11 @@
         <v>407078.84000000026</v>
       </c>
       <c r="M14" s="3">
-        <v>692877.2700000006</v>
+        <v>693096.59000000055</v>
       </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3">
-        <v>9512199.1899999995</v>
+        <v>9512418.5099999961</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -2154,16 +2154,16 @@
         <v>6423.25</v>
       </c>
       <c r="D15" s="3">
-        <v>141472.17000000004</v>
+        <v>141472.17000000001</v>
       </c>
       <c r="E15" s="3">
-        <v>15064632.50999997</v>
+        <v>15064632.509999964</v>
       </c>
       <c r="F15" s="3">
-        <v>16496672.99000001</v>
+        <v>16496672.990000006</v>
       </c>
       <c r="G15" s="3">
-        <v>19516569.220000014</v>
+        <v>19516569.220000003</v>
       </c>
       <c r="H15" s="3">
         <v>15670626.570000004</v>
@@ -2172,22 +2172,22 @@
         <v>18746541.359999999</v>
       </c>
       <c r="J15" s="3">
-        <v>19881431.469999995</v>
+        <v>19881431.469999999</v>
       </c>
       <c r="K15" s="3">
-        <v>17475176.949999999</v>
+        <v>17475176.950000003</v>
       </c>
       <c r="L15" s="3">
         <v>5574834.3399999999</v>
       </c>
       <c r="M15" s="3">
-        <v>10070322.710000001</v>
+        <v>10071262.120000001</v>
       </c>
       <c r="N15" s="3">
-        <v>493410.94999999949</v>
+        <v>639428.59999999974</v>
       </c>
       <c r="O15" s="3">
-        <v>139138414.48999995</v>
+        <v>139285371.54999995</v>
       </c>
     </row>
   </sheetData>

--- a/src/OLAP/DataSources/UTB_UFSA.Profit.xlsx
+++ b/src/OLAP/DataSources/UTB_UFSA.Profit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\OLAP\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57C8E22-1479-41F4-946C-FB3A4390DA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12683E3F-BBBB-4631-91D3-1A958AB0C923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UTB_UFSA OLAP" sheetId="1" r:id="rId1"/>
@@ -689,7 +689,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="44593.486073611108" backgroundQuery="1" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF1C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="44755.461546527775" backgroundQuery="1" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF1C000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Доход]" caption="Доход" numFmtId="0" hierarchy="120" level="32767"/>
@@ -1523,7 +1523,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1535,7 +1535,7 @@
     <col min="5" max="11" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
@@ -1547,7 +1547,7 @@
     <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="17" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="17" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="21.85546875" bestFit="1" customWidth="1"/>
@@ -1651,25 +1651,25 @@
         <v>1583.26</v>
       </c>
       <c r="E3" s="3">
-        <v>1182260.3299999973</v>
+        <v>1182260.329999997</v>
       </c>
       <c r="F3" s="3">
-        <v>808904.52999999956</v>
+        <v>808904.53</v>
       </c>
       <c r="G3" s="3">
-        <v>1216548.9099999995</v>
+        <v>1216548.9100000004</v>
       </c>
       <c r="H3" s="3">
-        <v>1042838.3000000003</v>
+        <v>1042838.3000000004</v>
       </c>
       <c r="I3" s="3">
-        <v>1082934.0899999994</v>
+        <v>1082934.0899999992</v>
       </c>
       <c r="J3" s="3">
         <v>1445081.3299999991</v>
       </c>
       <c r="K3" s="3">
-        <v>1572214.2099999995</v>
+        <v>1572214.2099999993</v>
       </c>
       <c r="L3" s="3">
         <v>1138305.2200000002</v>
@@ -1678,10 +1678,10 @@
         <v>291949.25000000012</v>
       </c>
       <c r="N3" s="3">
-        <v>639428.59999999974</v>
+        <v>645571.23999999953</v>
       </c>
       <c r="O3" s="3">
-        <v>10422048.029999994</v>
+        <v>10428190.669999994</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1694,22 +1694,22 @@
         <v>2877.62</v>
       </c>
       <c r="E4" s="3">
-        <v>1254921.679999995</v>
+        <v>1254921.6799999983</v>
       </c>
       <c r="F4" s="3">
-        <v>952718.16999999993</v>
+        <v>952718.16999999946</v>
       </c>
       <c r="G4" s="3">
-        <v>1833124.8300000029</v>
+        <v>1833124.8300000008</v>
       </c>
       <c r="H4" s="3">
-        <v>1298489.860000002</v>
+        <v>1298489.8600000013</v>
       </c>
       <c r="I4" s="3">
         <v>1166777.1699999992</v>
       </c>
       <c r="J4" s="3">
-        <v>1451125.3700000006</v>
+        <v>1451125.3700000003</v>
       </c>
       <c r="K4" s="3">
         <v>1517697.1100000003</v>
@@ -1718,11 +1718,13 @@
         <v>1394357.2199999988</v>
       </c>
       <c r="M4" s="3">
-        <v>574713.78000000026</v>
-      </c>
-      <c r="N4" s="3"/>
+        <v>574715.57000000018</v>
+      </c>
+      <c r="N4" s="3">
+        <v>746779.72999999952</v>
+      </c>
       <c r="O4" s="3">
-        <v>11446802.809999997</v>
+        <v>12193584.329999996</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1735,35 +1737,37 @@
         <v>8283.6099999999988</v>
       </c>
       <c r="E5" s="3">
-        <v>1387802.8599999999</v>
+        <v>1387802.8599999992</v>
       </c>
       <c r="F5" s="3">
-        <v>1235344.0299999998</v>
+        <v>1235344.0299999989</v>
       </c>
       <c r="G5" s="3">
         <v>2357260.8799999994</v>
       </c>
       <c r="H5" s="3">
-        <v>1666236.3999999987</v>
+        <v>1666236.3999999955</v>
       </c>
       <c r="I5" s="3">
-        <v>1416818.9099999997</v>
+        <v>1416818.909999999</v>
       </c>
       <c r="J5" s="3">
-        <v>1621082.54</v>
+        <v>1621082.5399999991</v>
       </c>
       <c r="K5" s="3">
-        <v>1764376.8100000019</v>
+        <v>1764376.8100000017</v>
       </c>
       <c r="L5" s="3">
         <v>673017.88000000082</v>
       </c>
       <c r="M5" s="3">
-        <v>388358.62000000011</v>
-      </c>
-      <c r="N5" s="3"/>
+        <v>388716.07000000018</v>
+      </c>
+      <c r="N5" s="3">
+        <v>52420.11000000003</v>
+      </c>
       <c r="O5" s="3">
-        <v>12518582.539999999</v>
+        <v>12571360.099999994</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1780,19 +1784,19 @@
         <v>7057.1399999999994</v>
       </c>
       <c r="E6" s="3">
-        <v>1463393.4499999948</v>
+        <v>1463393.4499999995</v>
       </c>
       <c r="F6" s="3">
-        <v>1608671.3299999998</v>
+        <v>1608671.3299999996</v>
       </c>
       <c r="G6" s="3">
-        <v>2468918.9099999988</v>
+        <v>2468918.9099999992</v>
       </c>
       <c r="H6" s="3">
-        <v>1397073.0899999973</v>
+        <v>1397073.0899999975</v>
       </c>
       <c r="I6" s="3">
-        <v>1447668.3700000015</v>
+        <v>1447668.3700000017</v>
       </c>
       <c r="J6" s="3">
         <v>1708027.3399999999</v>
@@ -1804,11 +1808,13 @@
         <v>212748.90000000008</v>
       </c>
       <c r="M6" s="3">
-        <v>663844.30000000028</v>
-      </c>
-      <c r="N6" s="3"/>
+        <v>663844.30000000063</v>
+      </c>
+      <c r="N6" s="3">
+        <v>147697.47000000003</v>
+      </c>
       <c r="O6" s="3">
-        <v>12399189.259999994</v>
+        <v>12546886.73</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1821,35 +1827,37 @@
         <v>6894.9600000000009</v>
       </c>
       <c r="E7" s="3">
-        <v>1144927.7800000019</v>
+        <v>1144927.7800000003</v>
       </c>
       <c r="F7" s="3">
-        <v>1504290.420000002</v>
+        <v>1504290.4200000025</v>
       </c>
       <c r="G7" s="3">
-        <v>1538289.499999997</v>
+        <v>1538289.4999999993</v>
       </c>
       <c r="H7" s="3">
-        <v>1381284.1400000006</v>
+        <v>1381284.1400000008</v>
       </c>
       <c r="I7" s="3">
-        <v>1701134.8499999989</v>
+        <v>1701134.8499999992</v>
       </c>
       <c r="J7" s="3">
         <v>1746004.449999999</v>
       </c>
       <c r="K7" s="3">
-        <v>1680489.4900000014</v>
+        <v>1680489.4900000012</v>
       </c>
       <c r="L7" s="3">
         <v>53156.139999999992</v>
       </c>
       <c r="M7" s="3">
-        <v>611541.75999999908</v>
-      </c>
-      <c r="N7" s="3"/>
+        <v>611517.30999999843</v>
+      </c>
+      <c r="N7" s="3">
+        <v>214972.63999999998</v>
+      </c>
       <c r="O7" s="3">
-        <v>11368013.49</v>
+        <v>11582961.680000003</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1862,35 +1870,37 @@
         <v>2138.9700000000003</v>
       </c>
       <c r="E8" s="3">
-        <v>1184562.3199999959</v>
+        <v>1184562.3200000003</v>
       </c>
       <c r="F8" s="3">
-        <v>1831448.7400000044</v>
+        <v>1831448.7400000065</v>
       </c>
       <c r="G8" s="3">
-        <v>1530341.0100000014</v>
+        <v>1530341.0100000007</v>
       </c>
       <c r="H8" s="3">
         <v>1361791.9399999969</v>
       </c>
       <c r="I8" s="3">
-        <v>1805774.6000000034</v>
+        <v>1805774.6000000036</v>
       </c>
       <c r="J8" s="3">
-        <v>1814590.7200000004</v>
+        <v>1814590.7200000007</v>
       </c>
       <c r="K8" s="3">
-        <v>1472068.6900000037</v>
+        <v>1472068.6900000039</v>
       </c>
       <c r="L8" s="3">
-        <v>74087.340000000011</v>
+        <v>74087.340000000026</v>
       </c>
       <c r="M8" s="3">
         <v>982963.33000000077</v>
       </c>
-      <c r="N8" s="3"/>
+      <c r="N8" s="3">
+        <v>272454.31</v>
+      </c>
       <c r="O8" s="3">
-        <v>12059767.660000009</v>
+        <v>12332221.970000016</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1900,38 +1910,40 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3">
-        <v>11924.080000000002</v>
+        <v>11924.080000000004</v>
       </c>
       <c r="E9" s="3">
-        <v>1380616.3900000015</v>
+        <v>1380616.3900000029</v>
       </c>
       <c r="F9" s="3">
-        <v>1530162.2599999991</v>
+        <v>1530162.2599999984</v>
       </c>
       <c r="G9" s="3">
         <v>1534772.7800000017</v>
       </c>
       <c r="H9" s="3">
-        <v>1412050.1100000045</v>
+        <v>1412050.1100000038</v>
       </c>
       <c r="I9" s="3">
-        <v>1801156.9800000002</v>
+        <v>1801156.98</v>
       </c>
       <c r="J9" s="3">
-        <v>1728532.8499999987</v>
+        <v>1728532.8499999989</v>
       </c>
       <c r="K9" s="3">
         <v>1574641.5199999982</v>
       </c>
       <c r="L9" s="3">
-        <v>314639.26999999984</v>
+        <v>314639.2699999999</v>
       </c>
       <c r="M9" s="3">
-        <v>865787.34000000067</v>
-      </c>
-      <c r="N9" s="3"/>
+        <v>854557.10000000068</v>
+      </c>
+      <c r="N9" s="3">
+        <v>118302.59000000001</v>
+      </c>
       <c r="O9" s="3">
-        <v>12154283.580000002</v>
+        <v>12261355.930000003</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1941,38 +1953,38 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
-        <v>6837.5800000000008</v>
+        <v>6837.5800000000017</v>
       </c>
       <c r="E10" s="3">
-        <v>1435011.8799999973</v>
+        <v>1435011.8799999994</v>
       </c>
       <c r="F10" s="3">
-        <v>1325711.2399999995</v>
+        <v>1325711.2399999991</v>
       </c>
       <c r="G10" s="3">
-        <v>1449278.1400000004</v>
+        <v>1449278.1400000001</v>
       </c>
       <c r="H10" s="3">
-        <v>1210629.7500000033</v>
+        <v>1210629.750000003</v>
       </c>
       <c r="I10" s="3">
-        <v>2152343.9000000008</v>
+        <v>2152343.9000000032</v>
       </c>
       <c r="J10" s="3">
-        <v>1890820.0800000005</v>
+        <v>1890820.080000001</v>
       </c>
       <c r="K10" s="3">
-        <v>1554264.26</v>
+        <v>1554264.2600000002</v>
       </c>
       <c r="L10" s="3">
         <v>316619.55</v>
       </c>
       <c r="M10" s="3">
-        <v>1310555.7100000009</v>
+        <v>1310553.8200000012</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3">
-        <v>12652072.090000004</v>
+        <v>12652070.200000009</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1982,22 +1994,22 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3">
-        <v>5242.5199999999995</v>
+        <v>5242.5200000000004</v>
       </c>
       <c r="E11" s="3">
-        <v>1300718.0199999935</v>
+        <v>1300718.0199999961</v>
       </c>
       <c r="F11" s="3">
-        <v>1677367.4900000012</v>
+        <v>1677367.4900000042</v>
       </c>
       <c r="G11" s="3">
         <v>1577365.9499999965</v>
       </c>
       <c r="H11" s="3">
-        <v>1215468.4000000015</v>
+        <v>1215468.4000000013</v>
       </c>
       <c r="I11" s="3">
-        <v>1626600.9099999969</v>
+        <v>1626600.9099999962</v>
       </c>
       <c r="J11" s="3">
         <v>1599634.8099999982</v>
@@ -2006,14 +2018,14 @@
         <v>1397886.0899999975</v>
       </c>
       <c r="L11" s="3">
-        <v>275574.74000000011</v>
+        <v>275574.74000000005</v>
       </c>
       <c r="M11" s="3">
-        <v>1211454.3699999976</v>
+        <v>1210558.379999998</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3">
-        <v>11887313.299999984</v>
+        <v>11886417.309999987</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -2025,19 +2037,19 @@
         <v>2080.54</v>
       </c>
       <c r="D12" s="3">
-        <v>12537.169999999996</v>
+        <v>12537.169999999998</v>
       </c>
       <c r="E12" s="3">
-        <v>1270938.6699999974</v>
+        <v>1270938.6699999976</v>
       </c>
       <c r="F12" s="3">
-        <v>1350522.9200000018</v>
+        <v>1350522.92</v>
       </c>
       <c r="G12" s="3">
         <v>1397403.7200000014</v>
       </c>
       <c r="H12" s="3">
-        <v>1228070.3599999989</v>
+        <v>1228070.3599999982</v>
       </c>
       <c r="I12" s="3">
         <v>1822764.929999999</v>
@@ -2056,7 +2068,7 @@
       </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3">
-        <v>11996640.979999997</v>
+        <v>11996640.979999993</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -2068,25 +2080,25 @@
         <v>165.96000000000004</v>
       </c>
       <c r="D13" s="3">
-        <v>26665.449999999997</v>
+        <v>26665.450000000004</v>
       </c>
       <c r="E13" s="3">
-        <v>1148799.4799999942</v>
+        <v>1148799.4799999974</v>
       </c>
       <c r="F13" s="3">
-        <v>1307259.2999999998</v>
+        <v>1307259.300000001</v>
       </c>
       <c r="G13" s="3">
-        <v>1388836.7200000009</v>
+        <v>1388836.7200000011</v>
       </c>
       <c r="H13" s="3">
-        <v>1122793.1099999999</v>
+        <v>1122793.1099999994</v>
       </c>
       <c r="I13" s="3">
-        <v>1729851.0399999998</v>
+        <v>1729851.04</v>
       </c>
       <c r="J13" s="3">
-        <v>1448316.3499999999</v>
+        <v>1448316.3500000006</v>
       </c>
       <c r="K13" s="3">
         <v>1146024.1500000011</v>
@@ -2095,11 +2107,11 @@
         <v>390104.56999999989</v>
       </c>
       <c r="M13" s="3">
-        <v>1159423.1700000002</v>
+        <v>1147425.7600000007</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3">
-        <v>10868239.299999995</v>
+        <v>10856241.890000001</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -2112,35 +2124,35 @@
         <v>49429.810000000027</v>
       </c>
       <c r="E14" s="3">
-        <v>910679.64999999653</v>
+        <v>910679.65000000037</v>
       </c>
       <c r="F14" s="3">
-        <v>1364272.5599999998</v>
+        <v>1364272.5600000015</v>
       </c>
       <c r="G14" s="3">
-        <v>1224427.8699999996</v>
+        <v>1224427.8699999999</v>
       </c>
       <c r="H14" s="3">
-        <v>1333901.1099999992</v>
+        <v>1333901.1099999999</v>
       </c>
       <c r="I14" s="3">
-        <v>992715.61</v>
+        <v>992715.6100000001</v>
       </c>
       <c r="J14" s="3">
-        <v>1589238.54</v>
+        <v>1589238.5400000003</v>
       </c>
       <c r="K14" s="3">
-        <v>947577.93000000087</v>
+        <v>947577.93000000098</v>
       </c>
       <c r="L14" s="3">
         <v>407078.84000000026</v>
       </c>
       <c r="M14" s="3">
-        <v>693096.59000000055</v>
+        <v>691285.56000000052</v>
       </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3">
-        <v>9512418.5099999961</v>
+        <v>9510607.4800000042</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -2154,19 +2166,19 @@
         <v>6423.25</v>
       </c>
       <c r="D15" s="3">
-        <v>141472.17000000001</v>
+        <v>141472.17000000004</v>
       </c>
       <c r="E15" s="3">
-        <v>15064632.509999964</v>
+        <v>15064632.509999985</v>
       </c>
       <c r="F15" s="3">
-        <v>16496672.990000006</v>
+        <v>16496672.990000011</v>
       </c>
       <c r="G15" s="3">
         <v>19516569.220000003</v>
       </c>
       <c r="H15" s="3">
-        <v>15670626.570000004</v>
+        <v>15670626.569999997</v>
       </c>
       <c r="I15" s="3">
         <v>18746541.359999999</v>
@@ -2178,16 +2190,16 @@
         <v>17475176.950000003</v>
       </c>
       <c r="L15" s="3">
-        <v>5574834.3399999999</v>
+        <v>5574834.3399999989</v>
       </c>
       <c r="M15" s="3">
-        <v>10071262.120000001</v>
+        <v>10045660.350000005</v>
       </c>
       <c r="N15" s="3">
-        <v>639428.59999999974</v>
+        <v>2198198.0899999994</v>
       </c>
       <c r="O15" s="3">
-        <v>139285371.54999995</v>
+        <v>140818539.27000007</v>
       </c>
     </row>
   </sheetData>

--- a/src/OLAP/DataSources/UTB_UFSA.Profit.xlsx
+++ b/src/OLAP/DataSources/UTB_UFSA.Profit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\OLAP\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12683E3F-BBBB-4631-91D3-1A958AB0C923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6EE6E4-A4D8-40BE-B455-E70409F8A6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UTB_UFSA OLAP" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Доход</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
@@ -689,12 +692,12 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="44755.461546527775" backgroundQuery="1" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF1C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="45002.530141898147" backgroundQuery="1" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF1C000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Доход]" caption="Доход" numFmtId="0" hierarchy="120" level="32767"/>
     <cacheField name="[Дата].[Год].[Год]" caption="Год" numFmtId="0" hierarchy="16" level="1">
-      <sharedItems count="13">
+      <sharedItems count="14">
         <s v="[Дата].[Год].&amp;[2010]" c="2010"/>
         <s v="[Дата].[Год].&amp;[2011]" c="2011"/>
         <s v="[Дата].[Год].&amp;[2012]" c="2012"/>
@@ -708,6 +711,7 @@
         <s v="[Дата].[Год].&amp;[2020]" c="2020"/>
         <s v="[Дата].[Год].&amp;[2021]" c="2021"/>
         <s v="[Дата].[Год].&amp;[2022]" c="2022"/>
+        <s v="[Дата].[Год].&amp;[2023]" c="2023"/>
       </sharedItems>
     </cacheField>
     <cacheField name="[Дата].[Месяц].[Месяц]" caption="Месяц" numFmtId="0" hierarchy="20" level="1">
@@ -940,11 +944,11 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:O15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A1:P15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="13">
+      <items count="14">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -958,6 +962,7 @@
         <item x="10"/>
         <item x="11"/>
         <item x="12"/>
+        <item x="13"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -1024,7 +1029,7 @@
   <colFields count="1">
     <field x="1"/>
   </colFields>
-  <colItems count="14">
+  <colItems count="15">
     <i>
       <x/>
     </i>
@@ -1063,6 +1068,9 @@
     </i>
     <i>
       <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
     </i>
     <i t="grand">
       <x/>
@@ -1520,10 +1528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1536,23 +1544,24 @@
     <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="33" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="34" max="40" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -1586,7 +1595,7 @@
     <col min="116" max="116" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1594,7 +1603,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1638,10 +1647,13 @@
         <v>28</v>
       </c>
       <c r="O2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1651,40 +1663,43 @@
         <v>1583.26</v>
       </c>
       <c r="E3" s="3">
-        <v>1182260.329999997</v>
+        <v>1182260.3299999961</v>
       </c>
       <c r="F3" s="3">
-        <v>808904.53</v>
+        <v>808904.52999999991</v>
       </c>
       <c r="G3" s="3">
-        <v>1216548.9100000004</v>
+        <v>1216548.9099999995</v>
       </c>
       <c r="H3" s="3">
-        <v>1042838.3000000004</v>
+        <v>1042838.3000000003</v>
       </c>
       <c r="I3" s="3">
-        <v>1082934.0899999992</v>
+        <v>1082934.0899999994</v>
       </c>
       <c r="J3" s="3">
-        <v>1445081.3299999991</v>
+        <v>1445081.3299999996</v>
       </c>
       <c r="K3" s="3">
         <v>1572214.2099999993</v>
       </c>
       <c r="L3" s="3">
-        <v>1138305.2200000002</v>
+        <v>1138305.2200000004</v>
       </c>
       <c r="M3" s="3">
         <v>291949.25000000012</v>
       </c>
       <c r="N3" s="3">
-        <v>645571.23999999953</v>
+        <v>645597.23999999964</v>
       </c>
       <c r="O3" s="3">
-        <v>10428190.669999994</v>
+        <v>327074.74999999965</v>
+      </c>
+      <c r="P3" s="3">
+        <v>10755291.419999994</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1694,40 +1709,43 @@
         <v>2877.62</v>
       </c>
       <c r="E4" s="3">
-        <v>1254921.6799999983</v>
+        <v>1254921.6799999948</v>
       </c>
       <c r="F4" s="3">
         <v>952718.16999999946</v>
       </c>
       <c r="G4" s="3">
-        <v>1833124.8300000008</v>
+        <v>1833124.8300000031</v>
       </c>
       <c r="H4" s="3">
-        <v>1298489.8600000013</v>
+        <v>1298489.8600000022</v>
       </c>
       <c r="I4" s="3">
         <v>1166777.1699999992</v>
       </c>
       <c r="J4" s="3">
-        <v>1451125.3700000003</v>
+        <v>1451125.37</v>
       </c>
       <c r="K4" s="3">
-        <v>1517697.1100000003</v>
+        <v>1517697.11</v>
       </c>
       <c r="L4" s="3">
-        <v>1394357.2199999988</v>
+        <v>1394357.2199999997</v>
       </c>
       <c r="M4" s="3">
         <v>574715.57000000018</v>
       </c>
       <c r="N4" s="3">
-        <v>746779.72999999952</v>
+        <v>740980.56000000041</v>
       </c>
       <c r="O4" s="3">
-        <v>12193584.329999996</v>
+        <v>-167288.6599999998</v>
+      </c>
+      <c r="P4" s="3">
+        <v>12020496.499999998</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1737,7 +1755,7 @@
         <v>8283.6099999999988</v>
       </c>
       <c r="E5" s="3">
-        <v>1387802.8599999992</v>
+        <v>1387802.8599999987</v>
       </c>
       <c r="F5" s="3">
         <v>1235344.0299999989</v>
@@ -1749,28 +1767,31 @@
         <v>1666236.3999999955</v>
       </c>
       <c r="I5" s="3">
-        <v>1416818.909999999</v>
+        <v>1416818.9099999988</v>
       </c>
       <c r="J5" s="3">
-        <v>1621082.5399999991</v>
+        <v>1621082.5399999996</v>
       </c>
       <c r="K5" s="3">
         <v>1764376.8100000017</v>
       </c>
       <c r="L5" s="3">
-        <v>673017.88000000082</v>
+        <v>673017.88000000035</v>
       </c>
       <c r="M5" s="3">
         <v>388716.07000000018</v>
       </c>
       <c r="N5" s="3">
-        <v>52420.11000000003</v>
+        <v>52034.810000000034</v>
       </c>
       <c r="O5" s="3">
-        <v>12571360.099999994</v>
+        <v>479611.92000000004</v>
+      </c>
+      <c r="P5" s="3">
+        <v>13050586.719999993</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1784,40 +1805,41 @@
         <v>7057.1399999999994</v>
       </c>
       <c r="E6" s="3">
-        <v>1463393.4499999995</v>
+        <v>1463393.4499999955</v>
       </c>
       <c r="F6" s="3">
-        <v>1608671.3299999996</v>
+        <v>1608671.3299999991</v>
       </c>
       <c r="G6" s="3">
-        <v>2468918.9099999992</v>
+        <v>2468918.9099999997</v>
       </c>
       <c r="H6" s="3">
-        <v>1397073.0899999975</v>
+        <v>1397073.089999998</v>
       </c>
       <c r="I6" s="3">
-        <v>1447668.3700000017</v>
+        <v>1447668.370000002</v>
       </c>
       <c r="J6" s="3">
-        <v>1708027.3399999999</v>
+        <v>1708027.3399999994</v>
       </c>
       <c r="K6" s="3">
-        <v>1417309.6800000002</v>
+        <v>1417309.68</v>
       </c>
       <c r="L6" s="3">
-        <v>212748.90000000008</v>
+        <v>212748.90000000005</v>
       </c>
       <c r="M6" s="3">
-        <v>663844.30000000063</v>
+        <v>663844.30000000051</v>
       </c>
       <c r="N6" s="3">
-        <v>147697.47000000003</v>
-      </c>
-      <c r="O6" s="3">
-        <v>12546886.73</v>
+        <v>143195.47000000006</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3">
+        <v>12542384.729999995</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1827,28 +1849,28 @@
         <v>6894.9600000000009</v>
       </c>
       <c r="E7" s="3">
-        <v>1144927.7800000003</v>
+        <v>1144927.780000001</v>
       </c>
       <c r="F7" s="3">
-        <v>1504290.4200000025</v>
+        <v>1504290.4200000034</v>
       </c>
       <c r="G7" s="3">
-        <v>1538289.4999999993</v>
+        <v>1538289.4999999972</v>
       </c>
       <c r="H7" s="3">
         <v>1381284.1400000008</v>
       </c>
       <c r="I7" s="3">
-        <v>1701134.8499999992</v>
+        <v>1701134.8499999989</v>
       </c>
       <c r="J7" s="3">
-        <v>1746004.449999999</v>
+        <v>1746004.4499999986</v>
       </c>
       <c r="K7" s="3">
         <v>1680489.4900000012</v>
       </c>
       <c r="L7" s="3">
-        <v>53156.139999999992</v>
+        <v>53156.14</v>
       </c>
       <c r="M7" s="3">
         <v>611517.30999999843</v>
@@ -1856,11 +1878,12 @@
       <c r="N7" s="3">
         <v>214972.63999999998</v>
       </c>
-      <c r="O7" s="3">
-        <v>11582961.680000003</v>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3">
+        <v>11582961.68</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -1870,40 +1893,41 @@
         <v>2138.9700000000003</v>
       </c>
       <c r="E8" s="3">
-        <v>1184562.3200000003</v>
+        <v>1184562.3199999973</v>
       </c>
       <c r="F8" s="3">
-        <v>1831448.7400000065</v>
+        <v>1831448.7400000051</v>
       </c>
       <c r="G8" s="3">
-        <v>1530341.0100000007</v>
+        <v>1530341.0100000009</v>
       </c>
       <c r="H8" s="3">
         <v>1361791.9399999969</v>
       </c>
       <c r="I8" s="3">
-        <v>1805774.6000000036</v>
+        <v>1805774.6000000034</v>
       </c>
       <c r="J8" s="3">
-        <v>1814590.7200000007</v>
+        <v>1814590.7200000004</v>
       </c>
       <c r="K8" s="3">
-        <v>1472068.6900000039</v>
+        <v>1472068.6900000041</v>
       </c>
       <c r="L8" s="3">
-        <v>74087.340000000026</v>
+        <v>74087.34</v>
       </c>
       <c r="M8" s="3">
         <v>982963.33000000077</v>
       </c>
       <c r="N8" s="3">
-        <v>272454.31</v>
-      </c>
-      <c r="O8" s="3">
-        <v>12332221.970000016</v>
+        <v>270393.55</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3">
+        <v>12330161.21000001</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1913,40 +1937,41 @@
         <v>11924.080000000004</v>
       </c>
       <c r="E9" s="3">
-        <v>1380616.3900000029</v>
+        <v>1380616.3900000015</v>
       </c>
       <c r="F9" s="3">
-        <v>1530162.2599999984</v>
+        <v>1530162.2599999977</v>
       </c>
       <c r="G9" s="3">
-        <v>1534772.7800000017</v>
+        <v>1534772.7800000003</v>
       </c>
       <c r="H9" s="3">
-        <v>1412050.1100000038</v>
+        <v>1412050.1100000031</v>
       </c>
       <c r="I9" s="3">
-        <v>1801156.98</v>
+        <v>1801156.9799999995</v>
       </c>
       <c r="J9" s="3">
-        <v>1728532.8499999989</v>
+        <v>1728532.8499999982</v>
       </c>
       <c r="K9" s="3">
         <v>1574641.5199999982</v>
       </c>
       <c r="L9" s="3">
-        <v>314639.2699999999</v>
+        <v>314639.27</v>
       </c>
       <c r="M9" s="3">
         <v>854557.10000000068</v>
       </c>
       <c r="N9" s="3">
-        <v>118302.59000000001</v>
-      </c>
-      <c r="O9" s="3">
-        <v>12261355.930000003</v>
+        <v>423840.21</v>
+      </c>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3">
+        <v>12566893.549999999</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -1956,38 +1981,41 @@
         <v>6837.5800000000017</v>
       </c>
       <c r="E10" s="3">
-        <v>1435011.8799999994</v>
+        <v>1435011.8799999987</v>
       </c>
       <c r="F10" s="3">
-        <v>1325711.2399999991</v>
+        <v>1325711.2399999977</v>
       </c>
       <c r="G10" s="3">
-        <v>1449278.1400000001</v>
+        <v>1449278.1400000011</v>
       </c>
       <c r="H10" s="3">
-        <v>1210629.750000003</v>
+        <v>1210629.7500000026</v>
       </c>
       <c r="I10" s="3">
-        <v>2152343.9000000032</v>
+        <v>2152343.9000000013</v>
       </c>
       <c r="J10" s="3">
-        <v>1890820.080000001</v>
+        <v>1890820.0800000005</v>
       </c>
       <c r="K10" s="3">
-        <v>1554264.2600000002</v>
+        <v>1554264.2599999998</v>
       </c>
       <c r="L10" s="3">
-        <v>316619.55</v>
+        <v>316619.54999999993</v>
       </c>
       <c r="M10" s="3">
         <v>1310553.8200000012</v>
       </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3">
-        <v>12652070.200000009</v>
+      <c r="N10" s="3">
+        <v>345334.23000000004</v>
+      </c>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3">
+        <v>12997404.430000003</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -1997,22 +2025,22 @@
         <v>5242.5200000000004</v>
       </c>
       <c r="E11" s="3">
-        <v>1300718.0199999961</v>
+        <v>1300718.0199999963</v>
       </c>
       <c r="F11" s="3">
         <v>1677367.4900000042</v>
       </c>
       <c r="G11" s="3">
-        <v>1577365.9499999965</v>
+        <v>1577365.949999996</v>
       </c>
       <c r="H11" s="3">
-        <v>1215468.4000000013</v>
+        <v>1215468.4000000001</v>
       </c>
       <c r="I11" s="3">
         <v>1626600.9099999962</v>
       </c>
       <c r="J11" s="3">
-        <v>1599634.8099999982</v>
+        <v>1599634.8099999987</v>
       </c>
       <c r="K11" s="3">
         <v>1397886.0899999975</v>
@@ -2021,14 +2049,17 @@
         <v>275574.74000000005</v>
       </c>
       <c r="M11" s="3">
-        <v>1210558.379999998</v>
-      </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3">
-        <v>11886417.309999987</v>
+        <v>1210558.3799999978</v>
+      </c>
+      <c r="N11" s="3">
+        <v>453432.81999999989</v>
+      </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3">
+        <v>12339850.129999986</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -2037,25 +2068,25 @@
         <v>2080.54</v>
       </c>
       <c r="D12" s="3">
-        <v>12537.169999999998</v>
+        <v>12537.169999999996</v>
       </c>
       <c r="E12" s="3">
-        <v>1270938.6699999976</v>
+        <v>1270938.669999996</v>
       </c>
       <c r="F12" s="3">
         <v>1350522.92</v>
       </c>
       <c r="G12" s="3">
-        <v>1397403.7200000014</v>
+        <v>1397403.7200000016</v>
       </c>
       <c r="H12" s="3">
-        <v>1228070.3599999982</v>
+        <v>1228070.3600000003</v>
       </c>
       <c r="I12" s="3">
         <v>1822764.929999999</v>
       </c>
       <c r="J12" s="3">
-        <v>1838977.0899999994</v>
+        <v>1838977.0899999992</v>
       </c>
       <c r="K12" s="3">
         <v>1430627.0099999984</v>
@@ -2064,14 +2095,17 @@
         <v>325144.67000000016</v>
       </c>
       <c r="M12" s="3">
-        <v>1317573.9000000008</v>
-      </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3">
-        <v>11996640.979999993</v>
+        <v>1317573.9000000006</v>
+      </c>
+      <c r="N12" s="3">
+        <v>409270.78000000014</v>
+      </c>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3">
+        <v>12405911.759999994</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -2083,51 +2117,54 @@
         <v>26665.450000000004</v>
       </c>
       <c r="E13" s="3">
-        <v>1148799.4799999974</v>
+        <v>1148799.4799999944</v>
       </c>
       <c r="F13" s="3">
-        <v>1307259.300000001</v>
+        <v>1307259.3000000003</v>
       </c>
       <c r="G13" s="3">
         <v>1388836.7200000011</v>
       </c>
       <c r="H13" s="3">
-        <v>1122793.1099999994</v>
+        <v>1122793.1099999989</v>
       </c>
       <c r="I13" s="3">
-        <v>1729851.04</v>
+        <v>1729851.040000001</v>
       </c>
       <c r="J13" s="3">
-        <v>1448316.3500000006</v>
+        <v>1448316.3499999999</v>
       </c>
       <c r="K13" s="3">
-        <v>1146024.1500000011</v>
+        <v>1146024.1500000008</v>
       </c>
       <c r="L13" s="3">
-        <v>390104.56999999989</v>
+        <v>390104.56999999983</v>
       </c>
       <c r="M13" s="3">
         <v>1147425.7600000007</v>
       </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3">
-        <v>10856241.890000001</v>
+      <c r="N13" s="3">
+        <v>-229223.66000000003</v>
+      </c>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3">
+        <v>10627018.229999999</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3">
-        <v>49429.810000000027</v>
+        <v>49429.810000000019</v>
       </c>
       <c r="E14" s="3">
-        <v>910679.65000000037</v>
+        <v>910679.649999997</v>
       </c>
       <c r="F14" s="3">
-        <v>1364272.5600000015</v>
+        <v>1364272.5599999994</v>
       </c>
       <c r="G14" s="3">
         <v>1224427.8699999999</v>
@@ -2136,26 +2173,29 @@
         <v>1333901.1099999999</v>
       </c>
       <c r="I14" s="3">
-        <v>992715.6100000001</v>
+        <v>992715.61000000034</v>
       </c>
       <c r="J14" s="3">
-        <v>1589238.5400000003</v>
+        <v>1589238.5400000005</v>
       </c>
       <c r="K14" s="3">
-        <v>947577.93000000098</v>
+        <v>947577.93000000087</v>
       </c>
       <c r="L14" s="3">
-        <v>407078.84000000026</v>
+        <v>407078.8400000002</v>
       </c>
       <c r="M14" s="3">
-        <v>691285.56000000052</v>
-      </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3">
-        <v>9510607.4800000042</v>
+        <v>691413.79000000062</v>
+      </c>
+      <c r="N14" s="3">
+        <v>72856.500000000073</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3">
+        <v>9583592.209999999</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2166,40 +2206,43 @@
         <v>6423.25</v>
       </c>
       <c r="D15" s="3">
-        <v>141472.17000000004</v>
+        <v>141472.17000000001</v>
       </c>
       <c r="E15" s="3">
-        <v>15064632.509999985</v>
+        <v>15064632.509999968</v>
       </c>
       <c r="F15" s="3">
-        <v>16496672.990000011</v>
+        <v>16496672.990000006</v>
       </c>
       <c r="G15" s="3">
-        <v>19516569.220000003</v>
+        <v>19516569.219999999</v>
       </c>
       <c r="H15" s="3">
-        <v>15670626.569999997</v>
+        <v>15670626.570000002</v>
       </c>
       <c r="I15" s="3">
         <v>18746541.359999999</v>
       </c>
       <c r="J15" s="3">
-        <v>19881431.469999999</v>
+        <v>19881431.469999991</v>
       </c>
       <c r="K15" s="3">
-        <v>17475176.950000003</v>
+        <v>17475176.949999999</v>
       </c>
       <c r="L15" s="3">
-        <v>5574834.3399999989</v>
+        <v>5574834.3400000008</v>
       </c>
       <c r="M15" s="3">
-        <v>10045660.350000005</v>
+        <v>10045788.580000002</v>
       </c>
       <c r="N15" s="3">
-        <v>2198198.0899999994</v>
+        <v>3542685.1500000004</v>
       </c>
       <c r="O15" s="3">
-        <v>140818539.27000007</v>
+        <v>639398.00999999989</v>
+      </c>
+      <c r="P15" s="3">
+        <v>142802552.57000005</v>
       </c>
     </row>
   </sheetData>

--- a/src/OLAP/DataSources/UTB_UFSA.Profit.xlsx
+++ b/src/OLAP/DataSources/UTB_UFSA.Profit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\OLAP\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6EE6E4-A4D8-40BE-B455-E70409F8A6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F6A87A-95D4-4F05-85EE-7B5F99892C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2680" yWindow="-14510" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UTB_UFSA OLAP" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="D:\data\git\Luxena.Travel\src\OLAP\DataSources\UTB_UFSA OLAP.odc" keepAlive="1" name="UTB + UFSA Travel Документы" type="5" refreshedVersion="7" background="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="D:\data\git\Luxena.Travel\src\OLAP\DataSources\UTB_UFSA OLAP.odc" keepAlive="1" name="UTB + UFSA Travel Документы" type="5" refreshedVersion="8" background="1">
     <dbPr connection="Provider=MSOLAP.8;Persist Security Info=True;User ID=SRV01\utb_ufsa;Initial Catalog=UTB_UFSA Travel;Data Source=analysis.travel.smartikum.com;Location=analysis.travel.smartikum.com;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" command="Документы" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
   </connection>
@@ -692,7 +692,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="45002.530141898147" backgroundQuery="1" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF1C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="45181.446824999999" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF1C000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Доход]" caption="Доход" numFmtId="0" hierarchy="120" level="32767"/>
@@ -943,7 +943,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:P15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -1530,72 +1530,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="40" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="43" max="49" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="52" max="58" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="59" max="60" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="61" max="67" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="70" max="76" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="79" max="85" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="89" max="95" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="99" max="105" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="109" max="111" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="114" max="115" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="34" max="40" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="43" max="49" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="52" max="58" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="59" max="60" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="61" max="67" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="70" max="76" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="15.265625" bestFit="1" customWidth="1"/>
+    <col min="79" max="85" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="89" max="95" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="99" max="105" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="109" max="111" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="114" max="115" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="15.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1663,10 +1663,10 @@
         <v>1583.26</v>
       </c>
       <c r="E3" s="3">
-        <v>1182260.3299999961</v>
+        <v>1182260.3299999982</v>
       </c>
       <c r="F3" s="3">
-        <v>808904.52999999991</v>
+        <v>808904.53000000026</v>
       </c>
       <c r="G3" s="3">
         <v>1216548.9099999995</v>
@@ -1675,31 +1675,31 @@
         <v>1042838.3000000003</v>
       </c>
       <c r="I3" s="3">
-        <v>1082934.0899999994</v>
+        <v>1082934.0899999992</v>
       </c>
       <c r="J3" s="3">
         <v>1445081.3299999996</v>
       </c>
       <c r="K3" s="3">
-        <v>1572214.2099999993</v>
+        <v>1572214.2099999995</v>
       </c>
       <c r="L3" s="3">
-        <v>1138305.2200000004</v>
+        <v>1138305.2200000002</v>
       </c>
       <c r="M3" s="3">
-        <v>291949.25000000012</v>
+        <v>291949.25000000006</v>
       </c>
       <c r="N3" s="3">
-        <v>645597.23999999964</v>
+        <v>645597.23999999953</v>
       </c>
       <c r="O3" s="3">
-        <v>327074.74999999965</v>
+        <v>-499327.549999999</v>
       </c>
       <c r="P3" s="3">
-        <v>10755291.419999994</v>
+        <v>9928889.1199999973</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1709,16 +1709,16 @@
         <v>2877.62</v>
       </c>
       <c r="E4" s="3">
-        <v>1254921.6799999948</v>
+        <v>1254921.6799999962</v>
       </c>
       <c r="F4" s="3">
-        <v>952718.16999999946</v>
+        <v>952718.16999999969</v>
       </c>
       <c r="G4" s="3">
-        <v>1833124.8300000031</v>
+        <v>1833124.8300000029</v>
       </c>
       <c r="H4" s="3">
-        <v>1298489.8600000022</v>
+        <v>1298489.860000002</v>
       </c>
       <c r="I4" s="3">
         <v>1166777.1699999992</v>
@@ -1727,25 +1727,25 @@
         <v>1451125.37</v>
       </c>
       <c r="K4" s="3">
-        <v>1517697.11</v>
+        <v>1517697.1100000003</v>
       </c>
       <c r="L4" s="3">
-        <v>1394357.2199999997</v>
+        <v>1394357.22</v>
       </c>
       <c r="M4" s="3">
         <v>574715.57000000018</v>
       </c>
       <c r="N4" s="3">
-        <v>740980.56000000041</v>
+        <v>740980.56000000029</v>
       </c>
       <c r="O4" s="3">
-        <v>-167288.6599999998</v>
+        <v>-786577.39999999991</v>
       </c>
       <c r="P4" s="3">
-        <v>12020496.499999998</v>
+        <v>11401207.76</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1755,43 +1755,43 @@
         <v>8283.6099999999988</v>
       </c>
       <c r="E5" s="3">
-        <v>1387802.8599999987</v>
+        <v>1387802.8599999996</v>
       </c>
       <c r="F5" s="3">
-        <v>1235344.0299999989</v>
+        <v>1235344.0299999984</v>
       </c>
       <c r="G5" s="3">
-        <v>2357260.8799999994</v>
+        <v>2357260.879999999</v>
       </c>
       <c r="H5" s="3">
         <v>1666236.3999999955</v>
       </c>
       <c r="I5" s="3">
-        <v>1416818.9099999988</v>
+        <v>1416818.9099999997</v>
       </c>
       <c r="J5" s="3">
-        <v>1621082.5399999996</v>
+        <v>1621082.5399999998</v>
       </c>
       <c r="K5" s="3">
         <v>1764376.8100000017</v>
       </c>
       <c r="L5" s="3">
-        <v>673017.88000000035</v>
+        <v>673017.88000000059</v>
       </c>
       <c r="M5" s="3">
-        <v>388716.07000000018</v>
+        <v>388716.07000000007</v>
       </c>
       <c r="N5" s="3">
         <v>52034.810000000034</v>
       </c>
       <c r="O5" s="3">
-        <v>479611.92000000004</v>
+        <v>16620.019999999669</v>
       </c>
       <c r="P5" s="3">
-        <v>13050586.719999993</v>
+        <v>12587594.819999993</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1805,25 +1805,25 @@
         <v>7057.1399999999994</v>
       </c>
       <c r="E6" s="3">
-        <v>1463393.4499999955</v>
+        <v>1463393.4499999986</v>
       </c>
       <c r="F6" s="3">
-        <v>1608671.3299999991</v>
+        <v>1608671.330000001</v>
       </c>
       <c r="G6" s="3">
-        <v>2468918.9099999997</v>
+        <v>2468918.9099999992</v>
       </c>
       <c r="H6" s="3">
         <v>1397073.089999998</v>
       </c>
       <c r="I6" s="3">
-        <v>1447668.370000002</v>
+        <v>1447668.3700000015</v>
       </c>
       <c r="J6" s="3">
-        <v>1708027.3399999994</v>
+        <v>1708027.34</v>
       </c>
       <c r="K6" s="3">
-        <v>1417309.68</v>
+        <v>1417309.6800000004</v>
       </c>
       <c r="L6" s="3">
         <v>212748.90000000005</v>
@@ -1834,12 +1834,14 @@
       <c r="N6" s="3">
         <v>143195.47000000006</v>
       </c>
-      <c r="O6" s="3"/>
+      <c r="O6" s="3">
+        <v>4705.4200000002165</v>
+      </c>
       <c r="P6" s="3">
-        <v>12542384.729999995</v>
+        <v>12547090.15</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1849,28 +1851,28 @@
         <v>6894.9600000000009</v>
       </c>
       <c r="E7" s="3">
-        <v>1144927.780000001</v>
+        <v>1144927.7800000005</v>
       </c>
       <c r="F7" s="3">
-        <v>1504290.4200000034</v>
+        <v>1504290.4200000025</v>
       </c>
       <c r="G7" s="3">
-        <v>1538289.4999999972</v>
+        <v>1538289.4999999965</v>
       </c>
       <c r="H7" s="3">
         <v>1381284.1400000008</v>
       </c>
       <c r="I7" s="3">
-        <v>1701134.8499999989</v>
+        <v>1701134.8499999987</v>
       </c>
       <c r="J7" s="3">
-        <v>1746004.4499999986</v>
+        <v>1746004.4499999988</v>
       </c>
       <c r="K7" s="3">
         <v>1680489.4900000012</v>
       </c>
       <c r="L7" s="3">
-        <v>53156.14</v>
+        <v>53156.139999999992</v>
       </c>
       <c r="M7" s="3">
         <v>611517.30999999843</v>
@@ -1878,56 +1880,60 @@
       <c r="N7" s="3">
         <v>214972.63999999998</v>
       </c>
-      <c r="O7" s="3"/>
+      <c r="O7" s="3">
+        <v>94387.650000000198</v>
+      </c>
       <c r="P7" s="3">
-        <v>11582961.68</v>
+        <v>11677349.329999998</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3">
-        <v>2138.9700000000003</v>
+        <v>2138.9699999999998</v>
       </c>
       <c r="E8" s="3">
-        <v>1184562.3199999973</v>
+        <v>1184562.3199999975</v>
       </c>
       <c r="F8" s="3">
-        <v>1831448.7400000051</v>
+        <v>1831448.7400000044</v>
       </c>
       <c r="G8" s="3">
-        <v>1530341.0100000009</v>
+        <v>1530341.0100000014</v>
       </c>
       <c r="H8" s="3">
         <v>1361791.9399999969</v>
       </c>
       <c r="I8" s="3">
-        <v>1805774.6000000034</v>
+        <v>1805774.6000000036</v>
       </c>
       <c r="J8" s="3">
-        <v>1814590.7200000004</v>
+        <v>1814590.72</v>
       </c>
       <c r="K8" s="3">
-        <v>1472068.6900000041</v>
+        <v>1472068.6900000037</v>
       </c>
       <c r="L8" s="3">
-        <v>74087.34</v>
+        <v>74087.340000000011</v>
       </c>
       <c r="M8" s="3">
-        <v>982963.33000000077</v>
+        <v>982963.33000000066</v>
       </c>
       <c r="N8" s="3">
-        <v>270393.55</v>
-      </c>
-      <c r="O8" s="3"/>
+        <v>270393.55000000005</v>
+      </c>
+      <c r="O8" s="3">
+        <v>-446198.75999999966</v>
+      </c>
       <c r="P8" s="3">
-        <v>12330161.21000001</v>
+        <v>11883962.450000007</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1937,85 +1943,89 @@
         <v>11924.080000000004</v>
       </c>
       <c r="E9" s="3">
-        <v>1380616.3900000015</v>
+        <v>1380616.3900000043</v>
       </c>
       <c r="F9" s="3">
-        <v>1530162.2599999977</v>
+        <v>1530162.2599999995</v>
       </c>
       <c r="G9" s="3">
-        <v>1534772.7800000003</v>
+        <v>1534772.7800000021</v>
       </c>
       <c r="H9" s="3">
-        <v>1412050.1100000031</v>
+        <v>1412050.1100000022</v>
       </c>
       <c r="I9" s="3">
         <v>1801156.9799999995</v>
       </c>
       <c r="J9" s="3">
-        <v>1728532.8499999982</v>
+        <v>1728532.8499999985</v>
       </c>
       <c r="K9" s="3">
-        <v>1574641.5199999982</v>
+        <v>1574641.5199999979</v>
       </c>
       <c r="L9" s="3">
-        <v>314639.27</v>
+        <v>314639.27000000008</v>
       </c>
       <c r="M9" s="3">
         <v>854557.10000000068</v>
       </c>
       <c r="N9" s="3">
-        <v>423840.21</v>
-      </c>
-      <c r="O9" s="3"/>
+        <v>423840.20999999996</v>
+      </c>
+      <c r="O9" s="3">
+        <v>905828.09000000008</v>
+      </c>
       <c r="P9" s="3">
-        <v>12566893.549999999</v>
+        <v>13472721.640000006</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
-        <v>6837.5800000000017</v>
+        <v>6837.5800000000008</v>
       </c>
       <c r="E10" s="3">
-        <v>1435011.8799999987</v>
+        <v>1435011.88</v>
       </c>
       <c r="F10" s="3">
-        <v>1325711.2399999977</v>
+        <v>1325711.2399999984</v>
       </c>
       <c r="G10" s="3">
-        <v>1449278.1400000011</v>
+        <v>1449278.1399999987</v>
       </c>
       <c r="H10" s="3">
-        <v>1210629.7500000026</v>
+        <v>1210629.7499999998</v>
       </c>
       <c r="I10" s="3">
         <v>2152343.9000000013</v>
       </c>
       <c r="J10" s="3">
-        <v>1890820.0800000005</v>
+        <v>1890820.0800000008</v>
       </c>
       <c r="K10" s="3">
-        <v>1554264.2599999998</v>
+        <v>1554264.26</v>
       </c>
       <c r="L10" s="3">
-        <v>316619.54999999993</v>
+        <v>316619.55</v>
       </c>
       <c r="M10" s="3">
-        <v>1310553.8200000012</v>
+        <v>1310553.820000001</v>
       </c>
       <c r="N10" s="3">
-        <v>345334.23000000004</v>
-      </c>
-      <c r="O10" s="3"/>
+        <v>345334.2300000001</v>
+      </c>
+      <c r="O10" s="3">
+        <v>-187768.02999999991</v>
+      </c>
       <c r="P10" s="3">
-        <v>12997404.430000003</v>
+        <v>12809636.4</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -2028,16 +2038,16 @@
         <v>1300718.0199999963</v>
       </c>
       <c r="F11" s="3">
-        <v>1677367.4900000042</v>
+        <v>1677367.4900000005</v>
       </c>
       <c r="G11" s="3">
-        <v>1577365.949999996</v>
+        <v>1577365.9499999965</v>
       </c>
       <c r="H11" s="3">
-        <v>1215468.4000000001</v>
+        <v>1215468.3999999999</v>
       </c>
       <c r="I11" s="3">
-        <v>1626600.9099999962</v>
+        <v>1626600.909999996</v>
       </c>
       <c r="J11" s="3">
         <v>1599634.8099999987</v>
@@ -2046,20 +2056,22 @@
         <v>1397886.0899999975</v>
       </c>
       <c r="L11" s="3">
-        <v>275574.74000000005</v>
+        <v>275574.74</v>
       </c>
       <c r="M11" s="3">
-        <v>1210558.3799999978</v>
+        <v>1210558.3799999983</v>
       </c>
       <c r="N11" s="3">
         <v>453432.81999999989</v>
       </c>
-      <c r="O11" s="3"/>
+      <c r="O11" s="3">
+        <v>93394.35</v>
+      </c>
       <c r="P11" s="3">
-        <v>12339850.129999986</v>
+        <v>12433244.479999984</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -2071,22 +2083,22 @@
         <v>12537.169999999996</v>
       </c>
       <c r="E12" s="3">
-        <v>1270938.669999996</v>
+        <v>1270938.6699999981</v>
       </c>
       <c r="F12" s="3">
-        <v>1350522.92</v>
+        <v>1350522.9200000023</v>
       </c>
       <c r="G12" s="3">
-        <v>1397403.7200000016</v>
+        <v>1397403.7200000011</v>
       </c>
       <c r="H12" s="3">
-        <v>1228070.3600000003</v>
+        <v>1228070.3599999994</v>
       </c>
       <c r="I12" s="3">
         <v>1822764.929999999</v>
       </c>
       <c r="J12" s="3">
-        <v>1838977.0899999992</v>
+        <v>1838977.0899999996</v>
       </c>
       <c r="K12" s="3">
         <v>1430627.0099999984</v>
@@ -2102,10 +2114,10 @@
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3">
-        <v>12405911.759999994</v>
+        <v>12405911.759999996</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -2114,31 +2126,31 @@
         <v>165.96000000000004</v>
       </c>
       <c r="D13" s="3">
-        <v>26665.450000000004</v>
+        <v>26665.45</v>
       </c>
       <c r="E13" s="3">
-        <v>1148799.4799999944</v>
+        <v>1148799.4799999956</v>
       </c>
       <c r="F13" s="3">
-        <v>1307259.3000000003</v>
+        <v>1307259.3</v>
       </c>
       <c r="G13" s="3">
-        <v>1388836.7200000011</v>
+        <v>1388836.7200000007</v>
       </c>
       <c r="H13" s="3">
-        <v>1122793.1099999989</v>
+        <v>1122793.1099999992</v>
       </c>
       <c r="I13" s="3">
-        <v>1729851.040000001</v>
+        <v>1729851.0400000007</v>
       </c>
       <c r="J13" s="3">
-        <v>1448316.3499999999</v>
+        <v>1448316.35</v>
       </c>
       <c r="K13" s="3">
-        <v>1146024.1500000008</v>
+        <v>1146024.1500000004</v>
       </c>
       <c r="L13" s="3">
-        <v>390104.56999999983</v>
+        <v>390104.56999999989</v>
       </c>
       <c r="M13" s="3">
         <v>1147425.7600000007</v>
@@ -2148,10 +2160,10 @@
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3">
-        <v>10627018.229999999</v>
+        <v>10627018.229999997</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -2161,41 +2173,41 @@
         <v>49429.810000000019</v>
       </c>
       <c r="E14" s="3">
-        <v>910679.649999997</v>
+        <v>910679.64999999781</v>
       </c>
       <c r="F14" s="3">
-        <v>1364272.5599999994</v>
+        <v>1364272.5599999996</v>
       </c>
       <c r="G14" s="3">
         <v>1224427.8699999999</v>
       </c>
       <c r="H14" s="3">
-        <v>1333901.1099999999</v>
+        <v>1333901.1100000006</v>
       </c>
       <c r="I14" s="3">
-        <v>992715.61000000034</v>
+        <v>992715.6100000001</v>
       </c>
       <c r="J14" s="3">
-        <v>1589238.5400000005</v>
+        <v>1589238.5400000003</v>
       </c>
       <c r="K14" s="3">
-        <v>947577.93000000087</v>
+        <v>947577.93000000098</v>
       </c>
       <c r="L14" s="3">
-        <v>407078.8400000002</v>
+        <v>407078.84000000026</v>
       </c>
       <c r="M14" s="3">
-        <v>691413.79000000062</v>
+        <v>691413.7900000005</v>
       </c>
       <c r="N14" s="3">
-        <v>72856.500000000073</v>
+        <v>72856.500000000087</v>
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3">
-        <v>9583592.209999999</v>
+        <v>9583592.2100000009</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2209,7 +2221,7 @@
         <v>141472.17000000001</v>
       </c>
       <c r="E15" s="3">
-        <v>15064632.509999968</v>
+        <v>15064632.509999981</v>
       </c>
       <c r="F15" s="3">
         <v>16496672.990000006</v>
@@ -2218,7 +2230,7 @@
         <v>19516569.219999999</v>
       </c>
       <c r="H15" s="3">
-        <v>15670626.570000002</v>
+        <v>15670626.569999995</v>
       </c>
       <c r="I15" s="3">
         <v>18746541.359999999</v>
@@ -2227,22 +2239,22 @@
         <v>19881431.469999991</v>
       </c>
       <c r="K15" s="3">
-        <v>17475176.949999999</v>
+        <v>17475176.950000003</v>
       </c>
       <c r="L15" s="3">
         <v>5574834.3400000008</v>
       </c>
       <c r="M15" s="3">
-        <v>10045788.580000002</v>
+        <v>10045788.580000004</v>
       </c>
       <c r="N15" s="3">
-        <v>3542685.1500000004</v>
+        <v>3542685.15</v>
       </c>
       <c r="O15" s="3">
-        <v>639398.00999999989</v>
+        <v>-804936.20999999822</v>
       </c>
       <c r="P15" s="3">
-        <v>142802552.57000005</v>
+        <v>141358218.34999996</v>
       </c>
     </row>
   </sheetData>

--- a/src/OLAP/DataSources/UTB_UFSA.Profit.xlsx
+++ b/src/OLAP/DataSources/UTB_UFSA.Profit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\OLAP\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F6A87A-95D4-4F05-85EE-7B5F99892C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA14897-BCA3-437F-B7E9-64B3DB03807D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="-14510" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2190" yWindow="10702" windowWidth="19395" windowHeight="11476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UTB_UFSA OLAP" sheetId="1" r:id="rId1"/>
@@ -692,7 +692,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="45181.446824999999" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF1C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="45222.466475925925" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF1C000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Доход]" caption="Доход" numFmtId="0" hierarchy="120" level="32767"/>
@@ -1531,71 +1531,71 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="34" max="40" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="43" max="49" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="52" max="58" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="59" max="60" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="61" max="67" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="70" max="76" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="15.265625" bestFit="1" customWidth="1"/>
-    <col min="79" max="85" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="89" max="95" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="14.73046875" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="99" max="105" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="109" max="111" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="114" max="115" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="34" max="40" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="43" max="49" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="52" max="58" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="59" max="60" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="61" max="67" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="70" max="76" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="79" max="85" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="89" max="95" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="99" max="105" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="109" max="111" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="114" max="115" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="15.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1663,22 +1663,22 @@
         <v>1583.26</v>
       </c>
       <c r="E3" s="3">
-        <v>1182260.3299999982</v>
+        <v>1182260.3299999961</v>
       </c>
       <c r="F3" s="3">
-        <v>808904.53000000026</v>
+        <v>808904.5299999991</v>
       </c>
       <c r="G3" s="3">
-        <v>1216548.9099999995</v>
+        <v>1216548.9099999997</v>
       </c>
       <c r="H3" s="3">
-        <v>1042838.3000000003</v>
+        <v>1042838.2999999993</v>
       </c>
       <c r="I3" s="3">
         <v>1082934.0899999992</v>
       </c>
       <c r="J3" s="3">
-        <v>1445081.3299999996</v>
+        <v>1445081.3299999989</v>
       </c>
       <c r="K3" s="3">
         <v>1572214.2099999995</v>
@@ -1687,19 +1687,19 @@
         <v>1138305.2200000002</v>
       </c>
       <c r="M3" s="3">
-        <v>291949.25000000006</v>
+        <v>291949.25000000012</v>
       </c>
       <c r="N3" s="3">
-        <v>645597.23999999953</v>
+        <v>645597.23999999964</v>
       </c>
       <c r="O3" s="3">
         <v>-499327.549999999</v>
       </c>
       <c r="P3" s="3">
-        <v>9928889.1199999973</v>
+        <v>9928889.1199999917</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1709,28 +1709,28 @@
         <v>2877.62</v>
       </c>
       <c r="E4" s="3">
-        <v>1254921.6799999962</v>
+        <v>1254921.679999996</v>
       </c>
       <c r="F4" s="3">
-        <v>952718.16999999969</v>
+        <v>952718.16999999946</v>
       </c>
       <c r="G4" s="3">
-        <v>1833124.8300000029</v>
+        <v>1833124.830000001</v>
       </c>
       <c r="H4" s="3">
-        <v>1298489.860000002</v>
+        <v>1298489.8600000022</v>
       </c>
       <c r="I4" s="3">
         <v>1166777.1699999992</v>
       </c>
       <c r="J4" s="3">
-        <v>1451125.37</v>
+        <v>1451125.3699999999</v>
       </c>
       <c r="K4" s="3">
-        <v>1517697.1100000003</v>
+        <v>1517697.11</v>
       </c>
       <c r="L4" s="3">
-        <v>1394357.22</v>
+        <v>1394357.2199999988</v>
       </c>
       <c r="M4" s="3">
         <v>574715.57000000018</v>
@@ -1742,10 +1742,10 @@
         <v>-786577.39999999991</v>
       </c>
       <c r="P4" s="3">
-        <v>11401207.76</v>
+        <v>11401207.759999996</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1755,13 +1755,13 @@
         <v>8283.6099999999988</v>
       </c>
       <c r="E5" s="3">
-        <v>1387802.8599999996</v>
+        <v>1387802.8599999971</v>
       </c>
       <c r="F5" s="3">
-        <v>1235344.0299999984</v>
+        <v>1235344.0300000012</v>
       </c>
       <c r="G5" s="3">
-        <v>2357260.879999999</v>
+        <v>2357260.8799999994</v>
       </c>
       <c r="H5" s="3">
         <v>1666236.3999999955</v>
@@ -1773,25 +1773,25 @@
         <v>1621082.5399999998</v>
       </c>
       <c r="K5" s="3">
-        <v>1764376.8100000017</v>
+        <v>1764376.8100000019</v>
       </c>
       <c r="L5" s="3">
-        <v>673017.88000000059</v>
+        <v>673017.88000000082</v>
       </c>
       <c r="M5" s="3">
-        <v>388716.07000000007</v>
+        <v>388716.07000000018</v>
       </c>
       <c r="N5" s="3">
         <v>52034.810000000034</v>
       </c>
       <c r="O5" s="3">
-        <v>16620.019999999669</v>
+        <v>16620.01999999968</v>
       </c>
       <c r="P5" s="3">
-        <v>12587594.819999993</v>
+        <v>12587594.819999995</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1805,28 +1805,28 @@
         <v>7057.1399999999994</v>
       </c>
       <c r="E6" s="3">
-        <v>1463393.4499999986</v>
+        <v>1463393.4499999965</v>
       </c>
       <c r="F6" s="3">
-        <v>1608671.330000001</v>
+        <v>1608671.3299999998</v>
       </c>
       <c r="G6" s="3">
         <v>2468918.9099999992</v>
       </c>
       <c r="H6" s="3">
-        <v>1397073.089999998</v>
+        <v>1397073.0899999982</v>
       </c>
       <c r="I6" s="3">
         <v>1447668.3700000015</v>
       </c>
       <c r="J6" s="3">
-        <v>1708027.34</v>
+        <v>1708027.3399999999</v>
       </c>
       <c r="K6" s="3">
         <v>1417309.6800000004</v>
       </c>
       <c r="L6" s="3">
-        <v>212748.90000000005</v>
+        <v>212748.90000000008</v>
       </c>
       <c r="M6" s="3">
         <v>663844.30000000051</v>
@@ -1835,13 +1835,13 @@
         <v>143195.47000000006</v>
       </c>
       <c r="O6" s="3">
-        <v>4705.4200000002165</v>
+        <v>4705.4200000002229</v>
       </c>
       <c r="P6" s="3">
         <v>12547090.15</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1854,16 +1854,16 @@
         <v>1144927.7800000005</v>
       </c>
       <c r="F7" s="3">
-        <v>1504290.4200000025</v>
+        <v>1504290.4200000016</v>
       </c>
       <c r="G7" s="3">
-        <v>1538289.4999999965</v>
+        <v>1538289.4999999967</v>
       </c>
       <c r="H7" s="3">
-        <v>1381284.1400000008</v>
+        <v>1381284.1399999997</v>
       </c>
       <c r="I7" s="3">
-        <v>1701134.8499999987</v>
+        <v>1701134.8499999982</v>
       </c>
       <c r="J7" s="3">
         <v>1746004.4499999988</v>
@@ -1878,38 +1878,38 @@
         <v>611517.30999999843</v>
       </c>
       <c r="N7" s="3">
-        <v>214972.63999999998</v>
+        <v>214972.64</v>
       </c>
       <c r="O7" s="3">
         <v>94387.650000000198</v>
       </c>
       <c r="P7" s="3">
-        <v>11677349.329999998</v>
+        <v>11677349.329999996</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3">
-        <v>2138.9699999999998</v>
+        <v>2138.9700000000003</v>
       </c>
       <c r="E8" s="3">
-        <v>1184562.3199999975</v>
+        <v>1184562.3199999982</v>
       </c>
       <c r="F8" s="3">
-        <v>1831448.7400000044</v>
+        <v>1831448.7400000021</v>
       </c>
       <c r="G8" s="3">
-        <v>1530341.0100000014</v>
+        <v>1530341.0100000012</v>
       </c>
       <c r="H8" s="3">
-        <v>1361791.9399999969</v>
+        <v>1361791.9399999972</v>
       </c>
       <c r="I8" s="3">
-        <v>1805774.6000000036</v>
+        <v>1805774.6000000031</v>
       </c>
       <c r="J8" s="3">
         <v>1814590.72</v>
@@ -1918,22 +1918,22 @@
         <v>1472068.6900000037</v>
       </c>
       <c r="L8" s="3">
-        <v>74087.340000000011</v>
+        <v>74087.340000000026</v>
       </c>
       <c r="M8" s="3">
-        <v>982963.33000000066</v>
+        <v>982963.33000000077</v>
       </c>
       <c r="N8" s="3">
-        <v>270393.55000000005</v>
+        <v>270393.55</v>
       </c>
       <c r="O8" s="3">
-        <v>-446198.75999999966</v>
+        <v>-446198.75999999949</v>
       </c>
       <c r="P8" s="3">
-        <v>11883962.450000007</v>
+        <v>11883962.450000009</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1943,28 +1943,28 @@
         <v>11924.080000000004</v>
       </c>
       <c r="E9" s="3">
-        <v>1380616.3900000043</v>
+        <v>1380616.3900000029</v>
       </c>
       <c r="F9" s="3">
-        <v>1530162.2599999995</v>
+        <v>1530162.2599999974</v>
       </c>
       <c r="G9" s="3">
-        <v>1534772.7800000021</v>
+        <v>1534772.7800000017</v>
       </c>
       <c r="H9" s="3">
-        <v>1412050.1100000022</v>
+        <v>1412050.1100000031</v>
       </c>
       <c r="I9" s="3">
-        <v>1801156.9799999995</v>
+        <v>1801156.98</v>
       </c>
       <c r="J9" s="3">
-        <v>1728532.8499999985</v>
+        <v>1728532.8499999989</v>
       </c>
       <c r="K9" s="3">
-        <v>1574641.5199999979</v>
+        <v>1574641.5199999977</v>
       </c>
       <c r="L9" s="3">
-        <v>314639.27000000008</v>
+        <v>314639.2699999999</v>
       </c>
       <c r="M9" s="3">
         <v>854557.10000000068</v>
@@ -1973,59 +1973,59 @@
         <v>423840.20999999996</v>
       </c>
       <c r="O9" s="3">
-        <v>905828.09000000008</v>
+        <v>874323.87000000011</v>
       </c>
       <c r="P9" s="3">
-        <v>13472721.640000006</v>
+        <v>13441217.420000002</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
-        <v>6837.5800000000008</v>
+        <v>6837.5800000000017</v>
       </c>
       <c r="E10" s="3">
-        <v>1435011.88</v>
+        <v>1435011.8799999983</v>
       </c>
       <c r="F10" s="3">
-        <v>1325711.2399999984</v>
+        <v>1325711.2400000005</v>
       </c>
       <c r="G10" s="3">
         <v>1449278.1399999987</v>
       </c>
       <c r="H10" s="3">
-        <v>1210629.7499999998</v>
+        <v>1210629.7500000014</v>
       </c>
       <c r="I10" s="3">
-        <v>2152343.9000000013</v>
+        <v>2152343.9000000018</v>
       </c>
       <c r="J10" s="3">
-        <v>1890820.0800000008</v>
+        <v>1890820.0800000005</v>
       </c>
       <c r="K10" s="3">
-        <v>1554264.26</v>
+        <v>1554264.2600000002</v>
       </c>
       <c r="L10" s="3">
-        <v>316619.55</v>
+        <v>316619.55000000005</v>
       </c>
       <c r="M10" s="3">
-        <v>1310553.820000001</v>
+        <v>1310553.8200000012</v>
       </c>
       <c r="N10" s="3">
-        <v>345334.2300000001</v>
+        <v>345334.23000000004</v>
       </c>
       <c r="O10" s="3">
-        <v>-187768.02999999991</v>
+        <v>-505368.82999999996</v>
       </c>
       <c r="P10" s="3">
-        <v>12809636.4</v>
+        <v>12492035.600000003</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -2035,13 +2035,13 @@
         <v>5242.5200000000004</v>
       </c>
       <c r="E11" s="3">
-        <v>1300718.0199999963</v>
+        <v>1300718.0199999944</v>
       </c>
       <c r="F11" s="3">
-        <v>1677367.4900000005</v>
+        <v>1677367.4900000012</v>
       </c>
       <c r="G11" s="3">
-        <v>1577365.9499999965</v>
+        <v>1577365.9499999962</v>
       </c>
       <c r="H11" s="3">
         <v>1215468.3999999999</v>
@@ -2056,22 +2056,22 @@
         <v>1397886.0899999975</v>
       </c>
       <c r="L11" s="3">
-        <v>275574.74</v>
+        <v>275574.74000000005</v>
       </c>
       <c r="M11" s="3">
-        <v>1210558.3799999983</v>
+        <v>1210558.3799999985</v>
       </c>
       <c r="N11" s="3">
         <v>453432.81999999989</v>
       </c>
       <c r="O11" s="3">
-        <v>93394.35</v>
+        <v>95219.080000000045</v>
       </c>
       <c r="P11" s="3">
-        <v>12433244.479999984</v>
+        <v>12435069.209999982</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -2080,22 +2080,22 @@
         <v>2080.54</v>
       </c>
       <c r="D12" s="3">
-        <v>12537.169999999996</v>
+        <v>12537.169999999998</v>
       </c>
       <c r="E12" s="3">
-        <v>1270938.6699999981</v>
+        <v>1270938.669999996</v>
       </c>
       <c r="F12" s="3">
-        <v>1350522.9200000023</v>
+        <v>1350522.9200000025</v>
       </c>
       <c r="G12" s="3">
-        <v>1397403.7200000011</v>
+        <v>1397403.7200000014</v>
       </c>
       <c r="H12" s="3">
         <v>1228070.3599999994</v>
       </c>
       <c r="I12" s="3">
-        <v>1822764.929999999</v>
+        <v>1822764.9299999992</v>
       </c>
       <c r="J12" s="3">
         <v>1838977.0899999996</v>
@@ -2104,20 +2104,22 @@
         <v>1430627.0099999984</v>
       </c>
       <c r="L12" s="3">
-        <v>325144.67000000016</v>
+        <v>325144.67000000022</v>
       </c>
       <c r="M12" s="3">
-        <v>1317573.9000000006</v>
+        <v>1317573.9000000008</v>
       </c>
       <c r="N12" s="3">
         <v>409270.78000000014</v>
       </c>
-      <c r="O12" s="3"/>
+      <c r="O12" s="3">
+        <v>477169.48</v>
+      </c>
       <c r="P12" s="3">
-        <v>12405911.759999996</v>
+        <v>12883081.239999995</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -2126,88 +2128,88 @@
         <v>165.96000000000004</v>
       </c>
       <c r="D13" s="3">
-        <v>26665.45</v>
+        <v>26665.450000000004</v>
       </c>
       <c r="E13" s="3">
-        <v>1148799.4799999956</v>
+        <v>1148799.4799999963</v>
       </c>
       <c r="F13" s="3">
         <v>1307259.3</v>
       </c>
       <c r="G13" s="3">
-        <v>1388836.7200000007</v>
+        <v>1388836.7200000009</v>
       </c>
       <c r="H13" s="3">
-        <v>1122793.1099999992</v>
+        <v>1122793.1099999999</v>
       </c>
       <c r="I13" s="3">
-        <v>1729851.0400000007</v>
+        <v>1729851.0400000005</v>
       </c>
       <c r="J13" s="3">
         <v>1448316.35</v>
       </c>
       <c r="K13" s="3">
-        <v>1146024.1500000004</v>
+        <v>1146024.1500000006</v>
       </c>
       <c r="L13" s="3">
-        <v>390104.56999999989</v>
+        <v>390104.56999999983</v>
       </c>
       <c r="M13" s="3">
-        <v>1147425.7600000007</v>
+        <v>1147425.7600000012</v>
       </c>
       <c r="N13" s="3">
         <v>-229223.66000000003</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3">
-        <v>10627018.229999997</v>
+        <v>10627018.229999999</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3">
-        <v>49429.810000000019</v>
+        <v>49429.810000000027</v>
       </c>
       <c r="E14" s="3">
-        <v>910679.64999999781</v>
+        <v>910679.64999999839</v>
       </c>
       <c r="F14" s="3">
-        <v>1364272.5599999996</v>
+        <v>1364272.5599999998</v>
       </c>
       <c r="G14" s="3">
-        <v>1224427.8699999999</v>
+        <v>1224427.8699999987</v>
       </c>
       <c r="H14" s="3">
-        <v>1333901.1100000006</v>
+        <v>1333901.1100000003</v>
       </c>
       <c r="I14" s="3">
-        <v>992715.6100000001</v>
+        <v>992715.61000000045</v>
       </c>
       <c r="J14" s="3">
         <v>1589238.5400000003</v>
       </c>
       <c r="K14" s="3">
-        <v>947577.93000000098</v>
+        <v>947577.93000000087</v>
       </c>
       <c r="L14" s="3">
         <v>407078.84000000026</v>
       </c>
       <c r="M14" s="3">
-        <v>691413.7900000005</v>
+        <v>691413.79000000027</v>
       </c>
       <c r="N14" s="3">
-        <v>72856.500000000087</v>
+        <v>72856.500000000073</v>
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3">
         <v>9583592.2100000009</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2218,25 +2220,25 @@
         <v>6423.25</v>
       </c>
       <c r="D15" s="3">
-        <v>141472.17000000001</v>
+        <v>141472.17000000004</v>
       </c>
       <c r="E15" s="3">
-        <v>15064632.509999981</v>
+        <v>15064632.509999968</v>
       </c>
       <c r="F15" s="3">
-        <v>16496672.990000006</v>
+        <v>16496672.990000004</v>
       </c>
       <c r="G15" s="3">
-        <v>19516569.219999999</v>
+        <v>19516569.219999991</v>
       </c>
       <c r="H15" s="3">
-        <v>15670626.569999995</v>
+        <v>15670626.569999998</v>
       </c>
       <c r="I15" s="3">
         <v>18746541.359999999</v>
       </c>
       <c r="J15" s="3">
-        <v>19881431.469999991</v>
+        <v>19881431.469999995</v>
       </c>
       <c r="K15" s="3">
         <v>17475176.950000003</v>
@@ -2245,16 +2247,16 @@
         <v>5574834.3400000008</v>
       </c>
       <c r="M15" s="3">
-        <v>10045788.580000004</v>
+        <v>10045788.580000002</v>
       </c>
       <c r="N15" s="3">
         <v>3542685.15</v>
       </c>
       <c r="O15" s="3">
-        <v>-804936.20999999822</v>
+        <v>-675047.01999999816</v>
       </c>
       <c r="P15" s="3">
-        <v>141358218.34999996</v>
+        <v>141488107.53999996</v>
       </c>
     </row>
   </sheetData>

--- a/src/OLAP/DataSources/UTB_UFSA.Profit.xlsx
+++ b/src/OLAP/DataSources/UTB_UFSA.Profit.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\OLAP\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA14897-BCA3-437F-B7E9-64B3DB03807D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55395553-086D-4EF7-9240-6DB0C5E93400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2190" yWindow="10702" windowWidth="19395" windowHeight="11476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UTB_UFSA OLAP" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId2"/>
+    <pivotCache cacheId="169" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -692,7 +692,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="45222.466475925925" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF1C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="45334.428560763889" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF1C000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Доход]" caption="Доход" numFmtId="0" hierarchy="120" level="32767"/>
@@ -943,7 +943,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="169" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:P15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -1232,9 +1232,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1272,7 +1272,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1378,7 +1378,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1520,7 +1520,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1530,72 +1530,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="34" max="40" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="43" max="49" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="52" max="58" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="59" max="60" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="61" max="67" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="70" max="76" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="79" max="85" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="89" max="95" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="99" max="105" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="109" max="111" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="114" max="115" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="34" max="40" width="13.06640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="43" max="49" width="13.06640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="52" max="58" width="13.06640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="60" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="61" max="67" width="13.06640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="70" max="76" width="13.06640625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="15.265625" bestFit="1" customWidth="1"/>
+    <col min="79" max="85" width="13.06640625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="89" max="95" width="13.06640625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="99" max="105" width="13.06640625" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="109" max="111" width="13.06640625" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="13.06640625" bestFit="1" customWidth="1"/>
+    <col min="114" max="115" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="15.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1663,19 +1663,19 @@
         <v>1583.26</v>
       </c>
       <c r="E3" s="3">
-        <v>1182260.3299999961</v>
+        <v>1182260.329999994</v>
       </c>
       <c r="F3" s="3">
-        <v>808904.5299999991</v>
+        <v>808904.53000000014</v>
       </c>
       <c r="G3" s="3">
-        <v>1216548.9099999997</v>
+        <v>1216548.9099999992</v>
       </c>
       <c r="H3" s="3">
-        <v>1042838.2999999993</v>
+        <v>1042838.3000000003</v>
       </c>
       <c r="I3" s="3">
-        <v>1082934.0899999992</v>
+        <v>1082934.0899999989</v>
       </c>
       <c r="J3" s="3">
         <v>1445081.3299999989</v>
@@ -1687,7 +1687,7 @@
         <v>1138305.2200000002</v>
       </c>
       <c r="M3" s="3">
-        <v>291949.25000000012</v>
+        <v>291949.25000000006</v>
       </c>
       <c r="N3" s="3">
         <v>645597.23999999964</v>
@@ -1699,7 +1699,7 @@
         <v>9928889.1199999917</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1709,65 +1709,65 @@
         <v>2877.62</v>
       </c>
       <c r="E4" s="3">
-        <v>1254921.679999996</v>
+        <v>1254921.6799999969</v>
       </c>
       <c r="F4" s="3">
-        <v>952718.16999999946</v>
+        <v>952718.16999999981</v>
       </c>
       <c r="G4" s="3">
-        <v>1833124.830000001</v>
+        <v>1833124.8300000029</v>
       </c>
       <c r="H4" s="3">
-        <v>1298489.8600000022</v>
+        <v>1298489.860000002</v>
       </c>
       <c r="I4" s="3">
         <v>1166777.1699999992</v>
       </c>
       <c r="J4" s="3">
-        <v>1451125.3699999999</v>
+        <v>1451125.37</v>
       </c>
       <c r="K4" s="3">
-        <v>1517697.11</v>
+        <v>1517697.1100000003</v>
       </c>
       <c r="L4" s="3">
-        <v>1394357.2199999988</v>
+        <v>1394357.219999999</v>
       </c>
       <c r="M4" s="3">
         <v>574715.57000000018</v>
       </c>
       <c r="N4" s="3">
-        <v>740980.56000000029</v>
+        <v>740980.56000000017</v>
       </c>
       <c r="O4" s="3">
         <v>-786577.39999999991</v>
       </c>
       <c r="P4" s="3">
-        <v>11401207.759999996</v>
+        <v>11401207.76</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3">
-        <v>8283.6099999999988</v>
+        <v>8283.61</v>
       </c>
       <c r="E5" s="3">
-        <v>1387802.8599999971</v>
+        <v>1387802.8599999996</v>
       </c>
       <c r="F5" s="3">
-        <v>1235344.0300000012</v>
+        <v>1235344.0299999993</v>
       </c>
       <c r="G5" s="3">
-        <v>2357260.8799999994</v>
+        <v>2357260.879999999</v>
       </c>
       <c r="H5" s="3">
-        <v>1666236.3999999955</v>
+        <v>1666236.3999999957</v>
       </c>
       <c r="I5" s="3">
-        <v>1416818.9099999997</v>
+        <v>1416818.91</v>
       </c>
       <c r="J5" s="3">
         <v>1621082.5399999998</v>
@@ -1779,19 +1779,19 @@
         <v>673017.88000000082</v>
       </c>
       <c r="M5" s="3">
-        <v>388716.07000000018</v>
+        <v>388716.07000000012</v>
       </c>
       <c r="N5" s="3">
-        <v>52034.810000000034</v>
+        <v>52034.810000000056</v>
       </c>
       <c r="O5" s="3">
-        <v>16620.01999999968</v>
+        <v>16620.019999999669</v>
       </c>
       <c r="P5" s="3">
         <v>12587594.819999995</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1805,22 +1805,22 @@
         <v>7057.1399999999994</v>
       </c>
       <c r="E6" s="3">
-        <v>1463393.4499999965</v>
+        <v>1463393.4499999967</v>
       </c>
       <c r="F6" s="3">
-        <v>1608671.3299999998</v>
+        <v>1608671.3300000019</v>
       </c>
       <c r="G6" s="3">
-        <v>2468918.9099999992</v>
+        <v>2468918.9099999988</v>
       </c>
       <c r="H6" s="3">
-        <v>1397073.0899999982</v>
+        <v>1397073.089999998</v>
       </c>
       <c r="I6" s="3">
         <v>1447668.3700000015</v>
       </c>
       <c r="J6" s="3">
-        <v>1708027.3399999999</v>
+        <v>1708027.34</v>
       </c>
       <c r="K6" s="3">
         <v>1417309.6800000004</v>
@@ -1829,19 +1829,19 @@
         <v>212748.90000000008</v>
       </c>
       <c r="M6" s="3">
-        <v>663844.30000000051</v>
+        <v>663844.3000000004</v>
       </c>
       <c r="N6" s="3">
-        <v>143195.47000000006</v>
+        <v>143195.47000000009</v>
       </c>
       <c r="O6" s="3">
-        <v>4705.4200000002229</v>
+        <v>4705.4200000002165</v>
       </c>
       <c r="P6" s="3">
-        <v>12547090.15</v>
+        <v>12547090.149999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1851,19 +1851,19 @@
         <v>6894.9600000000009</v>
       </c>
       <c r="E7" s="3">
-        <v>1144927.7800000005</v>
+        <v>1144927.7799999984</v>
       </c>
       <c r="F7" s="3">
-        <v>1504290.4200000016</v>
+        <v>1504290.4200000025</v>
       </c>
       <c r="G7" s="3">
-        <v>1538289.4999999967</v>
+        <v>1538289.4999999965</v>
       </c>
       <c r="H7" s="3">
-        <v>1381284.1399999997</v>
+        <v>1381284.1400000008</v>
       </c>
       <c r="I7" s="3">
-        <v>1701134.8499999982</v>
+        <v>1701134.8499999989</v>
       </c>
       <c r="J7" s="3">
         <v>1746004.4499999988</v>
@@ -1875,7 +1875,7 @@
         <v>53156.139999999992</v>
       </c>
       <c r="M7" s="3">
-        <v>611517.30999999843</v>
+        <v>611517.30999999854</v>
       </c>
       <c r="N7" s="3">
         <v>214972.64</v>
@@ -1884,10 +1884,10 @@
         <v>94387.650000000198</v>
       </c>
       <c r="P7" s="3">
-        <v>11677349.329999996</v>
+        <v>11677349.329999998</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -1897,28 +1897,28 @@
         <v>2138.9700000000003</v>
       </c>
       <c r="E8" s="3">
-        <v>1184562.3199999982</v>
+        <v>1184562.3200000024</v>
       </c>
       <c r="F8" s="3">
-        <v>1831448.7400000021</v>
+        <v>1831448.7400000049</v>
       </c>
       <c r="G8" s="3">
-        <v>1530341.0100000012</v>
+        <v>1530341.0100000016</v>
       </c>
       <c r="H8" s="3">
-        <v>1361791.9399999972</v>
+        <v>1361791.9399999969</v>
       </c>
       <c r="I8" s="3">
         <v>1805774.6000000031</v>
       </c>
       <c r="J8" s="3">
-        <v>1814590.72</v>
+        <v>1814590.7199999997</v>
       </c>
       <c r="K8" s="3">
-        <v>1472068.6900000037</v>
+        <v>1472068.6900000039</v>
       </c>
       <c r="L8" s="3">
-        <v>74087.340000000026</v>
+        <v>74087.340000000011</v>
       </c>
       <c r="M8" s="3">
         <v>982963.33000000077</v>
@@ -1927,13 +1927,13 @@
         <v>270393.55</v>
       </c>
       <c r="O8" s="3">
-        <v>-446198.75999999949</v>
+        <v>-446198.75999999943</v>
       </c>
       <c r="P8" s="3">
-        <v>11883962.450000009</v>
+        <v>11883962.450000014</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1943,19 +1943,19 @@
         <v>11924.080000000004</v>
       </c>
       <c r="E9" s="3">
-        <v>1380616.3900000029</v>
+        <v>1380616.3900000013</v>
       </c>
       <c r="F9" s="3">
-        <v>1530162.2599999974</v>
+        <v>1530162.2599999993</v>
       </c>
       <c r="G9" s="3">
-        <v>1534772.7800000017</v>
+        <v>1534772.7800000019</v>
       </c>
       <c r="H9" s="3">
-        <v>1412050.1100000031</v>
+        <v>1412050.1100000029</v>
       </c>
       <c r="I9" s="3">
-        <v>1801156.98</v>
+        <v>1801156.9799999986</v>
       </c>
       <c r="J9" s="3">
         <v>1728532.8499999989</v>
@@ -1964,7 +1964,7 @@
         <v>1574641.5199999977</v>
       </c>
       <c r="L9" s="3">
-        <v>314639.2699999999</v>
+        <v>314639.26999999973</v>
       </c>
       <c r="M9" s="3">
         <v>854557.10000000068</v>
@@ -1973,13 +1973,13 @@
         <v>423840.20999999996</v>
       </c>
       <c r="O9" s="3">
-        <v>874323.87000000011</v>
+        <v>723517.87000000011</v>
       </c>
       <c r="P9" s="3">
-        <v>13441217.420000002</v>
+        <v>13290411.42</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -1989,71 +1989,71 @@
         <v>6837.5800000000017</v>
       </c>
       <c r="E10" s="3">
-        <v>1435011.8799999983</v>
+        <v>1435011.8799999994</v>
       </c>
       <c r="F10" s="3">
-        <v>1325711.2400000005</v>
+        <v>1325711.2399999986</v>
       </c>
       <c r="G10" s="3">
-        <v>1449278.1399999987</v>
+        <v>1449278.139999999</v>
       </c>
       <c r="H10" s="3">
-        <v>1210629.7500000014</v>
+        <v>1210629.7499999998</v>
       </c>
       <c r="I10" s="3">
         <v>2152343.9000000018</v>
       </c>
       <c r="J10" s="3">
-        <v>1890820.0800000005</v>
+        <v>1890820.0800000003</v>
       </c>
       <c r="K10" s="3">
-        <v>1554264.2600000002</v>
+        <v>1554264.26</v>
       </c>
       <c r="L10" s="3">
-        <v>316619.55000000005</v>
+        <v>316619.55</v>
       </c>
       <c r="M10" s="3">
-        <v>1310553.8200000012</v>
+        <v>1310553.820000001</v>
       </c>
       <c r="N10" s="3">
-        <v>345334.23000000004</v>
+        <v>345334.2300000001</v>
       </c>
       <c r="O10" s="3">
         <v>-505368.82999999996</v>
       </c>
       <c r="P10" s="3">
-        <v>12492035.600000003</v>
+        <v>12492035.6</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3">
-        <v>5242.5200000000004</v>
+        <v>5242.5199999999995</v>
       </c>
       <c r="E11" s="3">
-        <v>1300718.0199999944</v>
+        <v>1300718.0199999986</v>
       </c>
       <c r="F11" s="3">
-        <v>1677367.4900000012</v>
+        <v>1677367.4900000005</v>
       </c>
       <c r="G11" s="3">
-        <v>1577365.9499999962</v>
+        <v>1577365.9499999965</v>
       </c>
       <c r="H11" s="3">
-        <v>1215468.3999999999</v>
+        <v>1215468.3999999997</v>
       </c>
       <c r="I11" s="3">
-        <v>1626600.909999996</v>
+        <v>1626600.9099999955</v>
       </c>
       <c r="J11" s="3">
-        <v>1599634.8099999987</v>
+        <v>1599634.8099999984</v>
       </c>
       <c r="K11" s="3">
-        <v>1397886.0899999975</v>
+        <v>1397886.0899999973</v>
       </c>
       <c r="L11" s="3">
         <v>275574.74000000005</v>
@@ -2065,13 +2065,13 @@
         <v>453432.81999999989</v>
       </c>
       <c r="O11" s="3">
-        <v>95219.080000000045</v>
+        <v>57353.080000000016</v>
       </c>
       <c r="P11" s="3">
-        <v>12435069.209999982</v>
+        <v>12397203.209999986</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -2080,25 +2080,25 @@
         <v>2080.54</v>
       </c>
       <c r="D12" s="3">
-        <v>12537.169999999998</v>
+        <v>12537.169999999996</v>
       </c>
       <c r="E12" s="3">
-        <v>1270938.669999996</v>
+        <v>1270938.6699999964</v>
       </c>
       <c r="F12" s="3">
-        <v>1350522.9200000025</v>
+        <v>1350522.920000003</v>
       </c>
       <c r="G12" s="3">
         <v>1397403.7200000014</v>
       </c>
       <c r="H12" s="3">
-        <v>1228070.3599999994</v>
+        <v>1228070.3599999996</v>
       </c>
       <c r="I12" s="3">
-        <v>1822764.9299999992</v>
+        <v>1822764.929999999</v>
       </c>
       <c r="J12" s="3">
-        <v>1838977.0899999996</v>
+        <v>1838977.0899999994</v>
       </c>
       <c r="K12" s="3">
         <v>1430627.0099999984</v>
@@ -2107,19 +2107,19 @@
         <v>325144.67000000022</v>
       </c>
       <c r="M12" s="3">
-        <v>1317573.9000000008</v>
+        <v>1317573.9000000004</v>
       </c>
       <c r="N12" s="3">
         <v>409270.78000000014</v>
       </c>
       <c r="O12" s="3">
-        <v>477169.48</v>
+        <v>292185.30000000016</v>
       </c>
       <c r="P12" s="3">
-        <v>12883081.239999995</v>
+        <v>12698097.059999997</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -2128,19 +2128,19 @@
         <v>165.96000000000004</v>
       </c>
       <c r="D13" s="3">
-        <v>26665.450000000004</v>
+        <v>26665.450000000008</v>
       </c>
       <c r="E13" s="3">
-        <v>1148799.4799999963</v>
+        <v>1148799.4799999984</v>
       </c>
       <c r="F13" s="3">
-        <v>1307259.3</v>
+        <v>1307259.3000000007</v>
       </c>
       <c r="G13" s="3">
         <v>1388836.7200000009</v>
       </c>
       <c r="H13" s="3">
-        <v>1122793.1099999999</v>
+        <v>1122793.1099999996</v>
       </c>
       <c r="I13" s="3">
         <v>1729851.0400000005</v>
@@ -2152,45 +2152,47 @@
         <v>1146024.1500000006</v>
       </c>
       <c r="L13" s="3">
-        <v>390104.56999999983</v>
+        <v>390104.56999999989</v>
       </c>
       <c r="M13" s="3">
-        <v>1147425.7600000012</v>
+        <v>1147425.7600000009</v>
       </c>
       <c r="N13" s="3">
         <v>-229223.66000000003</v>
       </c>
-      <c r="O13" s="3"/>
+      <c r="O13" s="3">
+        <v>-647191.70999999973</v>
+      </c>
       <c r="P13" s="3">
-        <v>10627018.229999999</v>
+        <v>9979826.5200000014</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3">
-        <v>49429.810000000027</v>
+        <v>49429.810000000019</v>
       </c>
       <c r="E14" s="3">
-        <v>910679.64999999839</v>
+        <v>910679.65000000072</v>
       </c>
       <c r="F14" s="3">
-        <v>1364272.5599999998</v>
+        <v>1364272.5600000015</v>
       </c>
       <c r="G14" s="3">
-        <v>1224427.8699999987</v>
+        <v>1224427.8699999994</v>
       </c>
       <c r="H14" s="3">
-        <v>1333901.1100000003</v>
+        <v>1333901.1100000006</v>
       </c>
       <c r="I14" s="3">
-        <v>992715.61000000045</v>
+        <v>992715.61000000057</v>
       </c>
       <c r="J14" s="3">
-        <v>1589238.5400000003</v>
+        <v>1589238.54</v>
       </c>
       <c r="K14" s="3">
         <v>947577.93000000087</v>
@@ -2199,17 +2201,19 @@
         <v>407078.84000000026</v>
       </c>
       <c r="M14" s="3">
-        <v>691413.79000000027</v>
+        <v>691413.7900000005</v>
       </c>
       <c r="N14" s="3">
-        <v>72856.500000000073</v>
-      </c>
-      <c r="O14" s="3"/>
+        <v>72856.500000000087</v>
+      </c>
+      <c r="O14" s="3">
+        <v>-63832.219999999958</v>
+      </c>
       <c r="P14" s="3">
-        <v>9583592.2100000009</v>
+        <v>9519759.9900000039</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2220,19 +2224,19 @@
         <v>6423.25</v>
       </c>
       <c r="D15" s="3">
-        <v>141472.17000000004</v>
+        <v>141472.17000000001</v>
       </c>
       <c r="E15" s="3">
-        <v>15064632.509999968</v>
+        <v>15064632.509999983</v>
       </c>
       <c r="F15" s="3">
-        <v>16496672.990000004</v>
+        <v>16496672.990000013</v>
       </c>
       <c r="G15" s="3">
-        <v>19516569.219999991</v>
+        <v>19516569.219999999</v>
       </c>
       <c r="H15" s="3">
-        <v>15670626.569999998</v>
+        <v>15670626.569999997</v>
       </c>
       <c r="I15" s="3">
         <v>18746541.359999999</v>
@@ -2250,13 +2254,13 @@
         <v>10045788.580000002</v>
       </c>
       <c r="N15" s="3">
-        <v>3542685.15</v>
+        <v>3542685.1500000004</v>
       </c>
       <c r="O15" s="3">
-        <v>-675047.01999999816</v>
+        <v>-1759727.1299999978</v>
       </c>
       <c r="P15" s="3">
-        <v>141488107.53999996</v>
+        <v>140403427.43000007</v>
       </c>
     </row>
   </sheetData>

--- a/src/OLAP/DataSources/UTB_UFSA.Profit.xlsx
+++ b/src/OLAP/DataSources/UTB_UFSA.Profit.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\OLAP\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55395553-086D-4EF7-9240-6DB0C5E93400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE95B29F-359B-4BB0-8E86-CAC113F17D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UTB_UFSA OLAP" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="169" r:id="rId2"/>
+    <pivotCache cacheId="10" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Доход</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -692,12 +695,12 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="45334.428560763889" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF1C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="45366.344047222221" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF1C000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Доход]" caption="Доход" numFmtId="0" hierarchy="120" level="32767"/>
     <cacheField name="[Дата].[Год].[Год]" caption="Год" numFmtId="0" hierarchy="16" level="1">
-      <sharedItems count="14">
+      <sharedItems count="15">
         <s v="[Дата].[Год].&amp;[2010]" c="2010"/>
         <s v="[Дата].[Год].&amp;[2011]" c="2011"/>
         <s v="[Дата].[Год].&amp;[2012]" c="2012"/>
@@ -712,6 +715,7 @@
         <s v="[Дата].[Год].&amp;[2021]" c="2021"/>
         <s v="[Дата].[Год].&amp;[2022]" c="2022"/>
         <s v="[Дата].[Год].&amp;[2023]" c="2023"/>
+        <s v="[Дата].[Год].&amp;[2024]" c="2024"/>
       </sharedItems>
     </cacheField>
     <cacheField name="[Дата].[Месяц].[Месяц]" caption="Месяц" numFmtId="0" hierarchy="20" level="1">
@@ -943,12 +947,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="169" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:P15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:Q15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="14">
+      <items count="15">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -963,6 +967,7 @@
         <item x="11"/>
         <item x="12"/>
         <item x="13"/>
+        <item x="14"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -1029,7 +1034,7 @@
   <colFields count="1">
     <field x="1"/>
   </colFields>
-  <colItems count="15">
+  <colItems count="16">
     <i>
       <x/>
     </i>
@@ -1071,6 +1076,9 @@
     </i>
     <i>
       <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
     </i>
     <i t="grand">
       <x/>
@@ -1528,74 +1536,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="34" max="40" width="13.06640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="43" max="49" width="13.06640625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="52" max="58" width="13.06640625" bestFit="1" customWidth="1"/>
-    <col min="59" max="60" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="61" max="67" width="13.06640625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="70" max="76" width="13.06640625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="15.265625" bestFit="1" customWidth="1"/>
-    <col min="79" max="85" width="13.06640625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="89" max="95" width="13.06640625" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="14.73046875" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="99" max="105" width="13.06640625" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="109" max="111" width="13.06640625" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="13.06640625" bestFit="1" customWidth="1"/>
-    <col min="114" max="115" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="15.06640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="40" width="13" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="49" width="13" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="52" max="58" width="13" bestFit="1" customWidth="1"/>
+    <col min="59" max="60" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="61" max="67" width="13" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="70" max="76" width="13" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="79" max="85" width="13" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="89" max="95" width="13" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="99" max="105" width="13" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="109" max="111" width="13" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="13" bestFit="1" customWidth="1"/>
+    <col min="114" max="115" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1603,7 +1612,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1650,10 +1659,13 @@
         <v>29</v>
       </c>
       <c r="P2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1663,25 +1675,25 @@
         <v>1583.26</v>
       </c>
       <c r="E3" s="3">
-        <v>1182260.329999994</v>
+        <v>1182260.3299999963</v>
       </c>
       <c r="F3" s="3">
-        <v>808904.53000000014</v>
+        <v>808904.52999999921</v>
       </c>
       <c r="G3" s="3">
-        <v>1216548.9099999992</v>
+        <v>1216548.9100000011</v>
       </c>
       <c r="H3" s="3">
-        <v>1042838.3000000003</v>
+        <v>1042838.2999999993</v>
       </c>
       <c r="I3" s="3">
-        <v>1082934.0899999989</v>
+        <v>1082934.0899999994</v>
       </c>
       <c r="J3" s="3">
-        <v>1445081.3299999989</v>
+        <v>1445081.3299999987</v>
       </c>
       <c r="K3" s="3">
-        <v>1572214.2099999995</v>
+        <v>1572214.2099999993</v>
       </c>
       <c r="L3" s="3">
         <v>1138305.2200000002</v>
@@ -1696,10 +1708,13 @@
         <v>-499327.549999999</v>
       </c>
       <c r="P3" s="3">
-        <v>9928889.1199999917</v>
+        <v>-1198961.0699999991</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>8729928.0499999952</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1709,56 +1724,59 @@
         <v>2877.62</v>
       </c>
       <c r="E4" s="3">
-        <v>1254921.6799999969</v>
+        <v>1254921.6799999974</v>
       </c>
       <c r="F4" s="3">
-        <v>952718.16999999981</v>
+        <v>952718.16999999969</v>
       </c>
       <c r="G4" s="3">
-        <v>1833124.8300000029</v>
+        <v>1833124.8299999996</v>
       </c>
       <c r="H4" s="3">
         <v>1298489.860000002</v>
       </c>
       <c r="I4" s="3">
-        <v>1166777.1699999992</v>
+        <v>1166777.1699999995</v>
       </c>
       <c r="J4" s="3">
-        <v>1451125.37</v>
+        <v>1451125.3699999999</v>
       </c>
       <c r="K4" s="3">
-        <v>1517697.1100000003</v>
+        <v>1517697.3900000001</v>
       </c>
       <c r="L4" s="3">
-        <v>1394357.219999999</v>
+        <v>1394357.2199999988</v>
       </c>
       <c r="M4" s="3">
         <v>574715.57000000018</v>
       </c>
       <c r="N4" s="3">
-        <v>740980.56000000017</v>
+        <v>740980.56</v>
       </c>
       <c r="O4" s="3">
         <v>-786577.39999999991</v>
       </c>
       <c r="P4" s="3">
-        <v>11401207.76</v>
+        <v>-325416.37000000046</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>11075791.669999996</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3">
-        <v>8283.61</v>
+        <v>8283.6099999999988</v>
       </c>
       <c r="E5" s="3">
-        <v>1387802.8599999996</v>
+        <v>1387802.8599999987</v>
       </c>
       <c r="F5" s="3">
-        <v>1235344.0299999993</v>
+        <v>1235344.0300000014</v>
       </c>
       <c r="G5" s="3">
         <v>2357260.879999999</v>
@@ -1776,22 +1794,25 @@
         <v>1764376.8100000019</v>
       </c>
       <c r="L5" s="3">
-        <v>673017.88000000082</v>
+        <v>673017.8800000007</v>
       </c>
       <c r="M5" s="3">
         <v>388716.07000000012</v>
       </c>
       <c r="N5" s="3">
-        <v>52034.810000000056</v>
+        <v>52034.810000000027</v>
       </c>
       <c r="O5" s="3">
-        <v>16620.019999999669</v>
+        <v>16620.019999999688</v>
       </c>
       <c r="P5" s="3">
-        <v>12587594.819999995</v>
+        <v>158751.65999999997</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>12746346.479999997</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1805,19 +1826,19 @@
         <v>7057.1399999999994</v>
       </c>
       <c r="E6" s="3">
-        <v>1463393.4499999967</v>
+        <v>1463393.4500000002</v>
       </c>
       <c r="F6" s="3">
-        <v>1608671.3300000019</v>
+        <v>1608671.3299999994</v>
       </c>
       <c r="G6" s="3">
-        <v>2468918.9099999988</v>
+        <v>2468918.9099999992</v>
       </c>
       <c r="H6" s="3">
-        <v>1397073.089999998</v>
+        <v>1397073.0899999982</v>
       </c>
       <c r="I6" s="3">
-        <v>1447668.3700000015</v>
+        <v>1447668.370000002</v>
       </c>
       <c r="J6" s="3">
         <v>1708027.34</v>
@@ -1832,16 +1853,17 @@
         <v>663844.3000000004</v>
       </c>
       <c r="N6" s="3">
-        <v>143195.47000000009</v>
+        <v>143195.47000000006</v>
       </c>
       <c r="O6" s="3">
-        <v>4705.4200000002165</v>
-      </c>
-      <c r="P6" s="3">
-        <v>12547090.149999999</v>
+        <v>4705.4200000002229</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3">
+        <v>12547090.150000002</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1851,16 +1873,16 @@
         <v>6894.9600000000009</v>
       </c>
       <c r="E7" s="3">
-        <v>1144927.7799999984</v>
+        <v>1144927.7800000012</v>
       </c>
       <c r="F7" s="3">
-        <v>1504290.4200000025</v>
+        <v>1504290.4200000013</v>
       </c>
       <c r="G7" s="3">
-        <v>1538289.4999999965</v>
+        <v>1538289.4999999963</v>
       </c>
       <c r="H7" s="3">
-        <v>1381284.1400000008</v>
+        <v>1381284.1399999997</v>
       </c>
       <c r="I7" s="3">
         <v>1701134.8499999989</v>
@@ -1878,16 +1900,17 @@
         <v>611517.30999999854</v>
       </c>
       <c r="N7" s="3">
-        <v>214972.64</v>
+        <v>214972.63999999998</v>
       </c>
       <c r="O7" s="3">
-        <v>94387.650000000198</v>
-      </c>
-      <c r="P7" s="3">
-        <v>11677349.329999998</v>
+        <v>94387.65000000014</v>
+      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3">
+        <v>11677349.329999996</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -1897,10 +1920,10 @@
         <v>2138.9700000000003</v>
       </c>
       <c r="E8" s="3">
-        <v>1184562.3200000024</v>
+        <v>1184562.3199999991</v>
       </c>
       <c r="F8" s="3">
-        <v>1831448.7400000049</v>
+        <v>1831448.7400000042</v>
       </c>
       <c r="G8" s="3">
         <v>1530341.0100000016</v>
@@ -1909,7 +1932,7 @@
         <v>1361791.9399999969</v>
       </c>
       <c r="I8" s="3">
-        <v>1805774.6000000031</v>
+        <v>1805774.6000000022</v>
       </c>
       <c r="J8" s="3">
         <v>1814590.7199999997</v>
@@ -1918,7 +1941,7 @@
         <v>1472068.6900000039</v>
       </c>
       <c r="L8" s="3">
-        <v>74087.340000000011</v>
+        <v>74087.340000000026</v>
       </c>
       <c r="M8" s="3">
         <v>982963.33000000077</v>
@@ -1929,11 +1952,12 @@
       <c r="O8" s="3">
         <v>-446198.75999999943</v>
       </c>
-      <c r="P8" s="3">
-        <v>11883962.450000014</v>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3">
+        <v>11883962.450000009</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1943,43 +1967,44 @@
         <v>11924.080000000004</v>
       </c>
       <c r="E9" s="3">
-        <v>1380616.3900000013</v>
+        <v>1380616.3900000029</v>
       </c>
       <c r="F9" s="3">
-        <v>1530162.2599999993</v>
+        <v>1530162.2599999984</v>
       </c>
       <c r="G9" s="3">
-        <v>1534772.7800000019</v>
+        <v>1534772.7800000017</v>
       </c>
       <c r="H9" s="3">
-        <v>1412050.1100000029</v>
+        <v>1412050.1100000027</v>
       </c>
       <c r="I9" s="3">
-        <v>1801156.9799999986</v>
+        <v>1801156.9799999988</v>
       </c>
       <c r="J9" s="3">
-        <v>1728532.8499999989</v>
+        <v>1728532.8499999992</v>
       </c>
       <c r="K9" s="3">
-        <v>1574641.5199999977</v>
+        <v>1574641.5199999979</v>
       </c>
       <c r="L9" s="3">
-        <v>314639.26999999973</v>
+        <v>314639.2699999999</v>
       </c>
       <c r="M9" s="3">
         <v>854557.10000000068</v>
       </c>
       <c r="N9" s="3">
-        <v>423840.20999999996</v>
+        <v>423840.21</v>
       </c>
       <c r="O9" s="3">
         <v>723517.87000000011</v>
       </c>
-      <c r="P9" s="3">
-        <v>13290411.42</v>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3">
+        <v>13290411.420000002</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -1989,22 +2014,22 @@
         <v>6837.5800000000017</v>
       </c>
       <c r="E10" s="3">
-        <v>1435011.8799999994</v>
+        <v>1435011.8799999983</v>
       </c>
       <c r="F10" s="3">
-        <v>1325711.2399999986</v>
+        <v>1325711.2399999995</v>
       </c>
       <c r="G10" s="3">
-        <v>1449278.139999999</v>
+        <v>1449278.1399999987</v>
       </c>
       <c r="H10" s="3">
-        <v>1210629.7499999998</v>
+        <v>1210629.7499999995</v>
       </c>
       <c r="I10" s="3">
         <v>2152343.9000000018</v>
       </c>
       <c r="J10" s="3">
-        <v>1890820.0800000003</v>
+        <v>1890820.0800000005</v>
       </c>
       <c r="K10" s="3">
         <v>1554264.26</v>
@@ -2016,16 +2041,17 @@
         <v>1310553.820000001</v>
       </c>
       <c r="N10" s="3">
-        <v>345334.2300000001</v>
+        <v>345334.23000000004</v>
       </c>
       <c r="O10" s="3">
         <v>-505368.82999999996</v>
       </c>
-      <c r="P10" s="3">
-        <v>12492035.6</v>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3">
+        <v>12492035.600000001</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -2035,10 +2061,10 @@
         <v>5242.5199999999995</v>
       </c>
       <c r="E11" s="3">
-        <v>1300718.0199999986</v>
+        <v>1300718.0199999944</v>
       </c>
       <c r="F11" s="3">
-        <v>1677367.4900000005</v>
+        <v>1677367.4900000012</v>
       </c>
       <c r="G11" s="3">
         <v>1577365.9499999965</v>
@@ -2047,7 +2073,7 @@
         <v>1215468.3999999997</v>
       </c>
       <c r="I11" s="3">
-        <v>1626600.9099999955</v>
+        <v>1626600.909999996</v>
       </c>
       <c r="J11" s="3">
         <v>1599634.8099999984</v>
@@ -2067,11 +2093,12 @@
       <c r="O11" s="3">
         <v>57353.080000000016</v>
       </c>
-      <c r="P11" s="3">
-        <v>12397203.209999986</v>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3">
+        <v>12397203.209999982</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -2083,22 +2110,22 @@
         <v>12537.169999999996</v>
       </c>
       <c r="E12" s="3">
-        <v>1270938.6699999964</v>
+        <v>1270938.6699999978</v>
       </c>
       <c r="F12" s="3">
-        <v>1350522.920000003</v>
+        <v>1350522.9200000023</v>
       </c>
       <c r="G12" s="3">
         <v>1397403.7200000014</v>
       </c>
       <c r="H12" s="3">
-        <v>1228070.3599999996</v>
+        <v>1228070.3599999994</v>
       </c>
       <c r="I12" s="3">
-        <v>1822764.929999999</v>
+        <v>1822764.9299999997</v>
       </c>
       <c r="J12" s="3">
-        <v>1838977.0899999994</v>
+        <v>1838977.0899999996</v>
       </c>
       <c r="K12" s="3">
         <v>1430627.0099999984</v>
@@ -2107,19 +2134,20 @@
         <v>325144.67000000022</v>
       </c>
       <c r="M12" s="3">
-        <v>1317573.9000000004</v>
+        <v>1317573.9000000006</v>
       </c>
       <c r="N12" s="3">
         <v>409270.78000000014</v>
       </c>
       <c r="O12" s="3">
-        <v>292185.30000000016</v>
-      </c>
-      <c r="P12" s="3">
-        <v>12698097.059999997</v>
+        <v>-469825.70000000019</v>
+      </c>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3">
+        <v>11936086.059999997</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -2128,22 +2156,22 @@
         <v>165.96000000000004</v>
       </c>
       <c r="D13" s="3">
-        <v>26665.450000000008</v>
+        <v>26665.450000000004</v>
       </c>
       <c r="E13" s="3">
-        <v>1148799.4799999984</v>
+        <v>1148799.4799999972</v>
       </c>
       <c r="F13" s="3">
-        <v>1307259.3000000007</v>
+        <v>1307259.3</v>
       </c>
       <c r="G13" s="3">
-        <v>1388836.7200000009</v>
+        <v>1388836.7200000004</v>
       </c>
       <c r="H13" s="3">
-        <v>1122793.1099999996</v>
+        <v>1122793.1099999999</v>
       </c>
       <c r="I13" s="3">
-        <v>1729851.0400000005</v>
+        <v>1729851.0400000003</v>
       </c>
       <c r="J13" s="3">
         <v>1448316.35</v>
@@ -2152,47 +2180,48 @@
         <v>1146024.1500000006</v>
       </c>
       <c r="L13" s="3">
-        <v>390104.56999999989</v>
+        <v>390104.56999999983</v>
       </c>
       <c r="M13" s="3">
-        <v>1147425.7600000009</v>
+        <v>1147425.7600000007</v>
       </c>
       <c r="N13" s="3">
         <v>-229223.66000000003</v>
       </c>
       <c r="O13" s="3">
-        <v>-647191.70999999973</v>
-      </c>
-      <c r="P13" s="3">
-        <v>9979826.5200000014</v>
+        <v>-1141128.9799999997</v>
+      </c>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3">
+        <v>9485889.25</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3">
-        <v>49429.810000000019</v>
+        <v>49429.810000000027</v>
       </c>
       <c r="E14" s="3">
-        <v>910679.65000000072</v>
+        <v>910679.64999999874</v>
       </c>
       <c r="F14" s="3">
-        <v>1364272.5600000015</v>
+        <v>1364272.5600000003</v>
       </c>
       <c r="G14" s="3">
-        <v>1224427.8699999994</v>
+        <v>1224427.8699999999</v>
       </c>
       <c r="H14" s="3">
         <v>1333901.1100000006</v>
       </c>
       <c r="I14" s="3">
-        <v>992715.61000000057</v>
+        <v>992715.61000000045</v>
       </c>
       <c r="J14" s="3">
-        <v>1589238.54</v>
+        <v>1589238.5400000003</v>
       </c>
       <c r="K14" s="3">
         <v>947577.93000000087</v>
@@ -2204,16 +2233,17 @@
         <v>691413.7900000005</v>
       </c>
       <c r="N14" s="3">
-        <v>72856.500000000087</v>
+        <v>72856.500000000073</v>
       </c>
       <c r="O14" s="3">
-        <v>-63832.219999999958</v>
-      </c>
-      <c r="P14" s="3">
-        <v>9519759.9900000039</v>
+        <v>-319399.64</v>
+      </c>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3">
+        <v>9264192.5700000022</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2224,43 +2254,46 @@
         <v>6423.25</v>
       </c>
       <c r="D15" s="3">
-        <v>141472.17000000001</v>
+        <v>141472.17000000004</v>
       </c>
       <c r="E15" s="3">
         <v>15064632.509999983</v>
       </c>
       <c r="F15" s="3">
-        <v>16496672.990000013</v>
+        <v>16496672.990000008</v>
       </c>
       <c r="G15" s="3">
         <v>19516569.219999999</v>
       </c>
       <c r="H15" s="3">
-        <v>15670626.569999997</v>
+        <v>15670626.569999993</v>
       </c>
       <c r="I15" s="3">
-        <v>18746541.359999999</v>
+        <v>18746541.359999996</v>
       </c>
       <c r="J15" s="3">
-        <v>19881431.469999995</v>
+        <v>19881431.469999991</v>
       </c>
       <c r="K15" s="3">
-        <v>17475176.950000003</v>
+        <v>17475177.230000004</v>
       </c>
       <c r="L15" s="3">
-        <v>5574834.3400000008</v>
+        <v>5574834.3399999999</v>
       </c>
       <c r="M15" s="3">
         <v>10045788.580000002</v>
       </c>
       <c r="N15" s="3">
-        <v>3542685.1500000004</v>
+        <v>3542685.15</v>
       </c>
       <c r="O15" s="3">
-        <v>-1759727.1299999978</v>
+        <v>-3271242.819999998</v>
       </c>
       <c r="P15" s="3">
-        <v>140403427.43000007</v>
+        <v>-1365625.7799999996</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>137526286.24000001</v>
       </c>
     </row>
   </sheetData>

--- a/src/OLAP/DataSources/UTB_UFSA.Profit.xlsx
+++ b/src/OLAP/DataSources/UTB_UFSA.Profit.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\OLAP\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE95B29F-359B-4BB0-8E86-CAC113F17D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB671A8-FDE9-4056-91C5-5E920021C6D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UTB_UFSA OLAP" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId2"/>
+    <pivotCache cacheId="6" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -695,7 +695,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="45366.344047222221" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF1C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="45464.486370949075" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF1C000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Доход]" caption="Доход" numFmtId="0" hierarchy="120" level="32767"/>
@@ -947,7 +947,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:Q15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -1542,69 +1542,68 @@
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17" bestFit="1" customWidth="1"/>
     <col min="34" max="40" width="13" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.59765625" bestFit="1" customWidth="1"/>
     <col min="43" max="49" width="13" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.59765625" bestFit="1" customWidth="1"/>
     <col min="52" max="58" width="13" bestFit="1" customWidth="1"/>
-    <col min="59" max="60" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="59" max="60" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="61" max="67" width="13" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.265625" bestFit="1" customWidth="1"/>
     <col min="70" max="76" width="13" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="15.265625" bestFit="1" customWidth="1"/>
     <col min="79" max="85" width="13" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="89" max="95" width="13" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="99" max="105" width="13" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="109" max="111" width="13" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="113" max="113" width="13" bestFit="1" customWidth="1"/>
-    <col min="114" max="115" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="114" max="115" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="116" max="116" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1612,7 +1611,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1665,7 +1664,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1675,25 +1674,25 @@
         <v>1583.26</v>
       </c>
       <c r="E3" s="3">
-        <v>1182260.3299999963</v>
+        <v>1182260.329999997</v>
       </c>
       <c r="F3" s="3">
-        <v>808904.52999999921</v>
+        <v>808904.5299999991</v>
       </c>
       <c r="G3" s="3">
-        <v>1216548.9100000011</v>
+        <v>1216548.9099999995</v>
       </c>
       <c r="H3" s="3">
-        <v>1042838.2999999993</v>
+        <v>1042838.3000000003</v>
       </c>
       <c r="I3" s="3">
-        <v>1082934.0899999994</v>
+        <v>1082934.0899999992</v>
       </c>
       <c r="J3" s="3">
-        <v>1445081.3299999987</v>
+        <v>1445081.3299999989</v>
       </c>
       <c r="K3" s="3">
-        <v>1572214.2099999993</v>
+        <v>1572214.2099999995</v>
       </c>
       <c r="L3" s="3">
         <v>1138305.2200000002</v>
@@ -1708,13 +1707,13 @@
         <v>-499327.549999999</v>
       </c>
       <c r="P3" s="3">
-        <v>-1198961.0699999991</v>
+        <v>-1372903.649999999</v>
       </c>
       <c r="Q3" s="3">
-        <v>8729928.0499999952</v>
+        <v>8555985.4699999951</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1724,46 +1723,46 @@
         <v>2877.62</v>
       </c>
       <c r="E4" s="3">
-        <v>1254921.6799999974</v>
+        <v>1254921.6799999955</v>
       </c>
       <c r="F4" s="3">
-        <v>952718.16999999969</v>
+        <v>952718.17000000039</v>
       </c>
       <c r="G4" s="3">
-        <v>1833124.8299999996</v>
+        <v>1833124.8300000029</v>
       </c>
       <c r="H4" s="3">
         <v>1298489.860000002</v>
       </c>
       <c r="I4" s="3">
-        <v>1166777.1699999995</v>
+        <v>1166777.169999999</v>
       </c>
       <c r="J4" s="3">
-        <v>1451125.3699999999</v>
+        <v>1451125.37</v>
       </c>
       <c r="K4" s="3">
         <v>1517697.3900000001</v>
       </c>
       <c r="L4" s="3">
-        <v>1394357.2199999988</v>
+        <v>1394357.2199999995</v>
       </c>
       <c r="M4" s="3">
         <v>574715.57000000018</v>
       </c>
       <c r="N4" s="3">
-        <v>740980.56</v>
+        <v>740980.55999999959</v>
       </c>
       <c r="O4" s="3">
         <v>-786577.39999999991</v>
       </c>
       <c r="P4" s="3">
-        <v>-325416.37000000046</v>
+        <v>-628795.17000000039</v>
       </c>
       <c r="Q4" s="3">
-        <v>11075791.669999996</v>
+        <v>10772412.869999999</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1773,7 +1772,7 @@
         <v>8283.6099999999988</v>
       </c>
       <c r="E5" s="3">
-        <v>1387802.8599999987</v>
+        <v>1387802.8599999971</v>
       </c>
       <c r="F5" s="3">
         <v>1235344.0300000014</v>
@@ -1782,16 +1781,16 @@
         <v>2357260.879999999</v>
       </c>
       <c r="H5" s="3">
-        <v>1666236.3999999957</v>
+        <v>1666236.3999999953</v>
       </c>
       <c r="I5" s="3">
-        <v>1416818.91</v>
+        <v>1416818.9100000001</v>
       </c>
       <c r="J5" s="3">
         <v>1621082.5399999998</v>
       </c>
       <c r="K5" s="3">
-        <v>1764376.8100000019</v>
+        <v>1764376.8100000022</v>
       </c>
       <c r="L5" s="3">
         <v>673017.8800000007</v>
@@ -1800,19 +1799,19 @@
         <v>388716.07000000012</v>
       </c>
       <c r="N5" s="3">
-        <v>52034.810000000027</v>
+        <v>52034.810000000034</v>
       </c>
       <c r="O5" s="3">
-        <v>16620.019999999688</v>
+        <v>16620.019999999684</v>
       </c>
       <c r="P5" s="3">
-        <v>158751.65999999997</v>
+        <v>-367228.54999999993</v>
       </c>
       <c r="Q5" s="3">
-        <v>12746346.479999997</v>
+        <v>12220366.269999994</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1826,28 +1825,28 @@
         <v>7057.1399999999994</v>
       </c>
       <c r="E6" s="3">
-        <v>1463393.4500000002</v>
+        <v>1463393.4499999965</v>
       </c>
       <c r="F6" s="3">
-        <v>1608671.3299999994</v>
+        <v>1608671.3300000012</v>
       </c>
       <c r="G6" s="3">
         <v>2468918.9099999992</v>
       </c>
       <c r="H6" s="3">
-        <v>1397073.0899999982</v>
+        <v>1397073.089999998</v>
       </c>
       <c r="I6" s="3">
-        <v>1447668.370000002</v>
+        <v>1447668.3700000015</v>
       </c>
       <c r="J6" s="3">
-        <v>1708027.34</v>
+        <v>1708027.3399999999</v>
       </c>
       <c r="K6" s="3">
         <v>1417309.6800000004</v>
       </c>
       <c r="L6" s="3">
-        <v>212748.90000000008</v>
+        <v>212748.90000000005</v>
       </c>
       <c r="M6" s="3">
         <v>663844.3000000004</v>
@@ -1856,14 +1855,16 @@
         <v>143195.47000000006</v>
       </c>
       <c r="O6" s="3">
-        <v>4705.4200000002229</v>
-      </c>
-      <c r="P6" s="3"/>
+        <v>4705.4200000002165</v>
+      </c>
+      <c r="P6" s="3">
+        <v>-159133.66000000015</v>
+      </c>
       <c r="Q6" s="3">
-        <v>12547090.150000002</v>
+        <v>12387956.489999998</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1873,28 +1874,28 @@
         <v>6894.9600000000009</v>
       </c>
       <c r="E7" s="3">
-        <v>1144927.7800000012</v>
+        <v>1144927.7799999996</v>
       </c>
       <c r="F7" s="3">
-        <v>1504290.4200000013</v>
+        <v>1504290.4200000023</v>
       </c>
       <c r="G7" s="3">
-        <v>1538289.4999999963</v>
+        <v>1538289.4999999965</v>
       </c>
       <c r="H7" s="3">
-        <v>1381284.1399999997</v>
+        <v>1381284.1400000006</v>
       </c>
       <c r="I7" s="3">
-        <v>1701134.8499999989</v>
+        <v>1701134.849999998</v>
       </c>
       <c r="J7" s="3">
         <v>1746004.4499999988</v>
       </c>
       <c r="K7" s="3">
-        <v>1680489.4900000012</v>
+        <v>1680489.4900000014</v>
       </c>
       <c r="L7" s="3">
-        <v>53156.139999999992</v>
+        <v>53156.14</v>
       </c>
       <c r="M7" s="3">
         <v>611517.30999999854</v>
@@ -1905,22 +1906,24 @@
       <c r="O7" s="3">
         <v>94387.65000000014</v>
       </c>
-      <c r="P7" s="3"/>
+      <c r="P7" s="3">
+        <v>29602.53</v>
+      </c>
       <c r="Q7" s="3">
-        <v>11677349.329999996</v>
+        <v>11706951.859999996</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3">
-        <v>2138.9700000000003</v>
+        <v>2138.9699999999998</v>
       </c>
       <c r="E8" s="3">
-        <v>1184562.3199999991</v>
+        <v>1184562.3199999975</v>
       </c>
       <c r="F8" s="3">
         <v>1831448.7400000042</v>
@@ -1929,16 +1932,16 @@
         <v>1530341.0100000016</v>
       </c>
       <c r="H8" s="3">
-        <v>1361791.9399999969</v>
+        <v>1361791.9399999972</v>
       </c>
       <c r="I8" s="3">
-        <v>1805774.6000000022</v>
+        <v>1805774.6000000029</v>
       </c>
       <c r="J8" s="3">
-        <v>1814590.7199999997</v>
+        <v>1814590.7200000002</v>
       </c>
       <c r="K8" s="3">
-        <v>1472068.6900000039</v>
+        <v>1472068.6900000037</v>
       </c>
       <c r="L8" s="3">
         <v>74087.340000000026</v>
@@ -1952,12 +1955,14 @@
       <c r="O8" s="3">
         <v>-446198.75999999943</v>
       </c>
-      <c r="P8" s="3"/>
+      <c r="P8" s="3">
+        <v>391600.64000000001</v>
+      </c>
       <c r="Q8" s="3">
-        <v>11883962.450000009</v>
+        <v>12275563.090000009</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1967,63 +1972,63 @@
         <v>11924.080000000004</v>
       </c>
       <c r="E9" s="3">
-        <v>1380616.3900000029</v>
+        <v>1380616.3900000046</v>
       </c>
       <c r="F9" s="3">
-        <v>1530162.2599999984</v>
+        <v>1530162.26</v>
       </c>
       <c r="G9" s="3">
-        <v>1534772.7800000017</v>
+        <v>1534772.7800000021</v>
       </c>
       <c r="H9" s="3">
-        <v>1412050.1100000027</v>
+        <v>1412050.1100000013</v>
       </c>
       <c r="I9" s="3">
         <v>1801156.9799999988</v>
       </c>
       <c r="J9" s="3">
-        <v>1728532.8499999992</v>
+        <v>1728532.8499999985</v>
       </c>
       <c r="K9" s="3">
-        <v>1574641.5199999979</v>
+        <v>1574641.5199999977</v>
       </c>
       <c r="L9" s="3">
-        <v>314639.2699999999</v>
+        <v>314639.27</v>
       </c>
       <c r="M9" s="3">
         <v>854557.10000000068</v>
       </c>
       <c r="N9" s="3">
-        <v>423840.21</v>
+        <v>423840.20999999996</v>
       </c>
       <c r="O9" s="3">
         <v>723517.87000000011</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3">
-        <v>13290411.420000002</v>
+        <v>13290411.420000004</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
-        <v>6837.5800000000017</v>
+        <v>6837.5800000000008</v>
       </c>
       <c r="E10" s="3">
-        <v>1435011.8799999983</v>
+        <v>1435011.8799999992</v>
       </c>
       <c r="F10" s="3">
-        <v>1325711.2399999995</v>
+        <v>1325711.2399999993</v>
       </c>
       <c r="G10" s="3">
-        <v>1449278.1399999987</v>
+        <v>1449278.139999999</v>
       </c>
       <c r="H10" s="3">
-        <v>1210629.7499999995</v>
+        <v>1210629.7500000005</v>
       </c>
       <c r="I10" s="3">
         <v>2152343.9000000018</v>
@@ -2035,13 +2040,13 @@
         <v>1554264.26</v>
       </c>
       <c r="L10" s="3">
-        <v>316619.55</v>
+        <v>316619.54999999987</v>
       </c>
       <c r="M10" s="3">
         <v>1310553.820000001</v>
       </c>
       <c r="N10" s="3">
-        <v>345334.23000000004</v>
+        <v>345334.2300000001</v>
       </c>
       <c r="O10" s="3">
         <v>-505368.82999999996</v>
@@ -2051,26 +2056,26 @@
         <v>12492035.600000001</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3">
-        <v>5242.5199999999995</v>
+        <v>5242.5200000000004</v>
       </c>
       <c r="E11" s="3">
-        <v>1300718.0199999944</v>
+        <v>1300718.019999997</v>
       </c>
       <c r="F11" s="3">
-        <v>1677367.4900000012</v>
+        <v>1677367.49</v>
       </c>
       <c r="G11" s="3">
         <v>1577365.9499999965</v>
       </c>
       <c r="H11" s="3">
-        <v>1215468.3999999997</v>
+        <v>1215468.3999999999</v>
       </c>
       <c r="I11" s="3">
         <v>1626600.909999996</v>
@@ -2079,26 +2084,26 @@
         <v>1599634.8099999984</v>
       </c>
       <c r="K11" s="3">
-        <v>1397886.0899999973</v>
+        <v>1397886.0899999975</v>
       </c>
       <c r="L11" s="3">
         <v>275574.74000000005</v>
       </c>
       <c r="M11" s="3">
-        <v>1210558.3799999985</v>
+        <v>1210558.3799999994</v>
       </c>
       <c r="N11" s="3">
-        <v>453432.81999999989</v>
+        <v>453432.81999999995</v>
       </c>
       <c r="O11" s="3">
         <v>57353.080000000016</v>
       </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3">
-        <v>12397203.209999982</v>
+        <v>12397203.209999984</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -2110,22 +2115,22 @@
         <v>12537.169999999996</v>
       </c>
       <c r="E12" s="3">
-        <v>1270938.6699999978</v>
+        <v>1270938.6699999974</v>
       </c>
       <c r="F12" s="3">
-        <v>1350522.9200000023</v>
+        <v>1350522.9200000018</v>
       </c>
       <c r="G12" s="3">
-        <v>1397403.7200000014</v>
+        <v>1397403.7200000011</v>
       </c>
       <c r="H12" s="3">
         <v>1228070.3599999994</v>
       </c>
       <c r="I12" s="3">
-        <v>1822764.9299999997</v>
+        <v>1822764.9300000004</v>
       </c>
       <c r="J12" s="3">
-        <v>1838977.0899999996</v>
+        <v>1838977.0899999994</v>
       </c>
       <c r="K12" s="3">
         <v>1430627.0099999984</v>
@@ -2134,7 +2139,7 @@
         <v>325144.67000000022</v>
       </c>
       <c r="M12" s="3">
-        <v>1317573.9000000006</v>
+        <v>1317573.9000000004</v>
       </c>
       <c r="N12" s="3">
         <v>409270.78000000014</v>
@@ -2144,10 +2149,10 @@
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3">
-        <v>11936086.059999997</v>
+        <v>11936086.059999999</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -2159,31 +2164,31 @@
         <v>26665.450000000004</v>
       </c>
       <c r="E13" s="3">
-        <v>1148799.4799999972</v>
+        <v>1148799.4799999965</v>
       </c>
       <c r="F13" s="3">
         <v>1307259.3</v>
       </c>
       <c r="G13" s="3">
-        <v>1388836.7200000004</v>
+        <v>1388836.7200000009</v>
       </c>
       <c r="H13" s="3">
-        <v>1122793.1099999999</v>
+        <v>1122793.1100000001</v>
       </c>
       <c r="I13" s="3">
-        <v>1729851.0400000003</v>
+        <v>1729851.0400000005</v>
       </c>
       <c r="J13" s="3">
-        <v>1448316.35</v>
+        <v>1448316.3499999999</v>
       </c>
       <c r="K13" s="3">
-        <v>1146024.1500000006</v>
+        <v>1146024.1499999999</v>
       </c>
       <c r="L13" s="3">
-        <v>390104.56999999983</v>
+        <v>390104.56999999989</v>
       </c>
       <c r="M13" s="3">
-        <v>1147425.7600000007</v>
+        <v>1147425.7600000005</v>
       </c>
       <c r="N13" s="3">
         <v>-229223.66000000003</v>
@@ -2193,23 +2198,23 @@
       </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="3">
-        <v>9485889.25</v>
+        <v>9485889.2499999981</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3">
-        <v>49429.810000000027</v>
+        <v>49429.810000000019</v>
       </c>
       <c r="E14" s="3">
-        <v>910679.64999999874</v>
+        <v>910679.64999999804</v>
       </c>
       <c r="F14" s="3">
-        <v>1364272.5600000003</v>
+        <v>1364272.5599999996</v>
       </c>
       <c r="G14" s="3">
         <v>1224427.8699999999</v>
@@ -2218,10 +2223,10 @@
         <v>1333901.1100000006</v>
       </c>
       <c r="I14" s="3">
-        <v>992715.61000000045</v>
+        <v>992715.61000000022</v>
       </c>
       <c r="J14" s="3">
-        <v>1589238.5400000003</v>
+        <v>1589238.54</v>
       </c>
       <c r="K14" s="3">
         <v>947577.93000000087</v>
@@ -2230,7 +2235,7 @@
         <v>407078.84000000026</v>
       </c>
       <c r="M14" s="3">
-        <v>691413.7900000005</v>
+        <v>691413.79000000074</v>
       </c>
       <c r="N14" s="3">
         <v>72856.500000000073</v>
@@ -2243,7 +2248,7 @@
         <v>9264192.5700000022</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2254,25 +2259,25 @@
         <v>6423.25</v>
       </c>
       <c r="D15" s="3">
-        <v>141472.17000000004</v>
+        <v>141472.17000000001</v>
       </c>
       <c r="E15" s="3">
-        <v>15064632.509999983</v>
+        <v>15064632.509999976</v>
       </c>
       <c r="F15" s="3">
-        <v>16496672.990000008</v>
+        <v>16496672.99000001</v>
       </c>
       <c r="G15" s="3">
         <v>19516569.219999999</v>
       </c>
       <c r="H15" s="3">
-        <v>15670626.569999993</v>
+        <v>15670626.569999995</v>
       </c>
       <c r="I15" s="3">
-        <v>18746541.359999996</v>
+        <v>18746541.359999999</v>
       </c>
       <c r="J15" s="3">
-        <v>19881431.469999991</v>
+        <v>19881431.469999995</v>
       </c>
       <c r="K15" s="3">
         <v>17475177.230000004</v>
@@ -2281,19 +2286,19 @@
         <v>5574834.3399999999</v>
       </c>
       <c r="M15" s="3">
-        <v>10045788.580000002</v>
+        <v>10045788.580000004</v>
       </c>
       <c r="N15" s="3">
-        <v>3542685.15</v>
+        <v>3542685.1499999994</v>
       </c>
       <c r="O15" s="3">
         <v>-3271242.819999998</v>
       </c>
       <c r="P15" s="3">
-        <v>-1365625.7799999996</v>
+        <v>-2106857.8599999994</v>
       </c>
       <c r="Q15" s="3">
-        <v>137526286.24000001</v>
+        <v>136785054.15999997</v>
       </c>
     </row>
   </sheetData>

--- a/src/OLAP/DataSources/UTB_UFSA.Profit.xlsx
+++ b/src/OLAP/DataSources/UTB_UFSA.Profit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\OLAP\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB671A8-FDE9-4056-91C5-5E920021C6D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07811A9-CF87-4F28-AF7F-A2C8EBB4001C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UTB_UFSA OLAP" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Доход</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>2025</t>
   </si>
 </sst>
 </file>
@@ -695,12 +698,12 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="45464.486370949075" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF1C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="nestor" refreshedDate="45667.813195138886" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF1C000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Доход]" caption="Доход" numFmtId="0" hierarchy="120" level="32767"/>
     <cacheField name="[Дата].[Год].[Год]" caption="Год" numFmtId="0" hierarchy="16" level="1">
-      <sharedItems count="15">
+      <sharedItems count="16">
         <s v="[Дата].[Год].&amp;[2010]" c="2010"/>
         <s v="[Дата].[Год].&amp;[2011]" c="2011"/>
         <s v="[Дата].[Год].&amp;[2012]" c="2012"/>
@@ -716,6 +719,7 @@
         <s v="[Дата].[Год].&amp;[2022]" c="2022"/>
         <s v="[Дата].[Год].&amp;[2023]" c="2023"/>
         <s v="[Дата].[Год].&amp;[2024]" c="2024"/>
+        <s v="[Дата].[Год].&amp;[2025]" c="2025"/>
       </sharedItems>
     </cacheField>
     <cacheField name="[Дата].[Месяц].[Месяц]" caption="Месяц" numFmtId="0" hierarchy="20" level="1">
@@ -948,11 +952,11 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:Q15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A1:R15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="15">
+      <items count="16">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -968,6 +972,7 @@
         <item x="12"/>
         <item x="13"/>
         <item x="14"/>
+        <item x="15"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -1034,7 +1039,7 @@
   <colFields count="1">
     <field x="1"/>
   </colFields>
-  <colItems count="16">
+  <colItems count="17">
     <i>
       <x/>
     </i>
@@ -1079,6 +1084,9 @@
     </i>
     <i>
       <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
     </i>
     <i t="grand">
       <x/>
@@ -1536,74 +1544,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17" bestFit="1" customWidth="1"/>
-    <col min="34" max="40" width="13" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="40" width="13" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="43" max="49" width="13" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="52" max="58" width="13" bestFit="1" customWidth="1"/>
-    <col min="59" max="60" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="59" max="60" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="61" max="67" width="13" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="70" max="76" width="13" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="15.265625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="79" max="85" width="13" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="89" max="95" width="13" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="14.73046875" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="99" max="105" width="13" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="14.265625" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="109" max="111" width="13" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="113" max="113" width="13" bestFit="1" customWidth="1"/>
-    <col min="114" max="115" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="114" max="115" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="116" max="116" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1611,7 +1621,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1661,10 +1671,13 @@
         <v>30</v>
       </c>
       <c r="Q2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1689,13 +1702,13 @@
         <v>1082934.0899999992</v>
       </c>
       <c r="J3" s="3">
-        <v>1445081.3299999989</v>
+        <v>1445081.3299999991</v>
       </c>
       <c r="K3" s="3">
         <v>1572214.2099999995</v>
       </c>
       <c r="L3" s="3">
-        <v>1138305.2200000002</v>
+        <v>1138305.2200000007</v>
       </c>
       <c r="M3" s="3">
         <v>291949.25000000006</v>
@@ -1710,10 +1723,13 @@
         <v>-1372903.649999999</v>
       </c>
       <c r="Q3" s="3">
-        <v>8555985.4699999951</v>
+        <v>96383.749999999985</v>
+      </c>
+      <c r="R3" s="3">
+        <v>8652369.2199999951</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1726,7 +1742,7 @@
         <v>1254921.6799999955</v>
       </c>
       <c r="F4" s="3">
-        <v>952718.17000000039</v>
+        <v>952718.16999999993</v>
       </c>
       <c r="G4" s="3">
         <v>1833124.8300000029</v>
@@ -1735,22 +1751,22 @@
         <v>1298489.860000002</v>
       </c>
       <c r="I4" s="3">
-        <v>1166777.169999999</v>
+        <v>1166777.1699999988</v>
       </c>
       <c r="J4" s="3">
         <v>1451125.37</v>
       </c>
       <c r="K4" s="3">
-        <v>1517697.3900000001</v>
+        <v>1517697.3900000004</v>
       </c>
       <c r="L4" s="3">
-        <v>1394357.2199999995</v>
+        <v>1394357.2199999997</v>
       </c>
       <c r="M4" s="3">
         <v>574715.57000000018</v>
       </c>
       <c r="N4" s="3">
-        <v>740980.55999999959</v>
+        <v>740980.56</v>
       </c>
       <c r="O4" s="3">
         <v>-786577.39999999991</v>
@@ -1758,11 +1774,12 @@
       <c r="P4" s="3">
         <v>-628795.17000000039</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3">
         <v>10772412.869999999</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1772,31 +1789,31 @@
         <v>8283.6099999999988</v>
       </c>
       <c r="E5" s="3">
-        <v>1387802.8599999971</v>
+        <v>1387802.8599999975</v>
       </c>
       <c r="F5" s="3">
-        <v>1235344.0300000014</v>
+        <v>1235344.0300000005</v>
       </c>
       <c r="G5" s="3">
         <v>2357260.879999999</v>
       </c>
       <c r="H5" s="3">
-        <v>1666236.3999999953</v>
+        <v>1666236.3999999957</v>
       </c>
       <c r="I5" s="3">
-        <v>1416818.9100000001</v>
+        <v>1416818.9099999995</v>
       </c>
       <c r="J5" s="3">
-        <v>1621082.5399999998</v>
+        <v>1621082.5400000005</v>
       </c>
       <c r="K5" s="3">
-        <v>1764376.8100000022</v>
+        <v>1764376.8100000017</v>
       </c>
       <c r="L5" s="3">
         <v>673017.8800000007</v>
       </c>
       <c r="M5" s="3">
-        <v>388716.07000000012</v>
+        <v>388716.07000000018</v>
       </c>
       <c r="N5" s="3">
         <v>52034.810000000034</v>
@@ -1807,11 +1824,12 @@
       <c r="P5" s="3">
         <v>-367228.54999999993</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3">
         <v>12220366.269999994</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1825,46 +1843,47 @@
         <v>7057.1399999999994</v>
       </c>
       <c r="E6" s="3">
-        <v>1463393.4499999965</v>
+        <v>1463393.4499999997</v>
       </c>
       <c r="F6" s="3">
-        <v>1608671.3300000012</v>
+        <v>1608671.3300000022</v>
       </c>
       <c r="G6" s="3">
-        <v>2468918.9099999992</v>
+        <v>2468918.9099999988</v>
       </c>
       <c r="H6" s="3">
         <v>1397073.089999998</v>
       </c>
       <c r="I6" s="3">
-        <v>1447668.3700000015</v>
+        <v>1447668.3700000017</v>
       </c>
       <c r="J6" s="3">
-        <v>1708027.3399999999</v>
+        <v>1708027.3399999996</v>
       </c>
       <c r="K6" s="3">
-        <v>1417309.6800000004</v>
+        <v>1417309.68</v>
       </c>
       <c r="L6" s="3">
-        <v>212748.90000000005</v>
+        <v>212748.90000000008</v>
       </c>
       <c r="M6" s="3">
-        <v>663844.3000000004</v>
+        <v>663844.30000000051</v>
       </c>
       <c r="N6" s="3">
         <v>143195.47000000006</v>
       </c>
       <c r="O6" s="3">
-        <v>4705.4200000002165</v>
+        <v>4705.4200000002229</v>
       </c>
       <c r="P6" s="3">
-        <v>-159133.66000000015</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>12387956.489999998</v>
+        <v>-194990.94</v>
+      </c>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3">
+        <v>12352099.210000003</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1874,19 +1893,19 @@
         <v>6894.9600000000009</v>
       </c>
       <c r="E7" s="3">
-        <v>1144927.7799999996</v>
+        <v>1144927.7799999993</v>
       </c>
       <c r="F7" s="3">
-        <v>1504290.4200000023</v>
+        <v>1504290.4200000016</v>
       </c>
       <c r="G7" s="3">
         <v>1538289.4999999965</v>
       </c>
       <c r="H7" s="3">
-        <v>1381284.1400000006</v>
+        <v>1381284.1399999997</v>
       </c>
       <c r="I7" s="3">
-        <v>1701134.849999998</v>
+        <v>1701134.8499999978</v>
       </c>
       <c r="J7" s="3">
         <v>1746004.4499999988</v>
@@ -1898,35 +1917,36 @@
         <v>53156.14</v>
       </c>
       <c r="M7" s="3">
-        <v>611517.30999999854</v>
+        <v>611517.30999999843</v>
       </c>
       <c r="N7" s="3">
         <v>214972.63999999998</v>
       </c>
       <c r="O7" s="3">
-        <v>94387.65000000014</v>
+        <v>94387.650000000169</v>
       </c>
       <c r="P7" s="3">
-        <v>29602.53</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>11706951.859999996</v>
+        <v>-724587.41999999981</v>
+      </c>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3">
+        <v>10952761.909999995</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3">
-        <v>2138.9699999999998</v>
+        <v>2138.9700000000003</v>
       </c>
       <c r="E8" s="3">
-        <v>1184562.3199999975</v>
+        <v>1184562.3199999998</v>
       </c>
       <c r="F8" s="3">
-        <v>1831448.7400000042</v>
+        <v>1831448.7400000026</v>
       </c>
       <c r="G8" s="3">
         <v>1530341.0100000016</v>
@@ -1935,13 +1955,13 @@
         <v>1361791.9399999972</v>
       </c>
       <c r="I8" s="3">
-        <v>1805774.6000000029</v>
+        <v>1805774.6000000024</v>
       </c>
       <c r="J8" s="3">
         <v>1814590.7200000002</v>
       </c>
       <c r="K8" s="3">
-        <v>1472068.6900000037</v>
+        <v>1472068.6900000039</v>
       </c>
       <c r="L8" s="3">
         <v>74087.340000000026</v>
@@ -1956,13 +1976,14 @@
         <v>-446198.75999999943</v>
       </c>
       <c r="P8" s="3">
-        <v>391600.64000000001</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>12275563.090000009</v>
+        <v>-860857.05999999959</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3">
+        <v>11023105.39000001</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1972,25 +1993,25 @@
         <v>11924.080000000004</v>
       </c>
       <c r="E9" s="3">
-        <v>1380616.3900000046</v>
+        <v>1380616.3900000039</v>
       </c>
       <c r="F9" s="3">
-        <v>1530162.26</v>
+        <v>1530162.2599999979</v>
       </c>
       <c r="G9" s="3">
-        <v>1534772.7800000021</v>
+        <v>1534772.7800000019</v>
       </c>
       <c r="H9" s="3">
-        <v>1412050.1100000013</v>
+        <v>1412050.1100000022</v>
       </c>
       <c r="I9" s="3">
-        <v>1801156.9799999988</v>
+        <v>1801156.9799999997</v>
       </c>
       <c r="J9" s="3">
         <v>1728532.8499999985</v>
       </c>
       <c r="K9" s="3">
-        <v>1574641.5199999977</v>
+        <v>1574641.5199999982</v>
       </c>
       <c r="L9" s="3">
         <v>314639.27</v>
@@ -1999,51 +2020,54 @@
         <v>854557.10000000068</v>
       </c>
       <c r="N9" s="3">
-        <v>423840.20999999996</v>
+        <v>423840.21</v>
       </c>
       <c r="O9" s="3">
-        <v>723517.87000000011</v>
-      </c>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3">
-        <v>13290411.420000004</v>
+        <v>723517.87</v>
+      </c>
+      <c r="P9" s="3">
+        <v>156848.19999999995</v>
+      </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3">
+        <v>13447259.620000003</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
-        <v>6837.5800000000008</v>
+        <v>6837.5800000000017</v>
       </c>
       <c r="E10" s="3">
-        <v>1435011.8799999992</v>
+        <v>1435011.8799999978</v>
       </c>
       <c r="F10" s="3">
-        <v>1325711.2399999993</v>
+        <v>1325711.2400000012</v>
       </c>
       <c r="G10" s="3">
         <v>1449278.139999999</v>
       </c>
       <c r="H10" s="3">
-        <v>1210629.7500000005</v>
+        <v>1210629.7500000002</v>
       </c>
       <c r="I10" s="3">
-        <v>2152343.9000000018</v>
+        <v>2152343.9000000022</v>
       </c>
       <c r="J10" s="3">
         <v>1890820.0800000005</v>
       </c>
       <c r="K10" s="3">
-        <v>1554264.26</v>
+        <v>1554264.2600000002</v>
       </c>
       <c r="L10" s="3">
-        <v>316619.54999999987</v>
+        <v>316619.54999999993</v>
       </c>
       <c r="M10" s="3">
-        <v>1310553.820000001</v>
+        <v>1310553.8200000008</v>
       </c>
       <c r="N10" s="3">
         <v>345334.2300000001</v>
@@ -2051,12 +2075,15 @@
       <c r="O10" s="3">
         <v>-505368.82999999996</v>
       </c>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3">
-        <v>12492035.600000001</v>
+      <c r="P10" s="3">
+        <v>177863.36</v>
+      </c>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3">
+        <v>12669898.960000003</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -2066,44 +2093,47 @@
         <v>5242.5200000000004</v>
       </c>
       <c r="E11" s="3">
-        <v>1300718.019999997</v>
+        <v>1300718.0199999949</v>
       </c>
       <c r="F11" s="3">
-        <v>1677367.49</v>
+        <v>1677367.4899999995</v>
       </c>
       <c r="G11" s="3">
-        <v>1577365.9499999965</v>
+        <v>1577365.9499999969</v>
       </c>
       <c r="H11" s="3">
-        <v>1215468.3999999999</v>
+        <v>1215468.4000000001</v>
       </c>
       <c r="I11" s="3">
-        <v>1626600.909999996</v>
+        <v>1626600.9099999955</v>
       </c>
       <c r="J11" s="3">
         <v>1599634.8099999984</v>
       </c>
       <c r="K11" s="3">
-        <v>1397886.0899999975</v>
+        <v>1397886.0899999971</v>
       </c>
       <c r="L11" s="3">
         <v>275574.74000000005</v>
       </c>
       <c r="M11" s="3">
-        <v>1210558.3799999994</v>
+        <v>1210558.379999998</v>
       </c>
       <c r="N11" s="3">
         <v>453432.81999999995</v>
       </c>
       <c r="O11" s="3">
-        <v>57353.080000000016</v>
-      </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3">
-        <v>12397203.209999984</v>
+        <v>57353.08</v>
+      </c>
+      <c r="P11" s="3">
+        <v>387962.9499999999</v>
+      </c>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3">
+        <v>12785166.159999982</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -2112,10 +2142,10 @@
         <v>2080.54</v>
       </c>
       <c r="D12" s="3">
-        <v>12537.169999999996</v>
+        <v>12537.169999999998</v>
       </c>
       <c r="E12" s="3">
-        <v>1270938.6699999974</v>
+        <v>1270938.6699999976</v>
       </c>
       <c r="F12" s="3">
         <v>1350522.9200000018</v>
@@ -2127,16 +2157,16 @@
         <v>1228070.3599999994</v>
       </c>
       <c r="I12" s="3">
-        <v>1822764.9300000004</v>
+        <v>1822764.93</v>
       </c>
       <c r="J12" s="3">
-        <v>1838977.0899999994</v>
+        <v>1838977.0899999996</v>
       </c>
       <c r="K12" s="3">
-        <v>1430627.0099999984</v>
+        <v>1430627.0099999979</v>
       </c>
       <c r="L12" s="3">
-        <v>325144.67000000022</v>
+        <v>325144.67000000016</v>
       </c>
       <c r="M12" s="3">
         <v>1317573.9000000004</v>
@@ -2145,14 +2175,17 @@
         <v>409270.78000000014</v>
       </c>
       <c r="O12" s="3">
-        <v>-469825.70000000019</v>
-      </c>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3">
-        <v>11936086.059999999</v>
+        <v>-469825.70000000007</v>
+      </c>
+      <c r="P12" s="3">
+        <v>327394.67999999993</v>
+      </c>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3">
+        <v>12263480.739999996</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -2164,10 +2197,10 @@
         <v>26665.450000000004</v>
       </c>
       <c r="E13" s="3">
-        <v>1148799.4799999965</v>
+        <v>1148799.4799999977</v>
       </c>
       <c r="F13" s="3">
-        <v>1307259.3</v>
+        <v>1307259.3000000003</v>
       </c>
       <c r="G13" s="3">
         <v>1388836.7200000009</v>
@@ -2179,39 +2212,42 @@
         <v>1729851.0400000005</v>
       </c>
       <c r="J13" s="3">
-        <v>1448316.3499999999</v>
+        <v>1448316.35</v>
       </c>
       <c r="K13" s="3">
-        <v>1146024.1499999999</v>
+        <v>1146024.1500000001</v>
       </c>
       <c r="L13" s="3">
-        <v>390104.56999999989</v>
+        <v>390104.56999999983</v>
       </c>
       <c r="M13" s="3">
-        <v>1147425.7600000005</v>
+        <v>1147425.7600000002</v>
       </c>
       <c r="N13" s="3">
         <v>-229223.66000000003</v>
       </c>
       <c r="O13" s="3">
-        <v>-1141128.9799999997</v>
-      </c>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3">
-        <v>9485889.2499999981</v>
+        <v>-1141128.9799999995</v>
+      </c>
+      <c r="P13" s="3">
+        <v>336496.01</v>
+      </c>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3">
+        <v>9822385.2599999979</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3">
-        <v>49429.810000000019</v>
+        <v>49429.810000000027</v>
       </c>
       <c r="E14" s="3">
-        <v>910679.64999999804</v>
+        <v>910679.64999999851</v>
       </c>
       <c r="F14" s="3">
         <v>1364272.5599999996</v>
@@ -2220,22 +2256,22 @@
         <v>1224427.8699999999</v>
       </c>
       <c r="H14" s="3">
-        <v>1333901.1100000006</v>
+        <v>1333901.1100000008</v>
       </c>
       <c r="I14" s="3">
-        <v>992715.61000000022</v>
+        <v>992715.6100000001</v>
       </c>
       <c r="J14" s="3">
-        <v>1589238.54</v>
+        <v>1589238.5400000005</v>
       </c>
       <c r="K14" s="3">
-        <v>947577.93000000087</v>
+        <v>947577.9300000004</v>
       </c>
       <c r="L14" s="3">
         <v>407078.84000000026</v>
       </c>
       <c r="M14" s="3">
-        <v>691413.79000000074</v>
+        <v>691413.79000000062</v>
       </c>
       <c r="N14" s="3">
         <v>72856.500000000073</v>
@@ -2243,12 +2279,15 @@
       <c r="O14" s="3">
         <v>-319399.64</v>
       </c>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3">
-        <v>9264192.5700000022</v>
+      <c r="P14" s="3">
+        <v>172377.42000000004</v>
+      </c>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3">
+        <v>9436569.9900000021</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2259,46 +2298,49 @@
         <v>6423.25</v>
       </c>
       <c r="D15" s="3">
-        <v>141472.17000000001</v>
+        <v>141472.17000000004</v>
       </c>
       <c r="E15" s="3">
-        <v>15064632.509999976</v>
+        <v>15064632.509999979</v>
       </c>
       <c r="F15" s="3">
-        <v>16496672.99000001</v>
+        <v>16496672.990000006</v>
       </c>
       <c r="G15" s="3">
         <v>19516569.219999999</v>
       </c>
       <c r="H15" s="3">
-        <v>15670626.569999995</v>
+        <v>15670626.569999997</v>
       </c>
       <c r="I15" s="3">
         <v>18746541.359999999</v>
       </c>
       <c r="J15" s="3">
-        <v>19881431.469999995</v>
+        <v>19881431.469999999</v>
       </c>
       <c r="K15" s="3">
-        <v>17475177.230000004</v>
+        <v>17475177.23</v>
       </c>
       <c r="L15" s="3">
         <v>5574834.3399999999</v>
       </c>
       <c r="M15" s="3">
-        <v>10045788.580000004</v>
+        <v>10045788.58</v>
       </c>
       <c r="N15" s="3">
-        <v>3542685.1499999994</v>
+        <v>3542685.15</v>
       </c>
       <c r="O15" s="3">
         <v>-3271242.819999998</v>
       </c>
       <c r="P15" s="3">
-        <v>-2106857.8599999994</v>
+        <v>-2590420.17</v>
       </c>
       <c r="Q15" s="3">
-        <v>136785054.15999997</v>
+        <v>96383.749999999985</v>
+      </c>
+      <c r="R15" s="3">
+        <v>136397875.59999999</v>
       </c>
     </row>
   </sheetData>
